--- a/backtest/bt_report/rs_smae_ind/single_run/summary.xlsx
+++ b/backtest/bt_report/rs_smae_ind/single_run/summary.xlsx
@@ -712,7 +712,7 @@
         </is>
       </c>
       <c r="B8" s="7" t="n">
-        <v>69275107.89768147</v>
+        <v>69275208.60878387</v>
       </c>
       <c r="C8" s="13" t="n"/>
       <c r="D8" s="13" t="n"/>
@@ -726,7 +726,7 @@
         </is>
       </c>
       <c r="B9" s="7" t="n">
-        <v>7258.894781466573</v>
+        <v>7359.605883870274</v>
       </c>
       <c r="C9" s="13" t="n"/>
       <c r="D9" s="13" t="n"/>
@@ -740,7 +740,7 @@
         </is>
       </c>
       <c r="B10" s="7" t="n">
-        <v>5.927510789768148</v>
+        <v>5.927520860878387</v>
       </c>
       <c r="C10" s="13" t="n"/>
       <c r="D10" s="13" t="n"/>
@@ -754,7 +754,7 @@
         </is>
       </c>
       <c r="B11" s="7" t="n">
-        <v>0.2761823343406995</v>
+        <v>0.2761825681076635</v>
       </c>
       <c r="C11" s="13" t="n"/>
       <c r="D11" s="13" t="n"/>
@@ -768,7 +768,7 @@
         </is>
       </c>
       <c r="B12" s="7" t="n">
-        <v>6.927510789768148</v>
+        <v>6.927520860878387</v>
       </c>
       <c r="C12" s="13" t="n"/>
       <c r="D12" s="13" t="n"/>
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="B14" s="7" t="n">
-        <v>132.5305009084525</v>
+        <v>132.5283336252121</v>
       </c>
       <c r="C14" s="13" t="n"/>
       <c r="D14" s="13" t="n"/>
@@ -810,7 +810,7 @@
         </is>
       </c>
       <c r="B15" s="7" t="n">
-        <v>0.4110267473683895</v>
+        <v>0.4234118907861719</v>
       </c>
     </row>
     <row r="16" ht="20" customHeight="1">
@@ -820,7 +820,7 @@
         </is>
       </c>
       <c r="B16" s="5" t="n">
-        <v>0.2328738207934444</v>
+        <v>0.232873654013217</v>
       </c>
       <c r="C16" s="13" t="n"/>
       <c r="D16" s="13" t="n"/>
@@ -834,7 +834,7 @@
         </is>
       </c>
       <c r="B17" s="5" t="n">
-        <v>0.9794208839814408</v>
+        <v>0.9794222022626694</v>
       </c>
       <c r="C17" s="13" t="n"/>
       <c r="D17" s="13" t="n"/>
@@ -848,7 +848,7 @@
         </is>
       </c>
       <c r="B18" s="5" t="n">
-        <v>0.1636925061560754</v>
+        <v>0.1636922851084789</v>
       </c>
       <c r="C18" s="13" t="n"/>
       <c r="D18" s="13" t="n"/>
@@ -862,7 +862,7 @@
         </is>
       </c>
       <c r="B19" s="5" t="n">
-        <v>1.393353237564722</v>
+        <v>1.393355996658182</v>
       </c>
       <c r="C19" s="13" t="n"/>
       <c r="D19" s="13" t="n"/>
@@ -890,7 +890,7 @@
         </is>
       </c>
       <c r="B21" s="5" t="n">
-        <v>0.02343574153223703</v>
+        <v>0.02343572250189203</v>
       </c>
       <c r="C21" s="13" t="n"/>
       <c r="D21" s="13" t="n"/>
@@ -904,7 +904,7 @@
         </is>
       </c>
       <c r="B22" s="7" t="n">
-        <v>1.17440081284707</v>
+        <v>1.174402049485087</v>
       </c>
       <c r="C22" s="13" t="n"/>
       <c r="D22" s="13" t="n"/>
@@ -918,7 +918,7 @@
         </is>
       </c>
       <c r="B23" s="7" t="n">
-        <v>0.1028203967512136</v>
+        <v>0.102820475778709</v>
       </c>
       <c r="C23" s="13" t="n"/>
       <c r="D23" s="13" t="n"/>
@@ -932,7 +932,7 @@
         </is>
       </c>
       <c r="B24" s="7" t="n">
-        <v>0.2111936436421033</v>
+        <v>0.2111939341669929</v>
       </c>
       <c r="C24" s="13" t="n"/>
       <c r="D24" s="13" t="n"/>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="B25" s="7" t="n">
-        <v>0.4255731596050902</v>
+        <v>0.4255720106798229</v>
       </c>
       <c r="C25" s="13" t="n"/>
       <c r="D25" s="13" t="n"/>
@@ -960,7 +960,7 @@
         </is>
       </c>
       <c r="B26" s="7" t="n">
-        <v>1.240521362285264</v>
+        <v>1.240522827588527</v>
       </c>
       <c r="C26" s="13" t="n"/>
       <c r="D26" s="13" t="n"/>
@@ -974,7 +974,7 @@
         </is>
       </c>
       <c r="B27" s="7" t="n">
-        <v>0.5033413087235711</v>
+        <v>0.5033413103061697</v>
       </c>
       <c r="C27" s="13" t="n"/>
       <c r="D27" s="13" t="n"/>
@@ -988,7 +988,7 @@
         </is>
       </c>
       <c r="B28" s="7" t="n">
-        <v>0.5752547058247581</v>
+        <v>0.5752545670093641</v>
       </c>
       <c r="C28" s="13" t="n"/>
       <c r="D28" s="13" t="n"/>
@@ -1002,7 +1002,7 @@
         </is>
       </c>
       <c r="B29" s="7" t="n">
-        <v>0.2625685361500861</v>
+        <v>0.2625688207072752</v>
       </c>
       <c r="C29" s="13" t="n"/>
       <c r="D29" s="13" t="n"/>
@@ -1016,7 +1016,7 @@
         </is>
       </c>
       <c r="B30" s="5" t="n">
-        <v>0.2038538276477292</v>
+        <v>0.2038540411549403</v>
       </c>
       <c r="C30" s="13" t="n"/>
       <c r="D30" s="13" t="n"/>
@@ -1030,7 +1030,7 @@
         </is>
       </c>
       <c r="B31" s="5" t="n">
-        <v>0.4554734648951296</v>
+        <v>0.4554737246943359</v>
       </c>
       <c r="C31" s="13" t="n"/>
       <c r="D31" s="13" t="n"/>
@@ -1044,7 +1044,7 @@
         </is>
       </c>
       <c r="B32" s="5" t="n">
-        <v>0.9606983501639834</v>
+        <v>0.9606978695064294</v>
       </c>
       <c r="C32" s="13" t="n"/>
       <c r="D32" s="13" t="n"/>
@@ -1058,7 +1058,7 @@
         </is>
       </c>
       <c r="B33" s="5" t="n">
-        <v>1.506287244555867</v>
+        <v>1.506285351860959</v>
       </c>
     </row>
     <row r="34" ht="20" customHeight="1">
@@ -1068,7 +1068,7 @@
         </is>
       </c>
       <c r="B34" s="5" t="n">
-        <v>1.217865632433135</v>
+        <v>1.217863871985986</v>
       </c>
     </row>
     <row r="35" ht="20" customHeight="1">
@@ -1078,7 +1078,7 @@
         </is>
       </c>
       <c r="B35" s="5" t="n">
-        <v>0.03436092867214413</v>
+        <v>0.03436096729415219</v>
       </c>
     </row>
     <row r="36" ht="20" customHeight="1">
@@ -1088,7 +1088,7 @@
         </is>
       </c>
       <c r="B36" s="16" t="n">
-        <v>0.2064665663466729</v>
+        <v>0.2064661979200169</v>
       </c>
     </row>
   </sheetData>
@@ -1197,16 +1197,16 @@
         <v>2016</v>
       </c>
       <c r="B4" s="13" t="n">
-        <v>-0.07853465729796498</v>
+        <v>-0.07852730439864536</v>
       </c>
       <c r="C4" s="13" t="n">
-        <v>0.175703968209248</v>
+        <v>0.1757124455867206</v>
       </c>
       <c r="D4" s="13" t="n">
-        <v>-0.3609235841167016</v>
+        <v>-0.3608811647581712</v>
       </c>
       <c r="E4" s="13" t="n">
-        <v>-0.01048228589251391</v>
+        <v>-0.01044731754874058</v>
       </c>
       <c r="F4" s="13" t="n">
         <v>0.5600000000000001</v>
@@ -1217,16 +1217,16 @@
         <v>2017</v>
       </c>
       <c r="B5" s="13" t="n">
-        <v>0.2555887894731424</v>
+        <v>0.2555867500001928</v>
       </c>
       <c r="C5" s="13" t="n">
-        <v>0.3825518113717831</v>
+        <v>0.3825494957883834</v>
       </c>
       <c r="D5" s="13" t="n">
-        <v>1.605038676388538</v>
+        <v>1.605037259941543</v>
       </c>
       <c r="E5" s="13" t="n">
-        <v>2.184814733807353</v>
+        <v>2.18481302088263</v>
       </c>
       <c r="F5" s="13" t="n">
         <v>0.6470588235294118</v>
@@ -1237,16 +1237,16 @@
         <v>2018</v>
       </c>
       <c r="B6" s="13" t="n">
-        <v>-0.0710100039730525</v>
+        <v>-0.07101160275553356</v>
       </c>
       <c r="C6" s="13" t="n">
-        <v>0.2316329930845971</v>
+        <v>0.231630843534265</v>
       </c>
       <c r="D6" s="13" t="n">
-        <v>-0.3753445087100739</v>
+        <v>-0.375356396202483</v>
       </c>
       <c r="E6" s="13" t="n">
-        <v>0.0318432064688292</v>
+        <v>0.03183147327606684</v>
       </c>
       <c r="F6" s="13" t="n">
         <v>0.6078431372549019</v>
@@ -1257,16 +1257,16 @@
         <v>2019</v>
       </c>
       <c r="B7" s="13" t="n">
-        <v>0.3650767905002443</v>
+        <v>0.3650715678187341</v>
       </c>
       <c r="C7" s="13" t="n">
-        <v>-0.07465086581946516</v>
+        <v>-0.07465448084793611</v>
       </c>
       <c r="D7" s="13" t="n">
-        <v>1.514552843286482</v>
+        <v>1.514539092802319</v>
       </c>
       <c r="E7" s="13" t="n">
-        <v>0.6042307546253872</v>
+        <v>0.6042028596796424</v>
       </c>
       <c r="F7" s="13" t="n">
         <v>0.3846153846153846</v>
@@ -1277,16 +1277,16 @@
         <v>2020</v>
       </c>
       <c r="B8" s="13" t="n">
-        <v>0.1484269276935585</v>
+        <v>0.1484274543593994</v>
       </c>
       <c r="C8" s="13" t="n">
-        <v>-0.325405691781316</v>
+        <v>-0.3254053518943449</v>
       </c>
       <c r="D8" s="13" t="n">
-        <v>0.6678816669662226</v>
+        <v>0.6678824442099208</v>
       </c>
       <c r="E8" s="13" t="n">
-        <v>-1.729482750883399</v>
+        <v>-1.729473658497802</v>
       </c>
       <c r="F8" s="13" t="n">
         <v>0.3846153846153846</v>
@@ -1297,16 +1297,16 @@
         <v>2021</v>
       </c>
       <c r="B9" s="13" t="n">
-        <v>-0.05627911049148866</v>
+        <v>-0.05627889842548772</v>
       </c>
       <c r="C9" s="13" t="n">
-        <v>-0.1879519982887966</v>
+        <v>-0.1879518526650552</v>
       </c>
       <c r="D9" s="13" t="n">
-        <v>-0.1354601593630368</v>
+        <v>-0.1354596536649402</v>
       </c>
       <c r="E9" s="13" t="n">
-        <v>-0.6368460954271261</v>
+        <v>-0.6368453856414227</v>
       </c>
       <c r="F9" s="13" t="n">
         <v>0.4807692307692308</v>
@@ -1317,16 +1317,16 @@
         <v>2022</v>
       </c>
       <c r="B10" s="13" t="n">
-        <v>0.03331482244688831</v>
+        <v>0.03331477275422322</v>
       </c>
       <c r="C10" s="13" t="n">
-        <v>0.1851669111229292</v>
+        <v>0.1851668263673923</v>
       </c>
       <c r="D10" s="13" t="n">
-        <v>0.5370923791044223</v>
+        <v>0.5370925200657047</v>
       </c>
       <c r="E10" s="13" t="n">
-        <v>0.9152616932221169</v>
+        <v>0.9152616411622262</v>
       </c>
       <c r="F10" s="13" t="n">
         <v>0.52</v>
@@ -1536,10 +1536,10 @@
         <v>-0.01131708326811054</v>
       </c>
       <c r="L4" s="15" t="n">
-        <v>0.03672414587787887</v>
+        <v>0.03672206263731503</v>
       </c>
       <c r="M4" s="15" t="n">
-        <v>-0.02418317300470851</v>
+        <v>-0.02417342553357116</v>
       </c>
     </row>
     <row r="5">
@@ -1547,40 +1547,40 @@
         <v>2017</v>
       </c>
       <c r="B5" s="15" t="n">
-        <v>0.001221131966681277</v>
+        <v>0.001221122222648363</v>
       </c>
       <c r="C5" s="15" t="n">
-        <v>0.03067051549953903</v>
+        <v>0.03067027106238407</v>
       </c>
       <c r="D5" s="15" t="n">
-        <v>0.009568062755397122</v>
+        <v>0.009567739330051506</v>
       </c>
       <c r="E5" s="15" t="n">
-        <v>0.01507861992627268</v>
+        <v>0.01507875523490676</v>
       </c>
       <c r="F5" s="15" t="n">
-        <v>-0.00544184669847847</v>
+        <v>-0.005441805636724584</v>
       </c>
       <c r="G5" s="15" t="n">
-        <v>0.07386702515986943</v>
+        <v>0.07386646474247982</v>
       </c>
       <c r="H5" s="15" t="n">
-        <v>0.03220671993392599</v>
+        <v>0.03220649239421092</v>
       </c>
       <c r="I5" s="15" t="n">
-        <v>0.03295976620665142</v>
+        <v>0.03295954061228601</v>
       </c>
       <c r="J5" s="15" t="n">
-        <v>0.005088484178482178</v>
+        <v>0.005088450461457672</v>
       </c>
       <c r="K5" s="15" t="n">
-        <v>0.05573949967812974</v>
+        <v>0.0557391322100691</v>
       </c>
       <c r="L5" s="15" t="n">
-        <v>-0.01482582077838768</v>
+        <v>-0.01482572819807237</v>
       </c>
       <c r="M5" s="15" t="n">
-        <v>-0.002627429298637796</v>
+        <v>-0.002627412644663485</v>
       </c>
     </row>
     <row r="6">
@@ -1588,28 +1588,28 @@
         <v>2018</v>
       </c>
       <c r="B6" s="15" t="n">
-        <v>0.03609122193288772</v>
+        <v>0.03609099256584747</v>
       </c>
       <c r="C6" s="15" t="n">
-        <v>-0.05926520258572099</v>
+        <v>-0.05926563052477252</v>
       </c>
       <c r="D6" s="15" t="n">
-        <v>0.02535930484442894</v>
+        <v>0.0253591608306889</v>
       </c>
       <c r="E6" s="15" t="n">
-        <v>-0.02441970257378712</v>
+        <v>-0.02441977245463778</v>
       </c>
       <c r="F6" s="15" t="n">
-        <v>0.0758630521338497</v>
+        <v>0.07586284766538154</v>
       </c>
       <c r="G6" s="15" t="n">
-        <v>-0.04697432529887391</v>
+        <v>-0.04697427286178646</v>
       </c>
       <c r="H6" s="15" t="n">
-        <v>-0.04150271227121272</v>
+        <v>-0.04150249098614511</v>
       </c>
       <c r="I6" s="15" t="n">
-        <v>-0.03390861823364877</v>
+        <v>-0.0339088575096278</v>
       </c>
       <c r="J6" s="15" t="n">
         <v>0</v>
@@ -1618,10 +1618,10 @@
         <v>0</v>
       </c>
       <c r="L6" s="15" t="n">
-        <v>-0.02789865808464487</v>
+        <v>-0.02789917417966115</v>
       </c>
       <c r="M6" s="15" t="n">
-        <v>0.03234415686488989</v>
+        <v>0.0323440021268786</v>
       </c>
     </row>
     <row r="7">
@@ -1629,40 +1629,40 @@
         <v>2019</v>
       </c>
       <c r="B7" s="15" t="n">
-        <v>-0.02987541611635003</v>
+        <v>-0.02987549834425918</v>
       </c>
       <c r="C7" s="15" t="n">
-        <v>0.294512528704387</v>
+        <v>0.2945114163041314</v>
       </c>
       <c r="D7" s="15" t="n">
-        <v>0.04914499914159887</v>
+        <v>0.0491441149047751</v>
       </c>
       <c r="E7" s="15" t="n">
-        <v>-0.02339490507308584</v>
+        <v>-0.02339651336025994</v>
       </c>
       <c r="F7" s="15" t="n">
-        <v>-0.01833690659392229</v>
+        <v>-0.01833705608271641</v>
       </c>
       <c r="G7" s="15" t="n">
-        <v>0.009498784917250314</v>
+        <v>0.009498949666450152</v>
       </c>
       <c r="H7" s="15" t="n">
-        <v>-0.03283600945613419</v>
+        <v>-0.03283631580195201</v>
       </c>
       <c r="I7" s="15" t="n">
-        <v>0.02143338358511415</v>
+        <v>0.02143336440888755</v>
       </c>
       <c r="J7" s="15" t="n">
-        <v>0.02189230920696961</v>
+        <v>0.02189229003114956</v>
       </c>
       <c r="K7" s="15" t="n">
-        <v>0.009347752222851113</v>
+        <v>0.009347744210417508</v>
       </c>
       <c r="L7" s="15" t="n">
-        <v>-0.02828084232452155</v>
+        <v>-0.02828064846554923</v>
       </c>
       <c r="M7" s="15" t="n">
-        <v>0.08119410133029481</v>
+        <v>0.08119384139537589</v>
       </c>
     </row>
     <row r="8">
@@ -1670,40 +1670,40 @@
         <v>2020</v>
       </c>
       <c r="B8" s="15" t="n">
-        <v>0.04461813905178413</v>
+        <v>0.0446181029869881</v>
       </c>
       <c r="C8" s="15" t="n">
-        <v>-0.08589833367508437</v>
+        <v>-0.08589811245421153</v>
       </c>
       <c r="D8" s="15" t="n">
-        <v>-0.07845309573006565</v>
+        <v>-0.07845301603871235</v>
       </c>
       <c r="E8" s="15" t="n">
-        <v>0.006788269232924637</v>
+        <v>0.006788078040668388</v>
       </c>
       <c r="F8" s="15" t="n">
-        <v>0.03207481617834929</v>
+        <v>0.03207478691469778</v>
       </c>
       <c r="G8" s="15" t="n">
-        <v>0.1283951887628423</v>
+        <v>0.1283950752612617</v>
       </c>
       <c r="H8" s="15" t="n">
-        <v>0.1850028524168463</v>
+        <v>0.185002864165839</v>
       </c>
       <c r="I8" s="15" t="n">
-        <v>-0.0484412906324061</v>
+        <v>-0.04842882336747911</v>
       </c>
       <c r="J8" s="15" t="n">
-        <v>-0.07123929785479077</v>
+        <v>-0.07125095250825797</v>
       </c>
       <c r="K8" s="15" t="n">
-        <v>-0.02813853558669432</v>
+        <v>-0.02813849769823817</v>
       </c>
       <c r="L8" s="15" t="n">
-        <v>0.05079447524239411</v>
+        <v>0.05079440486753906</v>
       </c>
       <c r="M8" s="15" t="n">
-        <v>0.04074024155127276</v>
+        <v>0.04074018783487454</v>
       </c>
     </row>
     <row r="9">
@@ -1711,40 +1711,40 @@
         <v>2021</v>
       </c>
       <c r="B9" s="15" t="n">
-        <v>0.02405191014373953</v>
+        <v>0.02405187967247069</v>
       </c>
       <c r="C9" s="15" t="n">
-        <v>-0.08893346265590729</v>
+        <v>-0.08893335263272439</v>
       </c>
       <c r="D9" s="15" t="n">
-        <v>-0.03565587423746108</v>
+        <v>-0.03565582582023019</v>
       </c>
       <c r="E9" s="15" t="n">
-        <v>0.003148539927973593</v>
+        <v>0.003148535494480242</v>
       </c>
       <c r="F9" s="15" t="n">
-        <v>0.02946679314461265</v>
+        <v>0.02946675178233726</v>
       </c>
       <c r="G9" s="15" t="n">
-        <v>-0.02293371091579854</v>
+        <v>-0.02293367964539028</v>
       </c>
       <c r="H9" s="15" t="n">
-        <v>0.0562524450657782</v>
+        <v>0.05625236656452492</v>
       </c>
       <c r="I9" s="15" t="n">
-        <v>0.03494335067969012</v>
+        <v>0.03494330451265037</v>
       </c>
       <c r="J9" s="15" t="n">
-        <v>-0.07434265182663702</v>
+        <v>-0.07434255692166258</v>
       </c>
       <c r="K9" s="15" t="n">
-        <v>-0.001142368891525303</v>
+        <v>-0.001142367316066539</v>
       </c>
       <c r="L9" s="15" t="n">
-        <v>0.001889710726064253</v>
+        <v>0.00188970811695377</v>
       </c>
       <c r="M9" s="15" t="n">
-        <v>0.02654921865334225</v>
+        <v>0.02654933518711711</v>
       </c>
     </row>
     <row r="10">
@@ -1752,25 +1752,25 @@
         <v>2022</v>
       </c>
       <c r="B10" s="15" t="n">
-        <v>-0.04643338773236838</v>
+        <v>-0.04643331847194276</v>
       </c>
       <c r="C10" s="15" t="n">
-        <v>0.01331953461874513</v>
+        <v>0.01331951378378049</v>
       </c>
       <c r="D10" s="15" t="n">
-        <v>-0.04969252931761825</v>
+        <v>-0.04969245260824828</v>
       </c>
       <c r="E10" s="15" t="n">
-        <v>0.004584065871499288</v>
+        <v>0.004584058425140647</v>
       </c>
       <c r="F10" s="15" t="n">
-        <v>0.01600400496286802</v>
+        <v>0.01600397908458073</v>
       </c>
       <c r="G10" s="15" t="n">
-        <v>0.09478886973582767</v>
+        <v>0.09478871887767415</v>
       </c>
       <c r="H10" s="15" t="n">
-        <v>0.007068438968623969</v>
+        <v>0.007068428693084217</v>
       </c>
       <c r="I10" s="15" t="n">
         <v/>
@@ -1992,10 +1992,10 @@
         <v>-0.01703532580380018</v>
       </c>
       <c r="L4" s="15" t="n">
-        <v>0.02475472301477621</v>
+        <v>0.02475251472445716</v>
       </c>
       <c r="M4" s="15" t="n">
-        <v>0.08240046150043567</v>
+        <v>0.08241059865140365</v>
       </c>
     </row>
     <row r="5">
@@ -2003,40 +2003,40 @@
         <v>2017</v>
       </c>
       <c r="B5" s="15" t="n">
-        <v>0.03813330129124148</v>
+        <v>0.03813329109922958</v>
       </c>
       <c r="C5" s="15" t="n">
-        <v>0.008503526208764489</v>
+        <v>0.008503285688379103</v>
       </c>
       <c r="D5" s="15" t="n">
-        <v>0.01935567603022159</v>
+        <v>0.01935533915928955</v>
       </c>
       <c r="E5" s="15" t="n">
-        <v>0.04496961705814484</v>
+        <v>0.04496975905270451</v>
       </c>
       <c r="F5" s="15" t="n">
-        <v>0.04170585266502047</v>
+        <v>0.04170589570949557</v>
       </c>
       <c r="G5" s="15" t="n">
-        <v>0.0405148716361039</v>
+        <v>0.04051432393793242</v>
       </c>
       <c r="H5" s="15" t="n">
-        <v>0.07648976785161987</v>
+        <v>0.07648953218758381</v>
       </c>
       <c r="I5" s="15" t="n">
-        <v>-0.03045360689084498</v>
+        <v>-0.03045383247100908</v>
       </c>
       <c r="J5" s="15" t="n">
-        <v>-0.00392914379550835</v>
+        <v>-0.003929186784302985</v>
       </c>
       <c r="K5" s="15" t="n">
-        <v>0.0527443927733664</v>
+        <v>0.05274402532707301</v>
       </c>
       <c r="L5" s="15" t="n">
-        <v>0.0393207159152773</v>
+        <v>0.03932080026702889</v>
       </c>
       <c r="M5" s="15" t="n">
-        <v>0.005510967067062555</v>
+        <v>0.005510982861347546</v>
       </c>
     </row>
     <row r="6">
@@ -2044,28 +2044,28 @@
         <v>2018</v>
       </c>
       <c r="B6" s="15" t="n">
-        <v>0.04344332857365285</v>
+        <v>0.04344309384720302</v>
       </c>
       <c r="C6" s="15" t="n">
-        <v>-0.07487171817037963</v>
+        <v>-0.07487212070987559</v>
       </c>
       <c r="D6" s="15" t="n">
-        <v>-0.05739977756725345</v>
+        <v>-0.05739992670256899</v>
       </c>
       <c r="E6" s="15" t="n">
-        <v>0.02312383369038096</v>
+        <v>0.02312375297689684</v>
       </c>
       <c r="F6" s="15" t="n">
-        <v>0.1119867269689441</v>
+        <v>0.1119865071413886</v>
       </c>
       <c r="G6" s="15" t="n">
-        <v>0.02875463278766999</v>
+        <v>0.02875466938355076</v>
       </c>
       <c r="H6" s="15" t="n">
-        <v>-0.01762566351750783</v>
+        <v>-0.01762543413900142</v>
       </c>
       <c r="I6" s="15" t="n">
-        <v>0.04362157491704699</v>
+        <v>0.04362132086580517</v>
       </c>
       <c r="J6" s="15" t="n">
         <v>0.01408128749632898</v>
@@ -2074,10 +2074,10 @@
         <v>0.09307593245600398</v>
       </c>
       <c r="L6" s="15" t="n">
-        <v>-0.07040794560317076</v>
+        <v>-0.07040841729180636</v>
       </c>
       <c r="M6" s="15" t="n">
-        <v>0.09473192092790428</v>
+        <v>0.09473173631281639</v>
       </c>
     </row>
     <row r="7">
@@ -2085,40 +2085,40 @@
         <v>2019</v>
       </c>
       <c r="B7" s="15" t="n">
-        <v>-0.01425773805987041</v>
+        <v>-0.01425782587185154</v>
       </c>
       <c r="C7" s="15" t="n">
-        <v>0.03746658894436106</v>
+        <v>0.03746565053886086</v>
       </c>
       <c r="D7" s="15" t="n">
-        <v>-0.05006845371810176</v>
+        <v>-0.05006929967698492</v>
       </c>
       <c r="E7" s="15" t="n">
-        <v>0.01685233395801378</v>
+        <v>0.01685066495061127</v>
       </c>
       <c r="F7" s="15" t="n">
-        <v>0.06282620541231787</v>
+        <v>0.0628260394151039</v>
       </c>
       <c r="G7" s="15" t="n">
-        <v>-0.01287340023796657</v>
+        <v>-0.01287323641926952</v>
       </c>
       <c r="H7" s="15" t="n">
-        <v>-0.07065788492655922</v>
+        <v>-0.07065816083776022</v>
       </c>
       <c r="I7" s="15" t="n">
-        <v>-0.007428986963594508</v>
+        <v>-0.007429002468095969</v>
       </c>
       <c r="J7" s="15" t="n">
-        <v>0.01117007604642928</v>
+        <v>0.01117005042157704</v>
       </c>
       <c r="K7" s="15" t="n">
-        <v>-0.01871267217773342</v>
+        <v>-0.01871268022507755</v>
       </c>
       <c r="L7" s="15" t="n">
-        <v>-0.02492548339945011</v>
+        <v>-0.02492529546418742</v>
       </c>
       <c r="M7" s="15" t="n">
-        <v>0.0004316107740796049</v>
+        <v>0.0004313730364355894</v>
       </c>
     </row>
     <row r="8">
@@ -2126,40 +2126,40 @@
         <v>2020</v>
       </c>
       <c r="B8" s="15" t="n">
-        <v>-0.02662836883105968</v>
+        <v>-0.02662840480338313</v>
       </c>
       <c r="C8" s="15" t="n">
-        <v>-0.151400246253491</v>
+        <v>-0.1514000709614565</v>
       </c>
       <c r="D8" s="15" t="n">
-        <v>0.01489343336154114</v>
+        <v>0.01489350832691705</v>
       </c>
       <c r="E8" s="15" t="n">
-        <v>-0.09355361000686757</v>
+        <v>-0.09355378799316649</v>
       </c>
       <c r="F8" s="15" t="n">
-        <v>0.02252572145576304</v>
+        <v>0.0225256836887997</v>
       </c>
       <c r="G8" s="15" t="n">
-        <v>-0.03513708583168096</v>
+        <v>-0.03513719007962413</v>
       </c>
       <c r="H8" s="15" t="n">
-        <v>0.03062073477596128</v>
+        <v>0.03062074297279649</v>
       </c>
       <c r="I8" s="15" t="n">
-        <v>-0.02774928031067425</v>
+        <v>-0.02773633734745917</v>
       </c>
       <c r="J8" s="15" t="n">
-        <v>-0.01890861336429062</v>
+        <v>-0.01892100260440033</v>
       </c>
       <c r="K8" s="15" t="n">
-        <v>-0.06133115660455946</v>
+        <v>-0.06133112211940139</v>
       </c>
       <c r="L8" s="15" t="n">
-        <v>0.05830435525382094</v>
+        <v>0.05830427858099285</v>
       </c>
       <c r="M8" s="15" t="n">
-        <v>-0.07859817776571776</v>
+        <v>-0.07859822819289586</v>
       </c>
     </row>
     <row r="9">
@@ -2167,40 +2167,40 @@
         <v>2021</v>
       </c>
       <c r="B9" s="15" t="n">
-        <v>-0.03155100129105748</v>
+        <v>-0.03155103790539338</v>
       </c>
       <c r="C9" s="15" t="n">
-        <v>-0.02175805437977807</v>
+        <v>-0.02175794403532316</v>
       </c>
       <c r="D9" s="15" t="n">
-        <v>0.008634545357795176</v>
+        <v>0.008634592050515089</v>
       </c>
       <c r="E9" s="15" t="n">
-        <v>-0.107474225661482</v>
+        <v>-0.1074742323474593</v>
       </c>
       <c r="F9" s="15" t="n">
-        <v>-0.04011208691600532</v>
+        <v>-0.04011213037755468</v>
       </c>
       <c r="G9" s="15" t="n">
-        <v>-0.07256036091121054</v>
+        <v>-0.07256033881386503</v>
       </c>
       <c r="H9" s="15" t="n">
-        <v>0.06114013054255119</v>
+        <v>0.06114004260572359</v>
       </c>
       <c r="I9" s="15" t="n">
-        <v>0.103167432169893</v>
+        <v>0.1031673862071112</v>
       </c>
       <c r="J9" s="15" t="n">
-        <v>-0.08615708071343542</v>
+        <v>-0.08615698976545749</v>
       </c>
       <c r="K9" s="15" t="n">
-        <v>-0.034215204686179</v>
+        <v>-0.0342152042790731</v>
       </c>
       <c r="L9" s="15" t="n">
-        <v>-0.04055603162549781</v>
+        <v>-0.04055603183239676</v>
       </c>
       <c r="M9" s="15" t="n">
-        <v>0.07897698613902837</v>
+        <v>0.0789771067612639</v>
       </c>
     </row>
     <row r="10">
@@ -2208,25 +2208,25 @@
         <v>2022</v>
       </c>
       <c r="B10" s="15" t="n">
-        <v>0.08416677952421248</v>
+        <v>0.0841668575969825</v>
       </c>
       <c r="C10" s="15" t="n">
-        <v>0.01806210161349053</v>
+        <v>0.01806208005000176</v>
       </c>
       <c r="D10" s="15" t="n">
-        <v>0.01772044005526507</v>
+        <v>0.01772051533395458</v>
       </c>
       <c r="E10" s="15" t="n">
-        <v>0.1371168584585112</v>
+        <v>0.1371168483904222</v>
       </c>
       <c r="F10" s="15" t="n">
-        <v>-0.02471836114525949</v>
+        <v>-0.02471838657143</v>
       </c>
       <c r="G10" s="15" t="n">
-        <v>-0.0647850058590651</v>
+        <v>-0.06478514734454643</v>
       </c>
       <c r="H10" s="15" t="n">
-        <v>0.01726486990291765</v>
+        <v>0.01726485962737789</v>
       </c>
       <c r="I10" s="15" t="n">
         <v/>

--- a/backtest/bt_report/rs_smae_ind/single_run/summary.xlsx
+++ b/backtest/bt_report/rs_smae_ind/single_run/summary.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="51600" yWindow="8320" windowWidth="28400" windowHeight="25040" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="概览" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="年度指标" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="月度收益" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="月度主动收益" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="概览" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="年度指标" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="月度收益" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="月度主动收益" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -665,7 +665,7 @@
       </c>
       <c r="B5" s="5" t="inlineStr">
         <is>
-          <t>STOCK:10000000.0</t>
+          <t>STOCK:100000000.0</t>
         </is>
       </c>
       <c r="C5" s="13" t="n"/>
@@ -712,7 +712,7 @@
         </is>
       </c>
       <c r="B8" s="7" t="n">
-        <v>69275208.60878387</v>
+        <v>693063722.8220655</v>
       </c>
       <c r="C8" s="13" t="n"/>
       <c r="D8" s="13" t="n"/>
@@ -726,7 +726,7 @@
         </is>
       </c>
       <c r="B9" s="7" t="n">
-        <v>7359.605883870274</v>
+        <v>4770.782765388489</v>
       </c>
       <c r="C9" s="13" t="n"/>
       <c r="D9" s="13" t="n"/>
@@ -740,7 +740,7 @@
         </is>
       </c>
       <c r="B10" s="7" t="n">
-        <v>5.927520860878387</v>
+        <v>5.930637228220655</v>
       </c>
       <c r="C10" s="13" t="n"/>
       <c r="D10" s="13" t="n"/>
@@ -754,7 +754,7 @@
         </is>
       </c>
       <c r="B11" s="7" t="n">
-        <v>0.2761825681076635</v>
+        <v>0.2762548898357791</v>
       </c>
       <c r="C11" s="13" t="n"/>
       <c r="D11" s="13" t="n"/>
@@ -768,7 +768,7 @@
         </is>
       </c>
       <c r="B12" s="7" t="n">
-        <v>6.927520860878387</v>
+        <v>6.930637228220655</v>
       </c>
       <c r="C12" s="13" t="n"/>
       <c r="D12" s="13" t="n"/>
@@ -782,7 +782,7 @@
         </is>
       </c>
       <c r="B13" s="7" t="n">
-        <v>10000000</v>
+        <v>100000000</v>
       </c>
       <c r="C13" s="13" t="n"/>
       <c r="D13" s="13" t="n"/>
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="B14" s="7" t="n">
-        <v>132.5283336252121</v>
+        <v>132.526146300315</v>
       </c>
       <c r="C14" s="13" t="n"/>
       <c r="D14" s="13" t="n"/>
@@ -810,7 +810,7 @@
         </is>
       </c>
       <c r="B15" s="7" t="n">
-        <v>0.4234118907861719</v>
+        <v>0.4814903959344692</v>
       </c>
     </row>
     <row r="16" ht="20" customHeight="1">
@@ -820,7 +820,7 @@
         </is>
       </c>
       <c r="B16" s="5" t="n">
-        <v>0.232873654013217</v>
+        <v>0.2328984138456512</v>
       </c>
       <c r="C16" s="13" t="n"/>
       <c r="D16" s="13" t="n"/>
@@ -834,7 +834,7 @@
         </is>
       </c>
       <c r="B17" s="5" t="n">
-        <v>0.9794222022626694</v>
+        <v>0.9795862351043066</v>
       </c>
       <c r="C17" s="13" t="n"/>
       <c r="D17" s="13" t="n"/>
@@ -848,7 +848,7 @@
         </is>
       </c>
       <c r="B18" s="5" t="n">
-        <v>0.1636922851084789</v>
+        <v>0.1637071278496486</v>
       </c>
       <c r="C18" s="13" t="n"/>
       <c r="D18" s="13" t="n"/>
@@ -862,7 +862,7 @@
         </is>
       </c>
       <c r="B19" s="5" t="n">
-        <v>1.393355996658182</v>
+        <v>1.393611160232177</v>
       </c>
       <c r="C19" s="13" t="n"/>
       <c r="D19" s="13" t="n"/>
@@ -876,7 +876,7 @@
         </is>
       </c>
       <c r="B20" s="5" t="n">
-        <v>0.2178050998088338</v>
+        <v>0.2178212267282255</v>
       </c>
       <c r="C20" s="13" t="n"/>
       <c r="D20" s="13" t="n"/>
@@ -890,7 +890,7 @@
         </is>
       </c>
       <c r="B21" s="5" t="n">
-        <v>0.02343572250189203</v>
+        <v>0.0234380922979372</v>
       </c>
       <c r="C21" s="13" t="n"/>
       <c r="D21" s="13" t="n"/>
@@ -904,7 +904,7 @@
         </is>
       </c>
       <c r="B22" s="7" t="n">
-        <v>1.174402049485087</v>
+        <v>1.175414831259392</v>
       </c>
       <c r="C22" s="13" t="n"/>
       <c r="D22" s="13" t="n"/>
@@ -918,7 +918,7 @@
         </is>
       </c>
       <c r="B23" s="7" t="n">
-        <v>0.102820475778709</v>
+        <v>0.1028851845291565</v>
       </c>
       <c r="C23" s="13" t="n"/>
       <c r="D23" s="13" t="n"/>
@@ -932,7 +932,7 @@
         </is>
       </c>
       <c r="B24" s="7" t="n">
-        <v>0.2111939341669929</v>
+        <v>0.2112652866407597</v>
       </c>
       <c r="C24" s="13" t="n"/>
       <c r="D24" s="13" t="n"/>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="B25" s="7" t="n">
-        <v>0.4255720106798229</v>
+        <v>0.4255916308617082</v>
       </c>
       <c r="C25" s="13" t="n"/>
       <c r="D25" s="13" t="n"/>
@@ -960,7 +960,7 @@
         </is>
       </c>
       <c r="B26" s="7" t="n">
-        <v>1.240522827588527</v>
+        <v>1.240723921562171</v>
       </c>
       <c r="C26" s="13" t="n"/>
       <c r="D26" s="13" t="n"/>
@@ -974,7 +974,7 @@
         </is>
       </c>
       <c r="B27" s="7" t="n">
-        <v>0.5033413103061697</v>
+        <v>0.5035512135742691</v>
       </c>
       <c r="C27" s="13" t="n"/>
       <c r="D27" s="13" t="n"/>
@@ -988,7 +988,7 @@
         </is>
       </c>
       <c r="B28" s="7" t="n">
-        <v>0.5752545670093641</v>
+        <v>0.5752297585988368</v>
       </c>
       <c r="C28" s="13" t="n"/>
       <c r="D28" s="13" t="n"/>
@@ -1002,7 +1002,7 @@
         </is>
       </c>
       <c r="B29" s="7" t="n">
-        <v>0.2625688207072752</v>
+        <v>0.2625833957186759</v>
       </c>
       <c r="C29" s="13" t="n"/>
       <c r="D29" s="13" t="n"/>
@@ -1016,7 +1016,7 @@
         </is>
       </c>
       <c r="B30" s="5" t="n">
-        <v>0.2038540411549403</v>
+        <v>0.2039233394541005</v>
       </c>
       <c r="C30" s="13" t="n"/>
       <c r="D30" s="13" t="n"/>
@@ -1030,7 +1030,7 @@
         </is>
       </c>
       <c r="B31" s="5" t="n">
-        <v>0.4554737246943359</v>
+        <v>0.4554957732168824</v>
       </c>
       <c r="C31" s="13" t="n"/>
       <c r="D31" s="13" t="n"/>
@@ -1044,7 +1044,7 @@
         </is>
       </c>
       <c r="B32" s="5" t="n">
-        <v>0.9606978695064294</v>
+        <v>0.9608404216964677</v>
       </c>
       <c r="C32" s="13" t="n"/>
       <c r="D32" s="13" t="n"/>
@@ -1058,7 +1058,7 @@
         </is>
       </c>
       <c r="B33" s="5" t="n">
-        <v>1.506285351860959</v>
+        <v>1.506594810592578</v>
       </c>
     </row>
     <row r="34" ht="20" customHeight="1">
@@ -1068,7 +1068,7 @@
         </is>
       </c>
       <c r="B34" s="5" t="n">
-        <v>1.217863871985986</v>
+        <v>1.218017159873205</v>
       </c>
     </row>
     <row r="35" ht="20" customHeight="1">
@@ -1078,7 +1078,7 @@
         </is>
       </c>
       <c r="B35" s="5" t="n">
-        <v>0.03436096729415219</v>
+        <v>0.03436377735982988</v>
       </c>
     </row>
     <row r="36" ht="20" customHeight="1">
@@ -1088,7 +1088,7 @@
         </is>
       </c>
       <c r="B36" s="16" t="n">
-        <v>0.2064661979200169</v>
+        <v>0.2064432418502773</v>
       </c>
     </row>
   </sheetData>
@@ -1157,16 +1157,16 @@
         <v>2014</v>
       </c>
       <c r="B2" s="13" t="n">
-        <v>0.9554459999999979</v>
+        <v>0.9559970000000011</v>
       </c>
       <c r="C2" s="13" t="n">
-        <v>0.7833732082589765</v>
+        <v>0.7838729283582948</v>
       </c>
       <c r="D2" s="13" t="n">
-        <v>3.477933820119619</v>
+        <v>3.478218937330437</v>
       </c>
       <c r="E2" s="13" t="n">
-        <v>6.044945150177945</v>
+        <v>6.046359708800219</v>
       </c>
       <c r="F2" s="13" t="n">
         <v>0.6052631578947368</v>
@@ -1177,16 +1177,16 @@
         <v>2015</v>
       </c>
       <c r="B3" s="13" t="n">
-        <v>1.156042150997778</v>
+        <v>1.156105556399115</v>
       </c>
       <c r="C3" s="13" t="n">
-        <v>0.0137412672060071</v>
+        <v>0.01377658330596685</v>
       </c>
       <c r="D3" s="13" t="n">
-        <v>2.580546725723143</v>
+        <v>2.580474015788165</v>
       </c>
       <c r="E3" s="13" t="n">
-        <v>3.360584824538321</v>
+        <v>3.360475954923332</v>
       </c>
       <c r="F3" s="13" t="n">
         <v>0.4423076923076923</v>
@@ -1197,16 +1197,16 @@
         <v>2016</v>
       </c>
       <c r="B4" s="13" t="n">
-        <v>-0.07852730439864536</v>
+        <v>-0.07853796804428183</v>
       </c>
       <c r="C4" s="13" t="n">
-        <v>0.1757124455867206</v>
+        <v>0.1757033164925406</v>
       </c>
       <c r="D4" s="13" t="n">
-        <v>-0.3608811647581712</v>
+        <v>-0.3608900153647788</v>
       </c>
       <c r="E4" s="13" t="n">
-        <v>-0.01044731754874058</v>
+        <v>-0.01045600633479002</v>
       </c>
       <c r="F4" s="13" t="n">
         <v>0.5600000000000001</v>
@@ -1217,16 +1217,16 @@
         <v>2017</v>
       </c>
       <c r="B5" s="13" t="n">
-        <v>0.2555867500001928</v>
+        <v>0.255674626201231</v>
       </c>
       <c r="C5" s="13" t="n">
-        <v>0.3825494957883834</v>
+        <v>0.3826478191263675</v>
       </c>
       <c r="D5" s="13" t="n">
-        <v>1.605037259941543</v>
+        <v>1.605231884294459</v>
       </c>
       <c r="E5" s="13" t="n">
-        <v>2.18481302088263</v>
+        <v>2.185051443455453</v>
       </c>
       <c r="F5" s="13" t="n">
         <v>0.6470588235294118</v>
@@ -1237,16 +1237,16 @@
         <v>2018</v>
       </c>
       <c r="B6" s="13" t="n">
-        <v>-0.07101160275553356</v>
+        <v>-0.07099950488718934</v>
       </c>
       <c r="C6" s="13" t="n">
-        <v>0.231630843534265</v>
+        <v>0.231647687559195</v>
       </c>
       <c r="D6" s="13" t="n">
-        <v>-0.375356396202483</v>
+        <v>-0.3752372282075294</v>
       </c>
       <c r="E6" s="13" t="n">
-        <v>0.03183147327606684</v>
+        <v>0.03193041156915571</v>
       </c>
       <c r="F6" s="13" t="n">
         <v>0.6078431372549019</v>
@@ -1257,16 +1257,16 @@
         <v>2019</v>
       </c>
       <c r="B7" s="13" t="n">
-        <v>0.3650715678187341</v>
+        <v>0.3650759721523685</v>
       </c>
       <c r="C7" s="13" t="n">
-        <v>-0.07465448084793611</v>
+        <v>-0.07465005336370581</v>
       </c>
       <c r="D7" s="13" t="n">
-        <v>1.514539092802319</v>
+        <v>1.514511617214638</v>
       </c>
       <c r="E7" s="13" t="n">
-        <v>0.6042028596796424</v>
+        <v>0.6041487638543475</v>
       </c>
       <c r="F7" s="13" t="n">
         <v>0.3846153846153846</v>
@@ -1277,16 +1277,16 @@
         <v>2020</v>
       </c>
       <c r="B8" s="13" t="n">
-        <v>0.1484274543593994</v>
+        <v>0.1485040036572728</v>
       </c>
       <c r="C8" s="13" t="n">
-        <v>-0.3254053518943449</v>
+        <v>-0.325356080844682</v>
       </c>
       <c r="D8" s="13" t="n">
-        <v>0.6678824442099208</v>
+        <v>0.6681019528166647</v>
       </c>
       <c r="E8" s="13" t="n">
-        <v>-1.729473658497802</v>
+        <v>-1.729121841375625</v>
       </c>
       <c r="F8" s="13" t="n">
         <v>0.3846153846153846</v>
@@ -1297,16 +1297,16 @@
         <v>2021</v>
       </c>
       <c r="B9" s="13" t="n">
-        <v>-0.05627889842548772</v>
+        <v>-0.05629452532026696</v>
       </c>
       <c r="C9" s="13" t="n">
-        <v>-0.1879518526650552</v>
+        <v>-0.1879670373547903</v>
       </c>
       <c r="D9" s="13" t="n">
-        <v>-0.1354596536649402</v>
+        <v>-0.1355353473708056</v>
       </c>
       <c r="E9" s="13" t="n">
-        <v>-0.6368453856414227</v>
+        <v>-0.6368992582454744</v>
       </c>
       <c r="F9" s="13" t="n">
         <v>0.4807692307692308</v>
@@ -1317,16 +1317,16 @@
         <v>2022</v>
       </c>
       <c r="B10" s="13" t="n">
-        <v>0.03331477275422322</v>
+        <v>0.0333290294339008</v>
       </c>
       <c r="C10" s="13" t="n">
-        <v>0.1851668263673923</v>
+        <v>0.1851841334177895</v>
       </c>
       <c r="D10" s="13" t="n">
-        <v>0.5370925200657047</v>
+        <v>0.5372618131871726</v>
       </c>
       <c r="E10" s="13" t="n">
-        <v>0.9152616411622262</v>
+        <v>0.915470648526995</v>
       </c>
       <c r="F10" s="13" t="n">
         <v>0.52</v>
@@ -1433,31 +1433,31 @@
         <v/>
       </c>
       <c r="E2" s="15" t="n">
-        <v>-0.04519900000000021</v>
+        <v>-0.04520299999999999</v>
       </c>
       <c r="F2" s="15" t="n">
-        <v>0.01787702358920873</v>
+        <v>0.01787919316880981</v>
       </c>
       <c r="G2" s="15" t="n">
-        <v>0.02471729758095154</v>
+        <v>0.02472660896335754</v>
       </c>
       <c r="H2" s="15" t="n">
-        <v>0.06830559940234537</v>
+        <v>0.06831114400155092</v>
       </c>
       <c r="I2" s="15" t="n">
-        <v>0.005229731266630511</v>
+        <v>0.005235306834095788</v>
       </c>
       <c r="J2" s="15" t="n">
-        <v>0.06254809575859599</v>
+        <v>0.06251986909770912</v>
       </c>
       <c r="K2" s="15" t="n">
-        <v>0.02551974480255237</v>
+        <v>0.0255463693443565</v>
       </c>
       <c r="L2" s="15" t="n">
-        <v>0.2361729057170436</v>
+        <v>0.2363284551589799</v>
       </c>
       <c r="M2" s="15" t="n">
-        <v>0.357378323690394</v>
+        <v>0.3575666759901202</v>
       </c>
     </row>
     <row r="3">
@@ -1465,40 +1465,40 @@
         <v>2015</v>
       </c>
       <c r="B3" s="15" t="n">
-        <v>-0.01568491280250217</v>
+        <v>-0.01571219178761496</v>
       </c>
       <c r="C3" s="15" t="n">
-        <v>0.133934096193062</v>
+        <v>0.1339738342377983</v>
       </c>
       <c r="D3" s="15" t="n">
-        <v>0.1842494712650418</v>
+        <v>0.1842456871773932</v>
       </c>
       <c r="E3" s="15" t="n">
-        <v>0.2075157513139803</v>
+        <v>0.2075430757734453</v>
       </c>
       <c r="F3" s="15" t="n">
-        <v>0.2079509860714526</v>
+        <v>0.2079355292301341</v>
       </c>
       <c r="G3" s="15" t="n">
-        <v>-0.0417627958076463</v>
+        <v>-0.04176078968672459</v>
       </c>
       <c r="H3" s="15" t="n">
         <v>0</v>
       </c>
       <c r="I3" s="15" t="n">
-        <v>0.01979349242606276</v>
+        <v>0.01979507035393935</v>
       </c>
       <c r="J3" s="15" t="n">
-        <v>-0.004997069887591854</v>
+        <v>-0.004997473721000012</v>
       </c>
       <c r="K3" s="15" t="n">
-        <v>0.1197899801650353</v>
+        <v>0.1197978098337942</v>
       </c>
       <c r="L3" s="15" t="n">
-        <v>0.05858944585076897</v>
+        <v>0.05859368626137806</v>
       </c>
       <c r="M3" s="15" t="n">
-        <v>-0.0297666183163644</v>
+        <v>-0.02976544602157305</v>
       </c>
     </row>
     <row r="4">
@@ -1506,40 +1506,40 @@
         <v>2016</v>
       </c>
       <c r="B4" s="15" t="n">
-        <v>-0.08406308882492131</v>
+        <v>-0.0840781953346853</v>
       </c>
       <c r="C4" s="15" t="n">
         <v>0</v>
       </c>
       <c r="D4" s="15" t="n">
-        <v>0.06015674283174999</v>
+        <v>0.06015791858132169</v>
       </c>
       <c r="E4" s="15" t="n">
-        <v>-0.03778218106193698</v>
+        <v>-0.03778297365770278</v>
       </c>
       <c r="F4" s="15" t="n">
-        <v>0.01412481655711506</v>
+        <v>0.01412598064307691</v>
       </c>
       <c r="G4" s="15" t="n">
-        <v>0.01522349368366216</v>
+        <v>0.01522724502954276</v>
       </c>
       <c r="H4" s="15" t="n">
-        <v>-0.01337921450681401</v>
+        <v>-0.01338235257868625</v>
       </c>
       <c r="I4" s="15" t="n">
-        <v>-0.0005320595226910863</v>
+        <v>-0.0005301528824003254</v>
       </c>
       <c r="J4" s="15" t="n">
-        <v>-0.0287987681853562</v>
+        <v>-0.02879792185820873</v>
       </c>
       <c r="K4" s="15" t="n">
-        <v>-0.01131708326811054</v>
+        <v>-0.01131858591801782</v>
       </c>
       <c r="L4" s="15" t="n">
-        <v>0.03672206263731503</v>
+        <v>0.03672310133378831</v>
       </c>
       <c r="M4" s="15" t="n">
-        <v>-0.02417342553357116</v>
+        <v>-0.02417273087952398</v>
       </c>
     </row>
     <row r="5">
@@ -1547,40 +1547,40 @@
         <v>2017</v>
       </c>
       <c r="B5" s="15" t="n">
-        <v>0.001221122222648363</v>
+        <v>0.00122127111523973</v>
       </c>
       <c r="C5" s="15" t="n">
-        <v>0.03067027106238407</v>
+        <v>0.03067367351339412</v>
       </c>
       <c r="D5" s="15" t="n">
-        <v>0.009567739330051506</v>
+        <v>0.0095693290722072</v>
       </c>
       <c r="E5" s="15" t="n">
-        <v>0.01507875523490676</v>
+        <v>0.01508181998491898</v>
       </c>
       <c r="F5" s="15" t="n">
-        <v>-0.005441805636724584</v>
+        <v>-0.005442078545508822</v>
       </c>
       <c r="G5" s="15" t="n">
-        <v>0.07386646474247982</v>
+        <v>0.07389025165403429</v>
       </c>
       <c r="H5" s="15" t="n">
-        <v>0.03220649239421092</v>
+        <v>0.03222413293454496</v>
       </c>
       <c r="I5" s="15" t="n">
-        <v>0.03295954061228601</v>
+        <v>0.0329695287447116</v>
       </c>
       <c r="J5" s="15" t="n">
-        <v>0.005088450461457672</v>
+        <v>0.005091766103537898</v>
       </c>
       <c r="K5" s="15" t="n">
-        <v>0.0557391322100691</v>
+        <v>0.05575247106943459</v>
       </c>
       <c r="L5" s="15" t="n">
-        <v>-0.01482572819807237</v>
+        <v>-0.01482786304433359</v>
       </c>
       <c r="M5" s="15" t="n">
-        <v>-0.002627412644663485</v>
+        <v>-0.002627871379216495</v>
       </c>
     </row>
     <row r="6">
@@ -1588,28 +1588,28 @@
         <v>2018</v>
       </c>
       <c r="B6" s="15" t="n">
-        <v>0.03609099256584747</v>
+        <v>0.03610347857735419</v>
       </c>
       <c r="C6" s="15" t="n">
-        <v>-0.05926563052477252</v>
+        <v>-0.05926576434916242</v>
       </c>
       <c r="D6" s="15" t="n">
-        <v>0.0253591608306889</v>
+        <v>0.02535874001047089</v>
       </c>
       <c r="E6" s="15" t="n">
-        <v>-0.02441977245463778</v>
+        <v>-0.02441990123936777</v>
       </c>
       <c r="F6" s="15" t="n">
-        <v>0.07586284766538154</v>
+        <v>0.0758696863012982</v>
       </c>
       <c r="G6" s="15" t="n">
-        <v>-0.04697427286178646</v>
+        <v>-0.04697796460403514</v>
       </c>
       <c r="H6" s="15" t="n">
-        <v>-0.04150249098614511</v>
+        <v>-0.04150482590895255</v>
       </c>
       <c r="I6" s="15" t="n">
-        <v>-0.0339088575096278</v>
+        <v>-0.0339066350626771</v>
       </c>
       <c r="J6" s="15" t="n">
         <v>0</v>
@@ -1618,10 +1618,10 @@
         <v>0</v>
       </c>
       <c r="L6" s="15" t="n">
-        <v>-0.02789917417966115</v>
+        <v>-0.02790088020541781</v>
       </c>
       <c r="M6" s="15" t="n">
-        <v>0.0323440021268786</v>
+        <v>0.03234510063977858</v>
       </c>
     </row>
     <row r="7">
@@ -1629,40 +1629,40 @@
         <v>2019</v>
       </c>
       <c r="B7" s="15" t="n">
-        <v>-0.02987549834425918</v>
+        <v>-0.02987598274082148</v>
       </c>
       <c r="C7" s="15" t="n">
-        <v>0.2945114163041314</v>
+        <v>0.2945160142389216</v>
       </c>
       <c r="D7" s="15" t="n">
-        <v>0.0491441149047751</v>
+        <v>0.04914519142621621</v>
       </c>
       <c r="E7" s="15" t="n">
-        <v>-0.02339651336025994</v>
+        <v>-0.02339751413655311</v>
       </c>
       <c r="F7" s="15" t="n">
-        <v>-0.01833705608271641</v>
+        <v>-0.01833735780417323</v>
       </c>
       <c r="G7" s="15" t="n">
-        <v>0.009498949666450152</v>
+        <v>0.009498957580567291</v>
       </c>
       <c r="H7" s="15" t="n">
-        <v>-0.03283631580195201</v>
+        <v>-0.0328375048914501</v>
       </c>
       <c r="I7" s="15" t="n">
-        <v>0.02143336440888755</v>
+        <v>0.02143407676744724</v>
       </c>
       <c r="J7" s="15" t="n">
-        <v>0.02189229003114956</v>
+        <v>0.02189577529704878</v>
       </c>
       <c r="K7" s="15" t="n">
-        <v>0.009347744210417508</v>
+        <v>0.009348742807868682</v>
       </c>
       <c r="L7" s="15" t="n">
-        <v>-0.02828064846554923</v>
+        <v>-0.02828747021060252</v>
       </c>
       <c r="M7" s="15" t="n">
-        <v>0.08119384139537589</v>
+        <v>0.08119776017505442</v>
       </c>
     </row>
     <row r="8">
@@ -1670,40 +1670,40 @@
         <v>2020</v>
       </c>
       <c r="B8" s="15" t="n">
-        <v>0.0446181029869881</v>
+        <v>0.04462351594974745</v>
       </c>
       <c r="C8" s="15" t="n">
-        <v>-0.08589811245421153</v>
+        <v>-0.08591171558130228</v>
       </c>
       <c r="D8" s="15" t="n">
-        <v>-0.07845301603871235</v>
+        <v>-0.0784605769544825</v>
       </c>
       <c r="E8" s="15" t="n">
-        <v>0.006788078040668388</v>
+        <v>0.006793110477341546</v>
       </c>
       <c r="F8" s="15" t="n">
-        <v>0.03207478691469778</v>
+        <v>0.03208453438217607</v>
       </c>
       <c r="G8" s="15" t="n">
-        <v>0.1283950752612617</v>
+        <v>0.1284264067045351</v>
       </c>
       <c r="H8" s="15" t="n">
-        <v>0.185002864165839</v>
+        <v>0.1850532425570841</v>
       </c>
       <c r="I8" s="15" t="n">
-        <v>-0.04842882336747911</v>
+        <v>-0.04843439791438087</v>
       </c>
       <c r="J8" s="15" t="n">
-        <v>-0.07125095250825797</v>
+        <v>-0.07124968263906539</v>
       </c>
       <c r="K8" s="15" t="n">
-        <v>-0.02813849769823817</v>
+        <v>-0.02813127429525253</v>
       </c>
       <c r="L8" s="15" t="n">
-        <v>0.05079440486753906</v>
+        <v>0.05078788815077973</v>
       </c>
       <c r="M8" s="15" t="n">
-        <v>0.04074018783487454</v>
+        <v>0.04074341074339682</v>
       </c>
     </row>
     <row r="9">
@@ -1711,40 +1711,40 @@
         <v>2021</v>
       </c>
       <c r="B9" s="15" t="n">
-        <v>0.02405187967247069</v>
+        <v>0.02404859753331556</v>
       </c>
       <c r="C9" s="15" t="n">
-        <v>-0.08893335263272439</v>
+        <v>-0.08897227439541244</v>
       </c>
       <c r="D9" s="15" t="n">
-        <v>-0.03565582582023019</v>
+        <v>-0.03561494051784464</v>
       </c>
       <c r="E9" s="15" t="n">
-        <v>0.003148535494480242</v>
+        <v>0.003138990240386219</v>
       </c>
       <c r="F9" s="15" t="n">
-        <v>0.02946675178233726</v>
+        <v>0.02946503109758591</v>
       </c>
       <c r="G9" s="15" t="n">
-        <v>-0.02293367964539028</v>
+        <v>-0.02293045735829291</v>
       </c>
       <c r="H9" s="15" t="n">
-        <v>0.05625236656452492</v>
+        <v>0.05625003584122679</v>
       </c>
       <c r="I9" s="15" t="n">
-        <v>0.03494330451265037</v>
+        <v>0.03494352747969365</v>
       </c>
       <c r="J9" s="15" t="n">
-        <v>-0.07434255692166258</v>
+        <v>-0.07434196646711466</v>
       </c>
       <c r="K9" s="15" t="n">
-        <v>-0.001142367316066539</v>
+        <v>-0.0011397207936783</v>
       </c>
       <c r="L9" s="15" t="n">
-        <v>0.00188970811695377</v>
+        <v>0.001885038851612286</v>
       </c>
       <c r="M9" s="15" t="n">
-        <v>0.02654933518711711</v>
+        <v>0.02654751314886461</v>
       </c>
     </row>
     <row r="10">
@@ -1752,25 +1752,25 @@
         <v>2022</v>
       </c>
       <c r="B10" s="15" t="n">
-        <v>-0.04643331847194276</v>
+        <v>-0.0464318685762064</v>
       </c>
       <c r="C10" s="15" t="n">
-        <v>0.01331951378378049</v>
+        <v>0.01332009938594436</v>
       </c>
       <c r="D10" s="15" t="n">
-        <v>-0.04969245260824828</v>
+        <v>-0.04969553442257058</v>
       </c>
       <c r="E10" s="15" t="n">
-        <v>0.004584058425140647</v>
+        <v>0.004587748835242822</v>
       </c>
       <c r="F10" s="15" t="n">
-        <v>0.01600397908458073</v>
+        <v>0.01600617677345051</v>
       </c>
       <c r="G10" s="15" t="n">
-        <v>0.09478871887767415</v>
+        <v>0.09479850717776395</v>
       </c>
       <c r="H10" s="15" t="n">
-        <v>0.007068428693084217</v>
+        <v>0.007068593957765934</v>
       </c>
       <c r="I10" s="15" t="n">
         <v/>
@@ -1889,31 +1889,31 @@
         <v/>
       </c>
       <c r="E2" s="15" t="n">
-        <v>0.01842302582723909</v>
+        <v>0.01841882757375002</v>
       </c>
       <c r="F2" s="15" t="n">
-        <v>-0.01354014655508384</v>
+        <v>-0.01353803802866016</v>
       </c>
       <c r="G2" s="15" t="n">
-        <v>-0.03905146802687398</v>
+        <v>-0.03904244323989814</v>
       </c>
       <c r="H2" s="15" t="n">
-        <v>0.114228123583185</v>
+        <v>0.1142341313766124</v>
       </c>
       <c r="I2" s="15" t="n">
-        <v>-0.05301254954620394</v>
+        <v>-0.05300725046711541</v>
       </c>
       <c r="J2" s="15" t="n">
-        <v>-0.01807968525303372</v>
+        <v>-0.0181061568619989</v>
       </c>
       <c r="K2" s="15" t="n">
-        <v>0.04397591613464469</v>
+        <v>0.04400273046845338</v>
       </c>
       <c r="L2" s="15" t="n">
-        <v>0.1875533542419348</v>
+        <v>0.1877028074469234</v>
       </c>
       <c r="M2" s="15" t="n">
-        <v>0.4381238533848337</v>
+        <v>0.4383211922848387</v>
       </c>
     </row>
     <row r="3">
@@ -1921,40 +1921,40 @@
         <v>2015</v>
       </c>
       <c r="B3" s="15" t="n">
-        <v>-0.1449884808776242</v>
+        <v>-0.1450131647215638</v>
       </c>
       <c r="C3" s="15" t="n">
-        <v>-0.01168937799534742</v>
+        <v>-0.01165385357134974</v>
       </c>
       <c r="D3" s="15" t="n">
-        <v>-0.02325502154919745</v>
+        <v>-0.023257625733764</v>
       </c>
       <c r="E3" s="15" t="n">
-        <v>-0.01416353362077638</v>
+        <v>-0.01414037037490279</v>
       </c>
       <c r="F3" s="15" t="n">
-        <v>-0.02687217179248036</v>
+        <v>-0.02688400413987635</v>
       </c>
       <c r="G3" s="15" t="n">
-        <v>0.1600036826378639</v>
+        <v>0.1600072596084772</v>
       </c>
       <c r="H3" s="15" t="n">
         <v>0.08807385286485769</v>
       </c>
       <c r="I3" s="15" t="n">
-        <v>0.2507615094025863</v>
+        <v>0.250764134279708</v>
       </c>
       <c r="J3" s="15" t="n">
-        <v>-0.0742157423819666</v>
+        <v>-0.07421611543872741</v>
       </c>
       <c r="K3" s="15" t="n">
-        <v>-0.06272146575269288</v>
+        <v>-0.06271411112887892</v>
       </c>
       <c r="L3" s="15" t="n">
-        <v>-0.01946159371676992</v>
+        <v>-0.01945665892163306</v>
       </c>
       <c r="M3" s="15" t="n">
-        <v>-0.04682988404664079</v>
+        <v>-0.04682851745633021</v>
       </c>
     </row>
     <row r="4">
@@ -1962,40 +1962,40 @@
         <v>2016</v>
       </c>
       <c r="B4" s="15" t="n">
-        <v>0.2060083814052398</v>
+        <v>0.2059900714407306</v>
       </c>
       <c r="C4" s="15" t="n">
         <v>0.04481461253681185</v>
       </c>
       <c r="D4" s="15" t="n">
-        <v>-0.1180637126000554</v>
+        <v>-0.1180625278996846</v>
       </c>
       <c r="E4" s="15" t="n">
-        <v>0.00323135719180212</v>
+        <v>0.003230578967728714</v>
       </c>
       <c r="F4" s="15" t="n">
-        <v>-0.004003420854947537</v>
+        <v>-0.004002220106677501</v>
       </c>
       <c r="G4" s="15" t="n">
-        <v>-0.01773117161335924</v>
+        <v>-0.01772642820339332</v>
       </c>
       <c r="H4" s="15" t="n">
-        <v>0.03473555427032005</v>
+        <v>0.03473296047567853</v>
       </c>
       <c r="I4" s="15" t="n">
-        <v>-0.03397063994347815</v>
+        <v>-0.03396875424367762</v>
       </c>
       <c r="J4" s="15" t="n">
-        <v>-0.01095421805216723</v>
+        <v>-0.01095335953106735</v>
       </c>
       <c r="K4" s="15" t="n">
-        <v>-0.01703532580380018</v>
+        <v>-0.0170367961586595</v>
       </c>
       <c r="L4" s="15" t="n">
-        <v>0.02475251472445716</v>
+        <v>0.02475357034774861</v>
       </c>
       <c r="M4" s="15" t="n">
-        <v>0.08241059865140365</v>
+        <v>0.08241164627967557</v>
       </c>
     </row>
     <row r="5">
@@ -2003,40 +2003,40 @@
         <v>2017</v>
       </c>
       <c r="B5" s="15" t="n">
-        <v>0.03813329109922958</v>
+        <v>0.03813344661047235</v>
       </c>
       <c r="C5" s="15" t="n">
-        <v>0.008503285688379103</v>
+        <v>0.008506679968884212</v>
       </c>
       <c r="D5" s="15" t="n">
-        <v>0.01935533915928955</v>
+        <v>0.01935701186132266</v>
       </c>
       <c r="E5" s="15" t="n">
-        <v>0.04496975905270451</v>
+        <v>0.04497303353962945</v>
       </c>
       <c r="F5" s="15" t="n">
-        <v>0.04170589570949557</v>
+        <v>0.04170561044686338</v>
       </c>
       <c r="G5" s="15" t="n">
-        <v>0.04051432393793242</v>
+        <v>0.04053756180933688</v>
       </c>
       <c r="H5" s="15" t="n">
-        <v>0.07648953218758381</v>
+        <v>0.07650782688177515</v>
       </c>
       <c r="I5" s="15" t="n">
-        <v>-0.03045383247100908</v>
+        <v>-0.03044426459039329</v>
       </c>
       <c r="J5" s="15" t="n">
-        <v>-0.003929186784302985</v>
+        <v>-0.003925676999817718</v>
       </c>
       <c r="K5" s="15" t="n">
-        <v>0.05274402532707301</v>
+        <v>0.05275728804032731</v>
       </c>
       <c r="L5" s="15" t="n">
-        <v>0.03932080026702889</v>
+        <v>0.03931893288521482</v>
       </c>
       <c r="M5" s="15" t="n">
-        <v>0.005510982861347546</v>
+        <v>0.005510558452274772</v>
       </c>
     </row>
     <row r="6">
@@ -2044,28 +2044,28 @@
         <v>2018</v>
       </c>
       <c r="B6" s="15" t="n">
-        <v>0.04344309384720302</v>
+        <v>0.04345579650498665</v>
       </c>
       <c r="C6" s="15" t="n">
-        <v>-0.07487212070987559</v>
+        <v>-0.07487253572542163</v>
       </c>
       <c r="D6" s="15" t="n">
-        <v>-0.05739992670256899</v>
+        <v>-0.0574001042060821</v>
       </c>
       <c r="E6" s="15" t="n">
-        <v>0.02312375297689684</v>
+        <v>0.0231236317762995</v>
       </c>
       <c r="F6" s="15" t="n">
-        <v>0.1119865071413886</v>
+        <v>0.1119936777563613</v>
       </c>
       <c r="G6" s="15" t="n">
-        <v>0.02875466938355076</v>
+        <v>0.02875113340962487</v>
       </c>
       <c r="H6" s="15" t="n">
-        <v>-0.01762543413900142</v>
+        <v>-0.01762779630543621</v>
       </c>
       <c r="I6" s="15" t="n">
-        <v>0.04362132086580517</v>
+        <v>0.04362367578807058</v>
       </c>
       <c r="J6" s="15" t="n">
         <v>0.01408128749632898</v>
@@ -2074,10 +2074,10 @@
         <v>0.09307593245600398</v>
       </c>
       <c r="L6" s="15" t="n">
-        <v>-0.07040841729180636</v>
+        <v>-0.07041000979445944</v>
       </c>
       <c r="M6" s="15" t="n">
-        <v>0.09473173631281639</v>
+        <v>0.09473294888380845</v>
       </c>
     </row>
     <row r="7">
@@ -2085,40 +2085,40 @@
         <v>2019</v>
       </c>
       <c r="B7" s="15" t="n">
-        <v>-0.01425782587185154</v>
+        <v>-0.01425830889090962</v>
       </c>
       <c r="C7" s="15" t="n">
-        <v>0.03746565053886086</v>
+        <v>0.03746949025728141</v>
       </c>
       <c r="D7" s="15" t="n">
-        <v>-0.05006929967698492</v>
+        <v>-0.05006817930185625</v>
       </c>
       <c r="E7" s="15" t="n">
-        <v>0.01685066495061127</v>
+        <v>0.01684968548134735</v>
       </c>
       <c r="F7" s="15" t="n">
-        <v>0.0628260394151039</v>
+        <v>0.06282575829972981</v>
       </c>
       <c r="G7" s="15" t="n">
-        <v>-0.01287323641926952</v>
+        <v>-0.01287322654108425</v>
       </c>
       <c r="H7" s="15" t="n">
-        <v>-0.07065816083776022</v>
+        <v>-0.07065930185490832</v>
       </c>
       <c r="I7" s="15" t="n">
-        <v>-0.007429002468095969</v>
+        <v>-0.007428270244423163</v>
       </c>
       <c r="J7" s="15" t="n">
-        <v>0.01117005042157704</v>
+        <v>0.01117390934271234</v>
       </c>
       <c r="K7" s="15" t="n">
-        <v>-0.01871268022507755</v>
+        <v>-0.01871166993131335</v>
       </c>
       <c r="L7" s="15" t="n">
-        <v>-0.02492529546418742</v>
+        <v>-0.02493167171526467</v>
       </c>
       <c r="M7" s="15" t="n">
-        <v>0.0004313730364355894</v>
+        <v>0.0004351700964198013</v>
       </c>
     </row>
     <row r="8">
@@ -2126,40 +2126,40 @@
         <v>2020</v>
       </c>
       <c r="B8" s="15" t="n">
-        <v>-0.02662840480338313</v>
+        <v>-0.02662311783436977</v>
       </c>
       <c r="C8" s="15" t="n">
-        <v>-0.1514000709614565</v>
+        <v>-0.1514122647566352</v>
       </c>
       <c r="D8" s="15" t="n">
-        <v>0.01489350832691705</v>
+        <v>0.01488566581854522</v>
       </c>
       <c r="E8" s="15" t="n">
-        <v>-0.09355378799316649</v>
+        <v>-0.09354910084332813</v>
       </c>
       <c r="F8" s="15" t="n">
-        <v>0.0225256836887997</v>
+        <v>0.02253602411746569</v>
       </c>
       <c r="G8" s="15" t="n">
-        <v>-0.03513719007962413</v>
+        <v>-0.03510970324907448</v>
       </c>
       <c r="H8" s="15" t="n">
-        <v>0.03062074297279649</v>
+        <v>0.03066764274469103</v>
       </c>
       <c r="I8" s="15" t="n">
-        <v>-0.02773633734745917</v>
+        <v>-0.02774177592207605</v>
       </c>
       <c r="J8" s="15" t="n">
-        <v>-0.01892100260440033</v>
+        <v>-0.01891962441155715</v>
       </c>
       <c r="K8" s="15" t="n">
-        <v>-0.06133112211940139</v>
+        <v>-0.06132377709891768</v>
       </c>
       <c r="L8" s="15" t="n">
-        <v>0.05830427858099285</v>
+        <v>0.05829780211319346</v>
       </c>
       <c r="M8" s="15" t="n">
-        <v>-0.07859822819289586</v>
+        <v>-0.07859554858500017</v>
       </c>
     </row>
     <row r="9">
@@ -2167,40 +2167,40 @@
         <v>2021</v>
       </c>
       <c r="B9" s="15" t="n">
-        <v>-0.03155103790539338</v>
+        <v>-0.03155448140015671</v>
       </c>
       <c r="C9" s="15" t="n">
-        <v>-0.02175794403532316</v>
+        <v>-0.02179984229664178</v>
       </c>
       <c r="D9" s="15" t="n">
-        <v>0.008634592050515089</v>
+        <v>0.008675133524895573</v>
       </c>
       <c r="E9" s="15" t="n">
-        <v>-0.1074742323474593</v>
+        <v>-0.1074824910191717</v>
       </c>
       <c r="F9" s="15" t="n">
-        <v>-0.04011213037755468</v>
+        <v>-0.0401137568730352</v>
       </c>
       <c r="G9" s="15" t="n">
-        <v>-0.07256033881386503</v>
+        <v>-0.07255721261687031</v>
       </c>
       <c r="H9" s="15" t="n">
-        <v>0.06114004260572359</v>
+        <v>0.06113782661553158</v>
       </c>
       <c r="I9" s="15" t="n">
-        <v>0.1031673862071112</v>
+        <v>0.1031676543045597</v>
       </c>
       <c r="J9" s="15" t="n">
-        <v>-0.08615698976545749</v>
+        <v>-0.0861563945712297</v>
       </c>
       <c r="K9" s="15" t="n">
-        <v>-0.0342152042790731</v>
+        <v>-0.03421251800588943</v>
       </c>
       <c r="L9" s="15" t="n">
-        <v>-0.04055603183239676</v>
+        <v>-0.04056052420560496</v>
       </c>
       <c r="M9" s="15" t="n">
-        <v>0.0789771067612639</v>
+        <v>0.07897512730721989</v>
       </c>
     </row>
     <row r="10">
@@ -2208,25 +2208,25 @@
         <v>2022</v>
       </c>
       <c r="B10" s="15" t="n">
-        <v>0.0841668575969825</v>
+        <v>0.08416846014185952</v>
       </c>
       <c r="C10" s="15" t="n">
-        <v>0.01806208005000176</v>
+        <v>0.01806268952870282</v>
       </c>
       <c r="D10" s="15" t="n">
-        <v>0.01772051533395458</v>
+        <v>0.01771726768300264</v>
       </c>
       <c r="E10" s="15" t="n">
-        <v>0.1371168483904222</v>
+        <v>0.1371212439690466</v>
       </c>
       <c r="F10" s="15" t="n">
-        <v>-0.02471838657143</v>
+        <v>-0.02471622651287608</v>
       </c>
       <c r="G10" s="15" t="n">
-        <v>-0.06478514734454643</v>
+        <v>-0.06477628665587543</v>
       </c>
       <c r="H10" s="15" t="n">
-        <v>0.01726485962737789</v>
+        <v>0.01726502489205961</v>
       </c>
       <c r="I10" s="15" t="n">
         <v/>

--- a/backtest/bt_report/rs_smae_ind/single_run/summary.xlsx
+++ b/backtest/bt_report/rs_smae_ind/single_run/summary.xlsx
@@ -712,7 +712,7 @@
         </is>
       </c>
       <c r="B8" s="7" t="n">
-        <v>693063722.8220655</v>
+        <v>684446853.4070739</v>
       </c>
       <c r="C8" s="13" t="n"/>
       <c r="D8" s="13" t="n"/>
@@ -726,7 +726,7 @@
         </is>
       </c>
       <c r="B9" s="7" t="n">
-        <v>4770.782765388489</v>
+        <v>10087.72727382183</v>
       </c>
       <c r="C9" s="13" t="n"/>
       <c r="D9" s="13" t="n"/>
@@ -740,7 +740,7 @@
         </is>
       </c>
       <c r="B10" s="7" t="n">
-        <v>5.930637228220655</v>
+        <v>5.844468534070739</v>
       </c>
       <c r="C10" s="13" t="n"/>
       <c r="D10" s="13" t="n"/>
@@ -754,7 +754,7 @@
         </is>
       </c>
       <c r="B11" s="7" t="n">
-        <v>0.2762548898357791</v>
+        <v>0.274244612702752</v>
       </c>
       <c r="C11" s="13" t="n"/>
       <c r="D11" s="13" t="n"/>
@@ -768,7 +768,7 @@
         </is>
       </c>
       <c r="B12" s="7" t="n">
-        <v>6.930637228220655</v>
+        <v>6.844468534070739</v>
       </c>
       <c r="C12" s="13" t="n"/>
       <c r="D12" s="13" t="n"/>
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="B14" s="7" t="n">
-        <v>132.526146300315</v>
+        <v>139.1038022381245</v>
       </c>
       <c r="C14" s="13" t="n"/>
       <c r="D14" s="13" t="n"/>
@@ -810,7 +810,7 @@
         </is>
       </c>
       <c r="B15" s="7" t="n">
-        <v>0.4814903959344692</v>
+        <v>0.3196763526928593</v>
       </c>
     </row>
     <row r="16" ht="20" customHeight="1">
@@ -820,7 +820,7 @@
         </is>
       </c>
       <c r="B16" s="5" t="n">
-        <v>0.2328984138456512</v>
+        <v>0.2321110959280367</v>
       </c>
       <c r="C16" s="13" t="n"/>
       <c r="D16" s="13" t="n"/>
@@ -834,7 +834,7 @@
         </is>
       </c>
       <c r="B17" s="5" t="n">
-        <v>0.9795862351043066</v>
+        <v>0.9753396676906482</v>
       </c>
       <c r="C17" s="13" t="n"/>
       <c r="D17" s="13" t="n"/>
@@ -848,7 +848,7 @@
         </is>
       </c>
       <c r="B18" s="5" t="n">
-        <v>0.1637071278496486</v>
+        <v>0.1633174339398558</v>
       </c>
       <c r="C18" s="13" t="n"/>
       <c r="D18" s="13" t="n"/>
@@ -862,7 +862,7 @@
         </is>
       </c>
       <c r="B19" s="5" t="n">
-        <v>1.393611160232177</v>
+        <v>1.386178766763713</v>
       </c>
       <c r="C19" s="13" t="n"/>
       <c r="D19" s="13" t="n"/>
@@ -876,7 +876,7 @@
         </is>
       </c>
       <c r="B20" s="5" t="n">
-        <v>0.2178212267282255</v>
+        <v>0.2353653517121808</v>
       </c>
       <c r="C20" s="13" t="n"/>
       <c r="D20" s="13" t="n"/>
@@ -890,7 +890,7 @@
         </is>
       </c>
       <c r="B21" s="5" t="n">
-        <v>0.0234380922979372</v>
+        <v>0.02336378717197493</v>
       </c>
       <c r="C21" s="13" t="n"/>
       <c r="D21" s="13" t="n"/>
@@ -904,7 +904,7 @@
         </is>
       </c>
       <c r="B22" s="7" t="n">
-        <v>1.175414831259392</v>
+        <v>1.148021043646766</v>
       </c>
       <c r="C22" s="13" t="n"/>
       <c r="D22" s="13" t="n"/>
@@ -918,7 +918,7 @@
         </is>
       </c>
       <c r="B23" s="7" t="n">
-        <v>0.1028851845291565</v>
+        <v>0.1011255882293522</v>
       </c>
       <c r="C23" s="13" t="n"/>
       <c r="D23" s="13" t="n"/>
@@ -932,7 +932,7 @@
         </is>
       </c>
       <c r="B24" s="7" t="n">
-        <v>0.2112652866407597</v>
+        <v>0.2092631093872184</v>
       </c>
       <c r="C24" s="13" t="n"/>
       <c r="D24" s="13" t="n"/>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="B25" s="7" t="n">
-        <v>0.4255916308617082</v>
+        <v>0.4254276686271709</v>
       </c>
       <c r="C25" s="13" t="n"/>
       <c r="D25" s="13" t="n"/>
@@ -960,7 +960,7 @@
         </is>
       </c>
       <c r="B26" s="7" t="n">
-        <v>1.240723921562171</v>
+        <v>1.236266268841683</v>
       </c>
       <c r="C26" s="13" t="n"/>
       <c r="D26" s="13" t="n"/>
@@ -974,7 +974,7 @@
         </is>
       </c>
       <c r="B27" s="7" t="n">
-        <v>0.5035512135742691</v>
+        <v>0.4980670235121181</v>
       </c>
       <c r="C27" s="13" t="n"/>
       <c r="D27" s="13" t="n"/>
@@ -988,7 +988,7 @@
         </is>
       </c>
       <c r="B28" s="7" t="n">
-        <v>0.5752297585988368</v>
+        <v>0.5854569706922974</v>
       </c>
       <c r="C28" s="13" t="n"/>
       <c r="D28" s="13" t="n"/>
@@ -1002,7 +1002,7 @@
         </is>
       </c>
       <c r="B29" s="7" t="n">
-        <v>0.2625833957186759</v>
+        <v>0.2619472083245739</v>
       </c>
       <c r="C29" s="13" t="n"/>
       <c r="D29" s="13" t="n"/>
@@ -1016,7 +1016,7 @@
         </is>
       </c>
       <c r="B30" s="5" t="n">
-        <v>0.2039233394541005</v>
+        <v>0.2022009509411122</v>
       </c>
       <c r="C30" s="13" t="n"/>
       <c r="D30" s="13" t="n"/>
@@ -1030,7 +1030,7 @@
         </is>
       </c>
       <c r="B31" s="5" t="n">
-        <v>0.4554957732168824</v>
+        <v>0.4505635845213515</v>
       </c>
       <c r="C31" s="13" t="n"/>
       <c r="D31" s="13" t="n"/>
@@ -1044,7 +1044,7 @@
         </is>
       </c>
       <c r="B32" s="5" t="n">
-        <v>0.9608404216964677</v>
+        <v>0.9598284512032802</v>
       </c>
       <c r="C32" s="13" t="n"/>
       <c r="D32" s="13" t="n"/>
@@ -1058,7 +1058,7 @@
         </is>
       </c>
       <c r="B33" s="5" t="n">
-        <v>1.506594810592578</v>
+        <v>1.496679068765328</v>
       </c>
     </row>
     <row r="34" ht="20" customHeight="1">
@@ -1068,7 +1068,7 @@
         </is>
       </c>
       <c r="B34" s="5" t="n">
-        <v>1.218017159873205</v>
+        <v>1.216847306724417</v>
       </c>
     </row>
     <row r="35" ht="20" customHeight="1">
@@ -1078,7 +1078,7 @@
         </is>
       </c>
       <c r="B35" s="5" t="n">
-        <v>0.03436377735982988</v>
+        <v>0.03438785002748813</v>
       </c>
     </row>
     <row r="36" ht="20" customHeight="1">
@@ -1088,7 +1088,7 @@
         </is>
       </c>
       <c r="B36" s="16" t="n">
-        <v>0.2064432418502773</v>
+        <v>0.2186842065237482</v>
       </c>
     </row>
   </sheetData>
@@ -1157,16 +1157,16 @@
         <v>2014</v>
       </c>
       <c r="B2" s="13" t="n">
-        <v>0.9559970000000011</v>
+        <v>0.9607450000000001</v>
       </c>
       <c r="C2" s="13" t="n">
-        <v>0.7838729283582948</v>
+        <v>0.7873066859576169</v>
       </c>
       <c r="D2" s="13" t="n">
-        <v>3.478218937330437</v>
+        <v>3.630354381361787</v>
       </c>
       <c r="E2" s="13" t="n">
-        <v>6.046359708800219</v>
+        <v>6.36366649193251</v>
       </c>
       <c r="F2" s="13" t="n">
         <v>0.6052631578947368</v>
@@ -1177,19 +1177,19 @@
         <v>2015</v>
       </c>
       <c r="B3" s="13" t="n">
-        <v>1.156105556399115</v>
+        <v>1.155033418420038</v>
       </c>
       <c r="C3" s="13" t="n">
-        <v>0.01377658330596685</v>
+        <v>0.01281881386161186</v>
       </c>
       <c r="D3" s="13" t="n">
-        <v>2.580474015788165</v>
+        <v>2.601035228282797</v>
       </c>
       <c r="E3" s="13" t="n">
-        <v>3.360475954923332</v>
+        <v>3.409384022441794</v>
       </c>
       <c r="F3" s="13" t="n">
-        <v>0.4423076923076923</v>
+        <v>0.4230769230769231</v>
       </c>
     </row>
     <row r="4">
@@ -1197,16 +1197,16 @@
         <v>2016</v>
       </c>
       <c r="B4" s="13" t="n">
-        <v>-0.07853796804428183</v>
+        <v>-0.06590247572400748</v>
       </c>
       <c r="C4" s="13" t="n">
-        <v>0.1757033164925406</v>
+        <v>0.1916881226138361</v>
       </c>
       <c r="D4" s="13" t="n">
-        <v>-0.3608900153647788</v>
+        <v>-0.2842260547499764</v>
       </c>
       <c r="E4" s="13" t="n">
-        <v>-0.01045600633479002</v>
+        <v>0.06902919013713096</v>
       </c>
       <c r="F4" s="13" t="n">
         <v>0.5600000000000001</v>
@@ -1217,19 +1217,19 @@
         <v>2017</v>
       </c>
       <c r="B5" s="13" t="n">
-        <v>0.255674626201231</v>
+        <v>0.2420323070522886</v>
       </c>
       <c r="C5" s="13" t="n">
-        <v>0.3826478191263675</v>
+        <v>0.3674031944021091</v>
       </c>
       <c r="D5" s="13" t="n">
-        <v>1.605231884294459</v>
+        <v>1.571323375349977</v>
       </c>
       <c r="E5" s="13" t="n">
-        <v>2.185051443455453</v>
+        <v>2.143342882474727</v>
       </c>
       <c r="F5" s="13" t="n">
-        <v>0.6470588235294118</v>
+        <v>0.6274509803921569</v>
       </c>
     </row>
     <row r="6">
@@ -1237,16 +1237,16 @@
         <v>2018</v>
       </c>
       <c r="B6" s="13" t="n">
-        <v>-0.07099950488718934</v>
+        <v>-0.06572277035451181</v>
       </c>
       <c r="C6" s="13" t="n">
-        <v>0.231647687559195</v>
+        <v>0.2385576427429683</v>
       </c>
       <c r="D6" s="13" t="n">
-        <v>-0.3752372282075294</v>
+        <v>-0.3409846405789185</v>
       </c>
       <c r="E6" s="13" t="n">
-        <v>0.03193041156915571</v>
+        <v>0.06698280287213824</v>
       </c>
       <c r="F6" s="13" t="n">
         <v>0.6078431372549019</v>
@@ -1257,16 +1257,16 @@
         <v>2019</v>
       </c>
       <c r="B7" s="13" t="n">
-        <v>0.3650759721523685</v>
+        <v>0.3652976969335457</v>
       </c>
       <c r="C7" s="13" t="n">
-        <v>-0.07465005336370581</v>
+        <v>-0.07451024786554745</v>
       </c>
       <c r="D7" s="13" t="n">
-        <v>1.514511617214638</v>
+        <v>1.51539135079816</v>
       </c>
       <c r="E7" s="13" t="n">
-        <v>0.6041487638543475</v>
+        <v>0.6060230287772558</v>
       </c>
       <c r="F7" s="13" t="n">
         <v>0.3846153846153846</v>
@@ -1277,16 +1277,16 @@
         <v>2020</v>
       </c>
       <c r="B8" s="13" t="n">
-        <v>0.1485040036572728</v>
+        <v>0.1298325741238713</v>
       </c>
       <c r="C8" s="13" t="n">
-        <v>-0.325356080844682</v>
+        <v>-0.3360627388168652</v>
       </c>
       <c r="D8" s="13" t="n">
-        <v>0.6681019528166647</v>
+        <v>0.6024831530198416</v>
       </c>
       <c r="E8" s="13" t="n">
-        <v>-1.729121841375625</v>
+        <v>-1.840306447622697</v>
       </c>
       <c r="F8" s="13" t="n">
         <v>0.3846153846153846</v>
@@ -1297,16 +1297,16 @@
         <v>2021</v>
       </c>
       <c r="B9" s="13" t="n">
-        <v>-0.05629452532026696</v>
+        <v>-0.06240914831043798</v>
       </c>
       <c r="C9" s="13" t="n">
-        <v>-0.1879670373547903</v>
+        <v>-0.1926415208215328</v>
       </c>
       <c r="D9" s="13" t="n">
-        <v>-0.1355353473708056</v>
+        <v>-0.1521932962214135</v>
       </c>
       <c r="E9" s="13" t="n">
-        <v>-0.6368992582454744</v>
+        <v>-0.6533908665283595</v>
       </c>
       <c r="F9" s="13" t="n">
         <v>0.4807692307692308</v>
@@ -1317,16 +1317,16 @@
         <v>2022</v>
       </c>
       <c r="B10" s="13" t="n">
-        <v>0.0333290294339008</v>
+        <v>0.03325840559406845</v>
       </c>
       <c r="C10" s="13" t="n">
-        <v>0.1851841334177895</v>
+        <v>0.1851334295304976</v>
       </c>
       <c r="D10" s="13" t="n">
-        <v>0.5372618131871726</v>
+        <v>0.5322105129927407</v>
       </c>
       <c r="E10" s="13" t="n">
-        <v>0.915470648526995</v>
+        <v>0.9044384820961253</v>
       </c>
       <c r="F10" s="13" t="n">
         <v>0.52</v>
@@ -1433,31 +1433,31 @@
         <v/>
       </c>
       <c r="E2" s="15" t="n">
-        <v>-0.04520299999999999</v>
+        <v>-0.02398299999999987</v>
       </c>
       <c r="F2" s="15" t="n">
-        <v>0.01787919316880981</v>
+        <v>0.01769231478550082</v>
       </c>
       <c r="G2" s="15" t="n">
-        <v>0.02472660896335754</v>
+        <v>0.02472603532722251</v>
       </c>
       <c r="H2" s="15" t="n">
-        <v>0.06831114400155092</v>
+        <v>0.06896629644002705</v>
       </c>
       <c r="I2" s="15" t="n">
-        <v>0.005235306834095788</v>
+        <v>0.005183623426301187</v>
       </c>
       <c r="J2" s="15" t="n">
-        <v>0.06251986909770912</v>
+        <v>0.0619969972990313</v>
       </c>
       <c r="K2" s="15" t="n">
-        <v>0.0255463693443565</v>
+        <v>0.02686470016453035</v>
       </c>
       <c r="L2" s="15" t="n">
-        <v>0.2363284551589799</v>
+        <v>0.2289287241445803</v>
       </c>
       <c r="M2" s="15" t="n">
-        <v>0.3575666759901202</v>
+        <v>0.3377249986525506</v>
       </c>
     </row>
     <row r="3">
@@ -1465,40 +1465,40 @@
         <v>2015</v>
       </c>
       <c r="B3" s="15" t="n">
-        <v>-0.01571219178761496</v>
+        <v>-0.01735054787848489</v>
       </c>
       <c r="C3" s="15" t="n">
-        <v>0.1339738342377983</v>
+        <v>0.1182519560393929</v>
       </c>
       <c r="D3" s="15" t="n">
-        <v>0.1842456871773932</v>
+        <v>0.1960935019799834</v>
       </c>
       <c r="E3" s="15" t="n">
-        <v>0.2075430757734453</v>
+        <v>0.1982355862882503</v>
       </c>
       <c r="F3" s="15" t="n">
-        <v>0.2079355292301341</v>
+        <v>0.2255738076540064</v>
       </c>
       <c r="G3" s="15" t="n">
-        <v>-0.04176078968672459</v>
+        <v>-0.04415771783706046</v>
       </c>
       <c r="H3" s="15" t="n">
         <v>0</v>
       </c>
       <c r="I3" s="15" t="n">
-        <v>0.01979507035393935</v>
+        <v>0.01979561924339368</v>
       </c>
       <c r="J3" s="15" t="n">
-        <v>-0.004997473721000012</v>
+        <v>-0.00499813769357027</v>
       </c>
       <c r="K3" s="15" t="n">
-        <v>0.1197978098337942</v>
+        <v>0.119503799989974</v>
       </c>
       <c r="L3" s="15" t="n">
-        <v>0.05859368626137806</v>
+        <v>0.05965717239380419</v>
       </c>
       <c r="M3" s="15" t="n">
-        <v>-0.02976544602157305</v>
+        <v>-0.0295912956348422</v>
       </c>
     </row>
     <row r="4">
@@ -1506,40 +1506,40 @@
         <v>2016</v>
       </c>
       <c r="B4" s="15" t="n">
-        <v>-0.0840781953346853</v>
+        <v>-0.0840791476263828</v>
       </c>
       <c r="C4" s="15" t="n">
         <v>0</v>
       </c>
       <c r="D4" s="15" t="n">
-        <v>0.06015791858132169</v>
+        <v>0.0603106250146952</v>
       </c>
       <c r="E4" s="15" t="n">
-        <v>-0.03778297365770278</v>
+        <v>-0.03748308501951092</v>
       </c>
       <c r="F4" s="15" t="n">
-        <v>0.01412598064307691</v>
+        <v>0.01420225606645409</v>
       </c>
       <c r="G4" s="15" t="n">
-        <v>0.01522724502954276</v>
+        <v>0.01522707432628567</v>
       </c>
       <c r="H4" s="15" t="n">
-        <v>-0.01338235257868625</v>
+        <v>-0.01324673478917071</v>
       </c>
       <c r="I4" s="15" t="n">
-        <v>-0.0005301528824003254</v>
+        <v>-0.001212305159012494</v>
       </c>
       <c r="J4" s="15" t="n">
-        <v>-0.02879792185820873</v>
+        <v>-0.02928033399939278</v>
       </c>
       <c r="K4" s="15" t="n">
-        <v>-0.01131858591801782</v>
+        <v>-0.007313936934674414</v>
       </c>
       <c r="L4" s="15" t="n">
-        <v>0.03672310133378831</v>
+        <v>0.04720901920962817</v>
       </c>
       <c r="M4" s="15" t="n">
-        <v>-0.02417273087952398</v>
+        <v>-0.02414757590914085</v>
       </c>
     </row>
     <row r="5">
@@ -1547,40 +1547,40 @@
         <v>2017</v>
       </c>
       <c r="B5" s="15" t="n">
-        <v>0.00122127111523973</v>
+        <v>0.0012211800247377</v>
       </c>
       <c r="C5" s="15" t="n">
-        <v>0.03067367351339412</v>
+        <v>0.0306036051218912</v>
       </c>
       <c r="D5" s="15" t="n">
-        <v>0.0095693290722072</v>
+        <v>0.009314072366614967</v>
       </c>
       <c r="E5" s="15" t="n">
-        <v>0.01508181998491898</v>
+        <v>0.01539568968369309</v>
       </c>
       <c r="F5" s="15" t="n">
-        <v>-0.005442078545508822</v>
+        <v>-0.005453783592314632</v>
       </c>
       <c r="G5" s="15" t="n">
-        <v>0.07389025165403429</v>
+        <v>0.07389130758940921</v>
       </c>
       <c r="H5" s="15" t="n">
-        <v>0.03222413293454496</v>
+        <v>0.02747737865632693</v>
       </c>
       <c r="I5" s="15" t="n">
-        <v>0.0329695287447116</v>
+        <v>0.03078430486430239</v>
       </c>
       <c r="J5" s="15" t="n">
-        <v>0.005091766103537898</v>
+        <v>0.005006505407123552</v>
       </c>
       <c r="K5" s="15" t="n">
-        <v>0.05575247106943459</v>
+        <v>0.0518278348484067</v>
       </c>
       <c r="L5" s="15" t="n">
-        <v>-0.01482786304433359</v>
+        <v>-0.01518766793901793</v>
       </c>
       <c r="M5" s="15" t="n">
-        <v>-0.002627871379216495</v>
+        <v>-0.002627959149751447</v>
       </c>
     </row>
     <row r="6">
@@ -1588,28 +1588,28 @@
         <v>2018</v>
       </c>
       <c r="B6" s="15" t="n">
-        <v>0.03610347857735419</v>
+        <v>0.03610363616780998</v>
       </c>
       <c r="C6" s="15" t="n">
-        <v>-0.05926576434916242</v>
+        <v>-0.05909363405748258</v>
       </c>
       <c r="D6" s="15" t="n">
-        <v>0.02535874001047089</v>
+        <v>0.02535874124659609</v>
       </c>
       <c r="E6" s="15" t="n">
-        <v>-0.02441990123936777</v>
+        <v>-0.02403856553451256</v>
       </c>
       <c r="F6" s="15" t="n">
-        <v>0.0758696863012982</v>
+        <v>0.0758691464383856</v>
       </c>
       <c r="G6" s="15" t="n">
-        <v>-0.04697796460403514</v>
+        <v>-0.04660215836174708</v>
       </c>
       <c r="H6" s="15" t="n">
-        <v>-0.04150482590895255</v>
+        <v>-0.04152215489324662</v>
       </c>
       <c r="I6" s="15" t="n">
-        <v>-0.0339066350626771</v>
+        <v>-0.03380628328037971</v>
       </c>
       <c r="J6" s="15" t="n">
         <v>0</v>
@@ -1618,10 +1618,10 @@
         <v>0</v>
       </c>
       <c r="L6" s="15" t="n">
-        <v>-0.02790088020541781</v>
+        <v>-0.02790057480233699</v>
       </c>
       <c r="M6" s="15" t="n">
-        <v>0.03234510063977858</v>
+        <v>0.03711537651583874</v>
       </c>
     </row>
     <row r="7">
@@ -1629,40 +1629,40 @@
         <v>2019</v>
       </c>
       <c r="B7" s="15" t="n">
-        <v>-0.02987598274082148</v>
+        <v>-0.02987591348768626</v>
       </c>
       <c r="C7" s="15" t="n">
-        <v>0.2945160142389216</v>
+        <v>0.2945158032046613</v>
       </c>
       <c r="D7" s="15" t="n">
-        <v>0.04914519142621621</v>
+        <v>0.04876726627816774</v>
       </c>
       <c r="E7" s="15" t="n">
-        <v>-0.02339751413655311</v>
+        <v>-0.02329970103085111</v>
       </c>
       <c r="F7" s="15" t="n">
-        <v>-0.01833735780417323</v>
+        <v>-0.0180514005636947</v>
       </c>
       <c r="G7" s="15" t="n">
-        <v>0.009498957580567291</v>
+        <v>0.009546648285035486</v>
       </c>
       <c r="H7" s="15" t="n">
-        <v>-0.0328375048914501</v>
+        <v>-0.03293482068471709</v>
       </c>
       <c r="I7" s="15" t="n">
-        <v>0.02143407676744724</v>
+        <v>0.0214340281373957</v>
       </c>
       <c r="J7" s="15" t="n">
-        <v>0.02189577529704878</v>
+        <v>0.0218957808945166</v>
       </c>
       <c r="K7" s="15" t="n">
-        <v>0.009348742807868682</v>
+        <v>0.009315187826888227</v>
       </c>
       <c r="L7" s="15" t="n">
-        <v>-0.02828747021060252</v>
+        <v>-0.02807550345608201</v>
       </c>
       <c r="M7" s="15" t="n">
-        <v>0.08119776017505442</v>
+        <v>0.08119769693616474</v>
       </c>
     </row>
     <row r="8">
@@ -1670,40 +1670,40 @@
         <v>2020</v>
       </c>
       <c r="B8" s="15" t="n">
-        <v>0.04462351594974745</v>
+        <v>0.04462344569953225</v>
       </c>
       <c r="C8" s="15" t="n">
-        <v>-0.08591171558130228</v>
+        <v>-0.08583712668902299</v>
       </c>
       <c r="D8" s="15" t="n">
-        <v>-0.0784605769544825</v>
+        <v>-0.07785372127313772</v>
       </c>
       <c r="E8" s="15" t="n">
-        <v>0.006793110477341546</v>
+        <v>0.006793618901405951</v>
       </c>
       <c r="F8" s="15" t="n">
-        <v>0.03208453438217607</v>
+        <v>0.03208503966776632</v>
       </c>
       <c r="G8" s="15" t="n">
-        <v>0.1284264067045351</v>
+        <v>0.1284281926602029</v>
       </c>
       <c r="H8" s="15" t="n">
-        <v>0.1850532425570841</v>
+        <v>0.1850567759253596</v>
       </c>
       <c r="I8" s="15" t="n">
-        <v>-0.04843439791438087</v>
+        <v>-0.04827646504848992</v>
       </c>
       <c r="J8" s="15" t="n">
-        <v>-0.07124968263906539</v>
+        <v>-0.07124941793505679</v>
       </c>
       <c r="K8" s="15" t="n">
-        <v>-0.02813127429525253</v>
+        <v>-0.02811113217216288</v>
       </c>
       <c r="L8" s="15" t="n">
-        <v>0.05078788815077973</v>
+        <v>0.05177111758073871</v>
       </c>
       <c r="M8" s="15" t="n">
-        <v>0.04074341074339682</v>
+        <v>0.02191352243445399</v>
       </c>
     </row>
     <row r="9">
@@ -1711,40 +1711,40 @@
         <v>2021</v>
       </c>
       <c r="B9" s="15" t="n">
-        <v>0.02404859753331556</v>
+        <v>0.02738381387006528</v>
       </c>
       <c r="C9" s="15" t="n">
-        <v>-0.08897227439541244</v>
+        <v>-0.08973025622868458</v>
       </c>
       <c r="D9" s="15" t="n">
-        <v>-0.03561494051784464</v>
+        <v>-0.03384543295895137</v>
       </c>
       <c r="E9" s="15" t="n">
-        <v>0.003138990240386219</v>
+        <v>-0.01122654895703368</v>
       </c>
       <c r="F9" s="15" t="n">
-        <v>0.02946503109758591</v>
+        <v>0.02945174488018876</v>
       </c>
       <c r="G9" s="15" t="n">
-        <v>-0.02293045735829291</v>
+        <v>-0.02490285248197488</v>
       </c>
       <c r="H9" s="15" t="n">
-        <v>0.05625003584122679</v>
+        <v>0.05989187244072958</v>
       </c>
       <c r="I9" s="15" t="n">
-        <v>0.03494352747969365</v>
+        <v>0.03762185221320413</v>
       </c>
       <c r="J9" s="15" t="n">
-        <v>-0.07434196646711466</v>
+        <v>-0.07948839306548849</v>
       </c>
       <c r="K9" s="15" t="n">
-        <v>-0.0011397207936783</v>
+        <v>-0.003099493411101384</v>
       </c>
       <c r="L9" s="15" t="n">
-        <v>0.001885038851612286</v>
+        <v>0.007287947425189678</v>
       </c>
       <c r="M9" s="15" t="n">
-        <v>0.02654751314886461</v>
+        <v>0.02843737652334855</v>
       </c>
     </row>
     <row r="10">
@@ -1752,25 +1752,25 @@
         <v>2022</v>
       </c>
       <c r="B10" s="15" t="n">
-        <v>-0.0464318685762064</v>
+        <v>-0.04669890220042983</v>
       </c>
       <c r="C10" s="15" t="n">
-        <v>0.01332009938594436</v>
+        <v>0.01330362754656966</v>
       </c>
       <c r="D10" s="15" t="n">
-        <v>-0.04969553442257058</v>
+        <v>-0.04966471209029033</v>
       </c>
       <c r="E10" s="15" t="n">
-        <v>0.004587748835242822</v>
+        <v>0.004785042278178553</v>
       </c>
       <c r="F10" s="15" t="n">
-        <v>0.01600617677345051</v>
+        <v>0.01600620346765069</v>
       </c>
       <c r="G10" s="15" t="n">
-        <v>0.09479850717776395</v>
+        <v>0.09479744539686363</v>
       </c>
       <c r="H10" s="15" t="n">
-        <v>0.007068593957765934</v>
+        <v>0.007068714193501968</v>
       </c>
       <c r="I10" s="15" t="n">
         <v/>
@@ -1889,31 +1889,31 @@
         <v/>
       </c>
       <c r="E2" s="15" t="n">
-        <v>0.01841882757375002</v>
+        <v>0.04033973824017645</v>
       </c>
       <c r="F2" s="15" t="n">
-        <v>-0.01353803802866016</v>
+        <v>-0.01371780981386217</v>
       </c>
       <c r="G2" s="15" t="n">
-        <v>-0.03904244323989814</v>
+        <v>-0.03904301397021992</v>
       </c>
       <c r="H2" s="15" t="n">
-        <v>0.1142341313766124</v>
+        <v>0.1149168693205596</v>
       </c>
       <c r="I2" s="15" t="n">
-        <v>-0.05300725046711541</v>
+        <v>-0.0530523893272713</v>
       </c>
       <c r="J2" s="15" t="n">
-        <v>-0.0181061568619989</v>
+        <v>-0.01859369373725761</v>
       </c>
       <c r="K2" s="15" t="n">
-        <v>0.04400273046845338</v>
+        <v>0.04532946710049068</v>
       </c>
       <c r="L2" s="15" t="n">
-        <v>0.1877028074469234</v>
+        <v>0.1805696295476134</v>
       </c>
       <c r="M2" s="15" t="n">
-        <v>0.4383211922848387</v>
+        <v>0.4176096788118218</v>
       </c>
     </row>
     <row r="3">
@@ -1921,40 +1921,40 @@
         <v>2015</v>
       </c>
       <c r="B3" s="15" t="n">
-        <v>-0.1450131647215638</v>
+        <v>-0.1466607607450653</v>
       </c>
       <c r="C3" s="15" t="n">
-        <v>-0.01165385357134974</v>
+        <v>-0.02564504833864734</v>
       </c>
       <c r="D3" s="15" t="n">
-        <v>-0.023257625733764</v>
+        <v>-0.01338510293310369</v>
       </c>
       <c r="E3" s="15" t="n">
-        <v>-0.01414037037490279</v>
+        <v>-0.02179664961321903</v>
       </c>
       <c r="F3" s="15" t="n">
-        <v>-0.02688400413987635</v>
+        <v>-0.01254622424095131</v>
       </c>
       <c r="G3" s="15" t="n">
-        <v>0.1600072596084772</v>
+        <v>0.1569915808656743</v>
       </c>
       <c r="H3" s="15" t="n">
         <v>0.08807385286485769</v>
       </c>
       <c r="I3" s="15" t="n">
-        <v>0.250764134279708</v>
+        <v>0.2507648313028643</v>
       </c>
       <c r="J3" s="15" t="n">
-        <v>-0.07421611543872741</v>
+        <v>-0.07421672819893266</v>
       </c>
       <c r="K3" s="15" t="n">
-        <v>-0.06271411112887892</v>
+        <v>-0.06296648741366218</v>
       </c>
       <c r="L3" s="15" t="n">
-        <v>-0.01945665892163306</v>
+        <v>-0.01843466818523787</v>
       </c>
       <c r="M3" s="15" t="n">
-        <v>-0.04682851745633021</v>
+        <v>-0.04665221913814066</v>
       </c>
     </row>
     <row r="4">
@@ -1962,40 +1962,40 @@
         <v>2016</v>
       </c>
       <c r="B4" s="15" t="n">
-        <v>0.2059900714407306</v>
+        <v>0.2059889196754614</v>
       </c>
       <c r="C4" s="15" t="n">
         <v>0.04481461253681185</v>
       </c>
       <c r="D4" s="15" t="n">
-        <v>-0.1180625278996846</v>
+        <v>-0.1179038166828686</v>
       </c>
       <c r="E4" s="15" t="n">
-        <v>0.003230578967728714</v>
+        <v>0.003550479578720012</v>
       </c>
       <c r="F4" s="15" t="n">
-        <v>-0.004002220106677501</v>
+        <v>-0.0039234665135639</v>
       </c>
       <c r="G4" s="15" t="n">
-        <v>-0.01772642820339332</v>
+        <v>-0.01772659366050744</v>
       </c>
       <c r="H4" s="15" t="n">
-        <v>0.03473296047567853</v>
+        <v>0.03487404697383867</v>
       </c>
       <c r="I4" s="15" t="n">
-        <v>-0.03396875424367762</v>
+        <v>-0.03463682880892882</v>
       </c>
       <c r="J4" s="15" t="n">
-        <v>-0.01095335953106735</v>
+        <v>-0.01143877432088936</v>
       </c>
       <c r="K4" s="15" t="n">
-        <v>-0.0170367961586595</v>
+        <v>-0.0131499538858475</v>
       </c>
       <c r="L4" s="15" t="n">
-        <v>0.02475357034774861</v>
+        <v>0.03504466227082337</v>
       </c>
       <c r="M4" s="15" t="n">
-        <v>0.08241164627967557</v>
+        <v>0.08244975018556921</v>
       </c>
     </row>
     <row r="5">
@@ -2003,40 +2003,40 @@
         <v>2017</v>
       </c>
       <c r="B5" s="15" t="n">
-        <v>0.03813344661047235</v>
+        <v>0.03813335158888775</v>
       </c>
       <c r="C5" s="15" t="n">
-        <v>0.008506679968884212</v>
+        <v>0.008437024159370754</v>
       </c>
       <c r="D5" s="15" t="n">
-        <v>0.01935701186132266</v>
+        <v>0.01910313056551094</v>
       </c>
       <c r="E5" s="15" t="n">
-        <v>0.04497303353962945</v>
+        <v>0.04530545497369531</v>
       </c>
       <c r="F5" s="15" t="n">
-        <v>0.04170561044686338</v>
+        <v>0.04169330667528781</v>
       </c>
       <c r="G5" s="15" t="n">
-        <v>0.04053756180933688</v>
+        <v>0.04053859369673707</v>
       </c>
       <c r="H5" s="15" t="n">
-        <v>0.07650782688177515</v>
+        <v>0.07142451557513363</v>
       </c>
       <c r="I5" s="15" t="n">
-        <v>-0.03044426459039329</v>
+        <v>-0.03251790536397992</v>
       </c>
       <c r="J5" s="15" t="n">
-        <v>-0.003925676999817718</v>
+        <v>-0.00406929435604686</v>
       </c>
       <c r="K5" s="15" t="n">
-        <v>0.05275728804032731</v>
+        <v>0.04891187615234682</v>
       </c>
       <c r="L5" s="15" t="n">
-        <v>0.03931893288521482</v>
+        <v>0.03890540837111534</v>
       </c>
       <c r="M5" s="15" t="n">
-        <v>0.005510558452274772</v>
+        <v>0.005510471146376039</v>
       </c>
     </row>
     <row r="6">
@@ -2044,28 +2044,28 @@
         <v>2018</v>
       </c>
       <c r="B6" s="15" t="n">
-        <v>0.04345579650498665</v>
+        <v>0.04345595142504943</v>
       </c>
       <c r="C6" s="15" t="n">
-        <v>-0.07487253572542163</v>
+        <v>-0.07470922931566881</v>
       </c>
       <c r="D6" s="15" t="n">
-        <v>-0.0574001042060821</v>
+        <v>-0.05740014456110354</v>
       </c>
       <c r="E6" s="15" t="n">
-        <v>0.0231236317762995</v>
+        <v>0.02351547706976209</v>
       </c>
       <c r="F6" s="15" t="n">
-        <v>0.1119936777563613</v>
+        <v>0.111993099029839</v>
       </c>
       <c r="G6" s="15" t="n">
-        <v>0.02875113340962487</v>
+        <v>0.02914932303209783</v>
       </c>
       <c r="H6" s="15" t="n">
-        <v>-0.01762779630543621</v>
+        <v>-0.01764558191635901</v>
       </c>
       <c r="I6" s="15" t="n">
-        <v>0.04362367578807058</v>
+        <v>0.04373007633415482</v>
       </c>
       <c r="J6" s="15" t="n">
         <v>0.01408128749632898</v>
@@ -2074,10 +2074,10 @@
         <v>0.09307593245600398</v>
       </c>
       <c r="L6" s="15" t="n">
-        <v>-0.07041000979445944</v>
+        <v>-0.07040972330069539</v>
       </c>
       <c r="M6" s="15" t="n">
-        <v>0.09473294888380845</v>
+        <v>0.09974128881319921</v>
       </c>
     </row>
     <row r="7">
@@ -2085,40 +2085,40 @@
         <v>2019</v>
       </c>
       <c r="B7" s="15" t="n">
-        <v>-0.01425830889090962</v>
+        <v>-0.01425824064588366</v>
       </c>
       <c r="C7" s="15" t="n">
-        <v>0.03746949025728141</v>
+        <v>0.03746931329888836</v>
       </c>
       <c r="D7" s="15" t="n">
-        <v>-0.05006817930185625</v>
+        <v>-0.0504102351529413</v>
       </c>
       <c r="E7" s="15" t="n">
-        <v>0.01684968548134735</v>
+        <v>0.01694292858428037</v>
       </c>
       <c r="F7" s="15" t="n">
-        <v>0.06282575829972981</v>
+        <v>0.06313829850014385</v>
       </c>
       <c r="G7" s="15" t="n">
-        <v>-0.01287322654108425</v>
+        <v>-0.01282557725369615</v>
       </c>
       <c r="H7" s="15" t="n">
-        <v>-0.07065930185490832</v>
+        <v>-0.07075650798237432</v>
       </c>
       <c r="I7" s="15" t="n">
-        <v>-0.007428270244423163</v>
+        <v>-0.007428315389303664</v>
       </c>
       <c r="J7" s="15" t="n">
-        <v>0.01117390934271234</v>
+        <v>0.0111739169988132</v>
       </c>
       <c r="K7" s="15" t="n">
-        <v>-0.01871166993131335</v>
+        <v>-0.0187451972730921</v>
       </c>
       <c r="L7" s="15" t="n">
-        <v>-0.02493167171526467</v>
+        <v>-0.02472083216711662</v>
       </c>
       <c r="M7" s="15" t="n">
-        <v>0.0004351700964198013</v>
+        <v>0.0004351082892684044</v>
       </c>
     </row>
     <row r="8">
@@ -2126,40 +2126,40 @@
         <v>2020</v>
       </c>
       <c r="B8" s="15" t="n">
-        <v>-0.02662311783436977</v>
+        <v>-0.02662317574136153</v>
       </c>
       <c r="C8" s="15" t="n">
-        <v>-0.1514122647566352</v>
+        <v>-0.1513474662435694</v>
       </c>
       <c r="D8" s="15" t="n">
-        <v>0.01488566581854522</v>
+        <v>0.0155682579246923</v>
       </c>
       <c r="E8" s="15" t="n">
-        <v>-0.09354910084332813</v>
+        <v>-0.09354863597944607</v>
       </c>
       <c r="F8" s="15" t="n">
-        <v>0.02253602411746569</v>
+        <v>0.02253656318422048</v>
       </c>
       <c r="G8" s="15" t="n">
-        <v>-0.03510970324907448</v>
+        <v>-0.03510812760549131</v>
       </c>
       <c r="H8" s="15" t="n">
-        <v>0.03066764274469103</v>
+        <v>0.03067089675045609</v>
       </c>
       <c r="I8" s="15" t="n">
-        <v>-0.02774177592207605</v>
+        <v>-0.02758136355841978</v>
       </c>
       <c r="J8" s="15" t="n">
-        <v>-0.01891962441155715</v>
+        <v>-0.01891934897719683</v>
       </c>
       <c r="K8" s="15" t="n">
-        <v>-0.06132377709891768</v>
+        <v>-0.0613076666716742</v>
       </c>
       <c r="L8" s="15" t="n">
-        <v>0.05829780211319346</v>
+        <v>0.05930041651861306</v>
       </c>
       <c r="M8" s="15" t="n">
-        <v>-0.07859554858500017</v>
+        <v>-0.09492493892849985</v>
       </c>
     </row>
     <row r="9">
@@ -2167,40 +2167,40 @@
         <v>2021</v>
       </c>
       <c r="B9" s="15" t="n">
-        <v>-0.03155448140015671</v>
+        <v>-0.02694114896615551</v>
       </c>
       <c r="C9" s="15" t="n">
-        <v>-0.02179984229664178</v>
+        <v>-0.02269338838857815</v>
       </c>
       <c r="D9" s="15" t="n">
-        <v>0.008675133524895573</v>
+        <v>0.01041137588199437</v>
       </c>
       <c r="E9" s="15" t="n">
-        <v>-0.1074824910191717</v>
+        <v>-0.1208098430312567</v>
       </c>
       <c r="F9" s="15" t="n">
-        <v>-0.0401137568730352</v>
+        <v>-0.04012613095932205</v>
       </c>
       <c r="G9" s="15" t="n">
-        <v>-0.07255721261687031</v>
+        <v>-0.07451396033342961</v>
       </c>
       <c r="H9" s="15" t="n">
-        <v>0.06113782661553158</v>
+        <v>0.06485342445787756</v>
       </c>
       <c r="I9" s="15" t="n">
-        <v>0.1031676543045597</v>
+        <v>0.1060303179267668</v>
       </c>
       <c r="J9" s="15" t="n">
-        <v>-0.0861563945712297</v>
+        <v>-0.09122478199958328</v>
       </c>
       <c r="K9" s="15" t="n">
-        <v>-0.03421251800588943</v>
+        <v>-0.03616782725758894</v>
       </c>
       <c r="L9" s="15" t="n">
-        <v>-0.04056052420560496</v>
+        <v>-0.03533885811130455</v>
       </c>
       <c r="M9" s="15" t="n">
-        <v>0.07897512730721989</v>
+        <v>0.08104018537511504</v>
       </c>
     </row>
     <row r="10">
@@ -2208,25 +2208,25 @@
         <v>2022</v>
       </c>
       <c r="B10" s="15" t="n">
-        <v>0.08416846014185952</v>
+        <v>0.08388158490398001</v>
       </c>
       <c r="C10" s="15" t="n">
-        <v>0.01806268952870282</v>
+        <v>0.01804587806617386</v>
       </c>
       <c r="D10" s="15" t="n">
-        <v>0.01771726768300264</v>
+        <v>0.01775872558733194</v>
       </c>
       <c r="E10" s="15" t="n">
-        <v>0.1371212439690466</v>
+        <v>0.1373469675917907</v>
       </c>
       <c r="F10" s="15" t="n">
-        <v>-0.02471622651287608</v>
+        <v>-0.02471620153421306</v>
       </c>
       <c r="G10" s="15" t="n">
-        <v>-0.06477628665587543</v>
+        <v>-0.06477721624921773</v>
       </c>
       <c r="H10" s="15" t="n">
-        <v>0.01726502489205961</v>
+        <v>0.01726514512779564</v>
       </c>
       <c r="I10" s="15" t="n">
         <v/>

--- a/backtest/bt_report/rs_smae_ind/single_run/summary.xlsx
+++ b/backtest/bt_report/rs_smae_ind/single_run/summary.xlsx
@@ -712,7 +712,7 @@
         </is>
       </c>
       <c r="B8" s="7" t="n">
-        <v>684446853.4070739</v>
+        <v>684511532.783385</v>
       </c>
       <c r="C8" s="13" t="n"/>
       <c r="D8" s="13" t="n"/>
@@ -726,7 +726,7 @@
         </is>
       </c>
       <c r="B9" s="7" t="n">
-        <v>10087.72727382183</v>
+        <v>8015.689085066319</v>
       </c>
       <c r="C9" s="13" t="n"/>
       <c r="D9" s="13" t="n"/>
@@ -740,7 +740,7 @@
         </is>
       </c>
       <c r="B10" s="7" t="n">
-        <v>5.844468534070739</v>
+        <v>5.845115327833851</v>
       </c>
       <c r="C10" s="13" t="n"/>
       <c r="D10" s="13" t="n"/>
@@ -754,7 +754,7 @@
         </is>
       </c>
       <c r="B11" s="7" t="n">
-        <v>0.274244612702752</v>
+        <v>0.2742597843071377</v>
       </c>
       <c r="C11" s="13" t="n"/>
       <c r="D11" s="13" t="n"/>
@@ -768,7 +768,7 @@
         </is>
       </c>
       <c r="B12" s="7" t="n">
-        <v>6.844468534070739</v>
+        <v>6.845115327833851</v>
       </c>
       <c r="C12" s="13" t="n"/>
       <c r="D12" s="13" t="n"/>
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="B14" s="7" t="n">
-        <v>139.1038022381245</v>
+        <v>139.1059080161452</v>
       </c>
       <c r="C14" s="13" t="n"/>
       <c r="D14" s="13" t="n"/>
@@ -810,7 +810,7 @@
         </is>
       </c>
       <c r="B15" s="7" t="n">
-        <v>0.3196763526928593</v>
+        <v>0.3185571902073545</v>
       </c>
     </row>
     <row r="16" ht="20" customHeight="1">
@@ -820,7 +820,7 @@
         </is>
       </c>
       <c r="B16" s="5" t="n">
-        <v>0.2321110959280367</v>
+        <v>0.2321103761371115</v>
       </c>
       <c r="C16" s="13" t="n"/>
       <c r="D16" s="13" t="n"/>
@@ -834,7 +834,7 @@
         </is>
       </c>
       <c r="B17" s="5" t="n">
-        <v>0.9753396676906482</v>
+        <v>0.9753933091211506</v>
       </c>
       <c r="C17" s="13" t="n"/>
       <c r="D17" s="13" t="n"/>
@@ -848,7 +848,7 @@
         </is>
       </c>
       <c r="B18" s="5" t="n">
-        <v>0.1633174339398558</v>
+        <v>0.1633167432814419</v>
       </c>
       <c r="C18" s="13" t="n"/>
       <c r="D18" s="13" t="n"/>
@@ -862,7 +862,7 @@
         </is>
       </c>
       <c r="B19" s="5" t="n">
-        <v>1.386178766763713</v>
+        <v>1.386256566919054</v>
       </c>
       <c r="C19" s="13" t="n"/>
       <c r="D19" s="13" t="n"/>
@@ -876,7 +876,7 @@
         </is>
       </c>
       <c r="B20" s="5" t="n">
-        <v>0.2353653517121808</v>
+        <v>0.2353428134725821</v>
       </c>
       <c r="C20" s="13" t="n"/>
       <c r="D20" s="13" t="n"/>
@@ -890,7 +890,7 @@
         </is>
       </c>
       <c r="B21" s="5" t="n">
-        <v>0.02336378717197493</v>
+        <v>0.02336366087116886</v>
       </c>
       <c r="C21" s="13" t="n"/>
       <c r="D21" s="13" t="n"/>
@@ -904,7 +904,7 @@
         </is>
       </c>
       <c r="B22" s="7" t="n">
-        <v>1.148021043646766</v>
+        <v>1.148220596105989</v>
       </c>
       <c r="C22" s="13" t="n"/>
       <c r="D22" s="13" t="n"/>
@@ -918,7 +918,7 @@
         </is>
       </c>
       <c r="B23" s="7" t="n">
-        <v>0.1011255882293522</v>
+        <v>0.1011384769058163</v>
       </c>
       <c r="C23" s="13" t="n"/>
       <c r="D23" s="13" t="n"/>
@@ -932,7 +932,7 @@
         </is>
       </c>
       <c r="B24" s="7" t="n">
-        <v>0.2092631093872184</v>
+        <v>0.2092783854134321</v>
       </c>
       <c r="C24" s="13" t="n"/>
       <c r="D24" s="13" t="n"/>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="B25" s="7" t="n">
-        <v>0.4254276686271709</v>
+        <v>0.4254255548628501</v>
       </c>
       <c r="C25" s="13" t="n"/>
       <c r="D25" s="13" t="n"/>
@@ -960,7 +960,7 @@
         </is>
       </c>
       <c r="B26" s="7" t="n">
-        <v>1.236266268841683</v>
+        <v>1.236349970805274</v>
       </c>
       <c r="C26" s="13" t="n"/>
       <c r="D26" s="13" t="n"/>
@@ -974,7 +974,7 @@
         </is>
       </c>
       <c r="B27" s="7" t="n">
-        <v>0.4980670235121181</v>
+        <v>0.4981115711267564</v>
       </c>
       <c r="C27" s="13" t="n"/>
       <c r="D27" s="13" t="n"/>
@@ -988,7 +988,7 @@
         </is>
       </c>
       <c r="B28" s="7" t="n">
-        <v>0.5854569706922974</v>
+        <v>0.5854224291819912</v>
       </c>
       <c r="C28" s="13" t="n"/>
       <c r="D28" s="13" t="n"/>
@@ -1002,7 +1002,7 @@
         </is>
       </c>
       <c r="B29" s="7" t="n">
-        <v>0.2619472083245739</v>
+        <v>0.2619473680652449</v>
       </c>
       <c r="C29" s="13" t="n"/>
       <c r="D29" s="13" t="n"/>
@@ -1016,7 +1016,7 @@
         </is>
       </c>
       <c r="B30" s="5" t="n">
-        <v>0.2022009509411122</v>
+        <v>0.2022155923869843</v>
       </c>
       <c r="C30" s="13" t="n"/>
       <c r="D30" s="13" t="n"/>
@@ -1030,7 +1030,7 @@
         </is>
       </c>
       <c r="B31" s="5" t="n">
-        <v>0.4505635845213515</v>
+        <v>0.4505656710021811</v>
       </c>
       <c r="C31" s="13" t="n"/>
       <c r="D31" s="13" t="n"/>
@@ -1044,7 +1044,7 @@
         </is>
       </c>
       <c r="B32" s="5" t="n">
-        <v>0.9598284512032802</v>
+        <v>0.9598798831782586</v>
       </c>
       <c r="C32" s="13" t="n"/>
       <c r="D32" s="13" t="n"/>
@@ -1058,7 +1058,7 @@
         </is>
       </c>
       <c r="B33" s="5" t="n">
-        <v>1.496679068765328</v>
+        <v>1.496757656228394</v>
       </c>
     </row>
     <row r="34" ht="20" customHeight="1">
@@ -1068,7 +1068,7 @@
         </is>
       </c>
       <c r="B34" s="5" t="n">
-        <v>1.216847306724417</v>
+        <v>1.216929813039218</v>
       </c>
     </row>
     <row r="35" ht="20" customHeight="1">
@@ -1078,7 +1078,7 @@
         </is>
       </c>
       <c r="B35" s="5" t="n">
-        <v>0.03438785002748813</v>
+        <v>0.03438772470608942</v>
       </c>
     </row>
     <row r="36" ht="20" customHeight="1">
@@ -1088,7 +1088,7 @@
         </is>
       </c>
       <c r="B36" s="16" t="n">
-        <v>0.2186842065237482</v>
+        <v>0.2186716802478373</v>
       </c>
     </row>
   </sheetData>
@@ -1257,16 +1257,16 @@
         <v>2019</v>
       </c>
       <c r="B7" s="13" t="n">
-        <v>0.3652976969335457</v>
+        <v>0.3653090503701751</v>
       </c>
       <c r="C7" s="13" t="n">
-        <v>-0.07451024786554745</v>
+        <v>-0.07450324462315608</v>
       </c>
       <c r="D7" s="13" t="n">
-        <v>1.51539135079816</v>
+        <v>1.515435443839098</v>
       </c>
       <c r="E7" s="13" t="n">
-        <v>0.6060230287772558</v>
+        <v>0.6061231186730995</v>
       </c>
       <c r="F7" s="13" t="n">
         <v>0.3846153846153846</v>
@@ -1277,16 +1277,16 @@
         <v>2020</v>
       </c>
       <c r="B8" s="13" t="n">
-        <v>0.1298325741238713</v>
+        <v>0.1298935420477017</v>
       </c>
       <c r="C8" s="13" t="n">
-        <v>-0.3360627388168652</v>
+        <v>-0.3360276632635001</v>
       </c>
       <c r="D8" s="13" t="n">
-        <v>0.6024831530198416</v>
+        <v>0.6026916567670054</v>
       </c>
       <c r="E8" s="13" t="n">
-        <v>-1.840306447622697</v>
+        <v>-1.839882549405027</v>
       </c>
       <c r="F8" s="13" t="n">
         <v>0.3846153846153846</v>
@@ -1297,16 +1297,16 @@
         <v>2021</v>
       </c>
       <c r="B9" s="13" t="n">
-        <v>-0.06240914831043798</v>
+        <v>-0.06237921989106015</v>
       </c>
       <c r="C9" s="13" t="n">
-        <v>-0.1926415208215328</v>
+        <v>-0.1926155704291074</v>
       </c>
       <c r="D9" s="13" t="n">
-        <v>-0.1521932962214135</v>
+        <v>-0.1520603336044758</v>
       </c>
       <c r="E9" s="13" t="n">
-        <v>-0.6533908665283595</v>
+        <v>-0.6532443416967902</v>
       </c>
       <c r="F9" s="13" t="n">
         <v>0.4807692307692308</v>
@@ -1317,16 +1317,16 @@
         <v>2022</v>
       </c>
       <c r="B10" s="13" t="n">
-        <v>0.03325840559406845</v>
+        <v>0.03325859378962364</v>
       </c>
       <c r="C10" s="13" t="n">
-        <v>0.1851334295304976</v>
+        <v>0.185133678814198</v>
       </c>
       <c r="D10" s="13" t="n">
-        <v>0.5322105129927407</v>
+        <v>0.5322120414748669</v>
       </c>
       <c r="E10" s="13" t="n">
-        <v>0.9044384820961253</v>
+        <v>0.9044403885402597</v>
       </c>
       <c r="F10" s="13" t="n">
         <v>0.52</v>
@@ -1638,31 +1638,31 @@
         <v>0.04876726627816774</v>
       </c>
       <c r="E7" s="15" t="n">
-        <v>-0.02329970103085111</v>
+        <v>-0.02329870640102349</v>
       </c>
       <c r="F7" s="15" t="n">
-        <v>-0.0180514005636947</v>
+        <v>-0.01804255642711783</v>
       </c>
       <c r="G7" s="15" t="n">
-        <v>0.009546648285035486</v>
+        <v>0.009546552580017131</v>
       </c>
       <c r="H7" s="15" t="n">
-        <v>-0.03293482068471709</v>
+        <v>-0.03293500726615772</v>
       </c>
       <c r="I7" s="15" t="n">
-        <v>0.0214340281373957</v>
+        <v>0.0214338194288306</v>
       </c>
       <c r="J7" s="15" t="n">
-        <v>0.0218957808945166</v>
+        <v>0.02189557216364646</v>
       </c>
       <c r="K7" s="15" t="n">
-        <v>0.009315187826888227</v>
+        <v>0.00931527054075576</v>
       </c>
       <c r="L7" s="15" t="n">
-        <v>-0.02807550345608201</v>
+        <v>-0.02807658362243015</v>
       </c>
       <c r="M7" s="15" t="n">
-        <v>0.08119769693616474</v>
+        <v>0.08119771466036574</v>
       </c>
     </row>
     <row r="8">
@@ -1670,40 +1670,40 @@
         <v>2020</v>
       </c>
       <c r="B8" s="15" t="n">
-        <v>0.04462344569953225</v>
+        <v>0.04462307462643111</v>
       </c>
       <c r="C8" s="15" t="n">
-        <v>-0.08583712668902299</v>
+        <v>-0.08583736189986224</v>
       </c>
       <c r="D8" s="15" t="n">
-        <v>-0.07785372127313772</v>
+        <v>-0.07785362393372219</v>
       </c>
       <c r="E8" s="15" t="n">
-        <v>0.006793618901405951</v>
+        <v>0.00679356585209856</v>
       </c>
       <c r="F8" s="15" t="n">
-        <v>0.03208503966776632</v>
+        <v>0.03208479081602356</v>
       </c>
       <c r="G8" s="15" t="n">
-        <v>0.1284281926602029</v>
+        <v>0.1284272275362404</v>
       </c>
       <c r="H8" s="15" t="n">
-        <v>0.1850567759253596</v>
+        <v>0.1850555435183427</v>
       </c>
       <c r="I8" s="15" t="n">
-        <v>-0.04827646504848992</v>
+        <v>-0.04827122753489688</v>
       </c>
       <c r="J8" s="15" t="n">
-        <v>-0.07124941793505679</v>
+        <v>-0.07120207449689242</v>
       </c>
       <c r="K8" s="15" t="n">
-        <v>-0.02811113217216288</v>
+        <v>-0.02811130859960032</v>
       </c>
       <c r="L8" s="15" t="n">
-        <v>0.05177111758073871</v>
+        <v>0.05177125892535805</v>
       </c>
       <c r="M8" s="15" t="n">
-        <v>0.02191352243445399</v>
+        <v>0.02191375371817328</v>
       </c>
     </row>
     <row r="9">
@@ -1711,40 +1711,40 @@
         <v>2021</v>
       </c>
       <c r="B9" s="15" t="n">
-        <v>0.02738381387006528</v>
+        <v>0.02738380695223563</v>
       </c>
       <c r="C9" s="15" t="n">
-        <v>-0.08973025622868458</v>
+        <v>-0.08971557679996722</v>
       </c>
       <c r="D9" s="15" t="n">
-        <v>-0.03384543295895137</v>
+        <v>-0.03384520112031886</v>
       </c>
       <c r="E9" s="15" t="n">
-        <v>-0.01122654895703368</v>
+        <v>-0.01122691929349706</v>
       </c>
       <c r="F9" s="15" t="n">
-        <v>0.02945174488018876</v>
+        <v>0.02946163816688485</v>
       </c>
       <c r="G9" s="15" t="n">
-        <v>-0.02490285248197488</v>
+        <v>-0.02489927937879088</v>
       </c>
       <c r="H9" s="15" t="n">
-        <v>0.05989187244072958</v>
+        <v>0.05989144046150763</v>
       </c>
       <c r="I9" s="15" t="n">
-        <v>0.03762185221320413</v>
+        <v>0.03762229524052874</v>
       </c>
       <c r="J9" s="15" t="n">
-        <v>-0.07948839306548849</v>
+        <v>-0.07948843416370099</v>
       </c>
       <c r="K9" s="15" t="n">
-        <v>-0.003099493411101384</v>
+        <v>-0.003097806795813618</v>
       </c>
       <c r="L9" s="15" t="n">
-        <v>0.007287947425189678</v>
+        <v>0.007288988300057531</v>
       </c>
       <c r="M9" s="15" t="n">
-        <v>0.02843737652334855</v>
+        <v>0.02843733592978914</v>
       </c>
     </row>
     <row r="10">
@@ -1752,25 +1752,25 @@
         <v>2022</v>
       </c>
       <c r="B10" s="15" t="n">
-        <v>-0.04669890220042983</v>
+        <v>-0.04669873010199244</v>
       </c>
       <c r="C10" s="15" t="n">
-        <v>0.01330362754656966</v>
+        <v>0.01330363879491681</v>
       </c>
       <c r="D10" s="15" t="n">
-        <v>-0.04966471209029033</v>
+        <v>-0.04966502501080972</v>
       </c>
       <c r="E10" s="15" t="n">
-        <v>0.004785042278178553</v>
+        <v>0.004785085516076926</v>
       </c>
       <c r="F10" s="15" t="n">
-        <v>0.01600620346765069</v>
+        <v>0.0160061701544798</v>
       </c>
       <c r="G10" s="15" t="n">
-        <v>0.09479744539686363</v>
+        <v>0.094798031413309</v>
       </c>
       <c r="H10" s="15" t="n">
-        <v>0.007068714193501968</v>
+        <v>0.007068486862721768</v>
       </c>
       <c r="I10" s="15" t="n">
         <v/>
@@ -2094,31 +2094,31 @@
         <v>-0.0504102351529413</v>
       </c>
       <c r="E7" s="15" t="n">
-        <v>0.01694292858428037</v>
+        <v>0.01694393853882237</v>
       </c>
       <c r="F7" s="15" t="n">
-        <v>0.06313829850014385</v>
+        <v>0.0631471399253658</v>
       </c>
       <c r="G7" s="15" t="n">
-        <v>-0.01282557725369615</v>
+        <v>-0.01282567612268815</v>
       </c>
       <c r="H7" s="15" t="n">
-        <v>-0.07075650798237432</v>
+        <v>-0.07075668377741395</v>
       </c>
       <c r="I7" s="15" t="n">
-        <v>-0.007428315389303664</v>
+        <v>-0.007428525446055434</v>
       </c>
       <c r="J7" s="15" t="n">
-        <v>0.0111739169988132</v>
+        <v>0.01117367475173237</v>
       </c>
       <c r="K7" s="15" t="n">
-        <v>-0.0187451972730921</v>
+        <v>-0.01874511909810705</v>
       </c>
       <c r="L7" s="15" t="n">
-        <v>-0.02472083216711662</v>
+        <v>-0.02472189253118928</v>
       </c>
       <c r="M7" s="15" t="n">
-        <v>0.0004351082892684044</v>
+        <v>0.0004351139983516106</v>
       </c>
     </row>
     <row r="8">
@@ -2126,40 +2126,40 @@
         <v>2020</v>
       </c>
       <c r="B8" s="15" t="n">
-        <v>-0.02662317574136153</v>
+        <v>-0.02662353213923818</v>
       </c>
       <c r="C8" s="15" t="n">
-        <v>-0.1513474662435694</v>
+        <v>-0.1513477454242529</v>
       </c>
       <c r="D8" s="15" t="n">
-        <v>0.0155682579246923</v>
+        <v>0.0155683361825254</v>
       </c>
       <c r="E8" s="15" t="n">
-        <v>-0.09354863597944607</v>
+        <v>-0.0935486879073657</v>
       </c>
       <c r="F8" s="15" t="n">
-        <v>0.02253656318422048</v>
+        <v>0.02253629722174688</v>
       </c>
       <c r="G8" s="15" t="n">
-        <v>-0.03510812760549131</v>
+        <v>-0.03510897209366592</v>
       </c>
       <c r="H8" s="15" t="n">
-        <v>0.03067089675045609</v>
+        <v>0.03066973808450335</v>
       </c>
       <c r="I8" s="15" t="n">
-        <v>-0.02758136355841978</v>
+        <v>-0.02757597612253337</v>
       </c>
       <c r="J8" s="15" t="n">
-        <v>-0.01891934897719683</v>
+        <v>-0.01887024261590864</v>
       </c>
       <c r="K8" s="15" t="n">
-        <v>-0.0613076666716742</v>
+        <v>-0.06130783439077325</v>
       </c>
       <c r="L8" s="15" t="n">
-        <v>0.05930041651861306</v>
+        <v>0.05930056048225718</v>
       </c>
       <c r="M8" s="15" t="n">
-        <v>-0.09492493892849985</v>
+        <v>-0.09492474566986786</v>
       </c>
     </row>
     <row r="9">
@@ -2167,40 +2167,40 @@
         <v>2021</v>
       </c>
       <c r="B9" s="15" t="n">
-        <v>-0.02694114896615551</v>
+        <v>-0.02694120467360372</v>
       </c>
       <c r="C9" s="15" t="n">
-        <v>-0.02269338838857815</v>
+        <v>-0.02267762382392668</v>
       </c>
       <c r="D9" s="15" t="n">
-        <v>0.01041137588199437</v>
+        <v>0.01041162531235962</v>
       </c>
       <c r="E9" s="15" t="n">
-        <v>-0.1208098430312567</v>
+        <v>-0.1208101558402925</v>
       </c>
       <c r="F9" s="15" t="n">
-        <v>-0.04012613095932205</v>
+        <v>-0.04011673162770413</v>
       </c>
       <c r="G9" s="15" t="n">
-        <v>-0.07451396033342961</v>
+        <v>-0.074510540265462</v>
       </c>
       <c r="H9" s="15" t="n">
-        <v>0.06485342445787756</v>
+        <v>0.06485297252899369</v>
       </c>
       <c r="I9" s="15" t="n">
-        <v>0.1060303179267668</v>
+        <v>0.1060307976716239</v>
       </c>
       <c r="J9" s="15" t="n">
-        <v>-0.09122478199958328</v>
+        <v>-0.0912248268957655</v>
       </c>
       <c r="K9" s="15" t="n">
-        <v>-0.03616782725758894</v>
+        <v>-0.03616615973588089</v>
       </c>
       <c r="L9" s="15" t="n">
-        <v>-0.03533885811130455</v>
+        <v>-0.03533785208926155</v>
       </c>
       <c r="M9" s="15" t="n">
-        <v>0.08104018537511504</v>
+        <v>0.0810401388555162</v>
       </c>
     </row>
     <row r="10">
@@ -2208,25 +2208,25 @@
         <v>2022</v>
       </c>
       <c r="B10" s="15" t="n">
-        <v>0.08388158490398001</v>
+        <v>0.08388177818439901</v>
       </c>
       <c r="C10" s="15" t="n">
-        <v>0.01804587806617386</v>
+        <v>0.01804589238428989</v>
       </c>
       <c r="D10" s="15" t="n">
-        <v>0.01775872558733194</v>
+        <v>0.0177583987602139</v>
       </c>
       <c r="E10" s="15" t="n">
-        <v>0.1373469675917907</v>
+        <v>0.1373470328942545</v>
       </c>
       <c r="F10" s="15" t="n">
-        <v>-0.02471620153421306</v>
+        <v>-0.02471623442722126</v>
       </c>
       <c r="G10" s="15" t="n">
-        <v>-0.06477721624921773</v>
+        <v>-0.06477671229251136</v>
       </c>
       <c r="H10" s="15" t="n">
-        <v>0.01726514512779564</v>
+        <v>0.01726491779701544</v>
       </c>
       <c r="I10" s="15" t="n">
         <v/>

--- a/backtest/bt_report/rs_smae_ind/single_run/summary.xlsx
+++ b/backtest/bt_report/rs_smae_ind/single_run/summary.xlsx
@@ -617,7 +617,7 @@
       </c>
       <c r="B2" s="5" t="inlineStr">
         <is>
-          <t>2014-04-16</t>
+          <t>2015-10-08</t>
         </is>
       </c>
       <c r="C2" s="13" t="n"/>
@@ -681,7 +681,7 @@
       </c>
       <c r="B6" s="5" t="inlineStr">
         <is>
-          <t>399006.XSHE</t>
+          <t>000300.XSHG</t>
         </is>
       </c>
       <c r="C6" s="13" t="n"/>
@@ -697,7 +697,7 @@
       </c>
       <c r="B7" s="5" t="inlineStr">
         <is>
-          <t>创业板指</t>
+          <t>沪深300</t>
         </is>
       </c>
       <c r="C7" s="13" t="n"/>
@@ -712,7 +712,7 @@
         </is>
       </c>
       <c r="B8" s="7" t="n">
-        <v>684511532.783385</v>
+        <v>162670462.8486049</v>
       </c>
       <c r="C8" s="13" t="n"/>
       <c r="D8" s="13" t="n"/>
@@ -726,7 +726,7 @@
         </is>
       </c>
       <c r="B9" s="7" t="n">
-        <v>8015.689085066319</v>
+        <v>7118.708004817367</v>
       </c>
       <c r="C9" s="13" t="n"/>
       <c r="D9" s="13" t="n"/>
@@ -740,7 +740,7 @@
         </is>
       </c>
       <c r="B10" s="7" t="n">
-        <v>5.845115327833851</v>
+        <v>0.6267046284860487</v>
       </c>
       <c r="C10" s="13" t="n"/>
       <c r="D10" s="13" t="n"/>
@@ -754,7 +754,7 @@
         </is>
       </c>
       <c r="B11" s="7" t="n">
-        <v>0.2742597843071377</v>
+        <v>0.07762928742156139</v>
       </c>
       <c r="C11" s="13" t="n"/>
       <c r="D11" s="13" t="n"/>
@@ -768,7 +768,7 @@
         </is>
       </c>
       <c r="B12" s="7" t="n">
-        <v>6.845115327833851</v>
+        <v>1.626704628486049</v>
       </c>
       <c r="C12" s="13" t="n"/>
       <c r="D12" s="13" t="n"/>
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="B14" s="7" t="n">
-        <v>139.1059080161452</v>
+        <v>127.6674706086971</v>
       </c>
       <c r="C14" s="13" t="n"/>
       <c r="D14" s="13" t="n"/>
@@ -810,7 +810,7 @@
         </is>
       </c>
       <c r="B15" s="7" t="n">
-        <v>0.3185571902073545</v>
+        <v>0.3596481246566346</v>
       </c>
     </row>
     <row r="16" ht="20" customHeight="1">
@@ -820,7 +820,7 @@
         </is>
       </c>
       <c r="B16" s="5" t="n">
-        <v>0.2321103761371115</v>
+        <v>0.2107216479076085</v>
       </c>
       <c r="C16" s="13" t="n"/>
       <c r="D16" s="13" t="n"/>
@@ -834,7 +834,7 @@
         </is>
       </c>
       <c r="B17" s="5" t="n">
-        <v>0.9753933091211506</v>
+        <v>0.3115693602516939</v>
       </c>
       <c r="C17" s="13" t="n"/>
       <c r="D17" s="13" t="n"/>
@@ -848,7 +848,7 @@
         </is>
       </c>
       <c r="B18" s="5" t="n">
-        <v>0.1633167432814419</v>
+        <v>0.1515906780094905</v>
       </c>
       <c r="C18" s="13" t="n"/>
       <c r="D18" s="13" t="n"/>
@@ -862,7 +862,7 @@
         </is>
       </c>
       <c r="B19" s="5" t="n">
-        <v>1.386256566919054</v>
+        <v>0.4331032085340097</v>
       </c>
       <c r="C19" s="13" t="n"/>
       <c r="D19" s="13" t="n"/>
@@ -876,7 +876,7 @@
         </is>
       </c>
       <c r="B20" s="5" t="n">
-        <v>0.2353428134725821</v>
+        <v>0.2727922075155697</v>
       </c>
       <c r="C20" s="13" t="n"/>
       <c r="D20" s="13" t="n"/>
@@ -890,7 +890,7 @@
         </is>
       </c>
       <c r="B21" s="5" t="n">
-        <v>0.02336366087116886</v>
+        <v>0.02182339061856991</v>
       </c>
       <c r="C21" s="13" t="n"/>
       <c r="D21" s="13" t="n"/>
@@ -904,7 +904,7 @@
         </is>
       </c>
       <c r="B22" s="7" t="n">
-        <v>1.148220596105989</v>
+        <v>0.05007641164805395</v>
       </c>
       <c r="C22" s="13" t="n"/>
       <c r="D22" s="13" t="n"/>
@@ -918,7 +918,7 @@
         </is>
       </c>
       <c r="B23" s="7" t="n">
-        <v>0.1011384769058163</v>
+        <v>0.00753646427402388</v>
       </c>
       <c r="C23" s="13" t="n"/>
       <c r="D23" s="13" t="n"/>
@@ -932,7 +932,7 @@
         </is>
       </c>
       <c r="B24" s="7" t="n">
-        <v>0.2092783854134321</v>
+        <v>0.03333969610505824</v>
       </c>
       <c r="C24" s="13" t="n"/>
       <c r="D24" s="13" t="n"/>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="B25" s="7" t="n">
-        <v>0.4254255548628501</v>
+        <v>0.6037811049427479</v>
       </c>
       <c r="C25" s="13" t="n"/>
       <c r="D25" s="13" t="n"/>
@@ -960,7 +960,7 @@
         </is>
       </c>
       <c r="B26" s="7" t="n">
-        <v>1.236349970805274</v>
+        <v>0.2675526944172602</v>
       </c>
       <c r="C26" s="13" t="n"/>
       <c r="D26" s="13" t="n"/>
@@ -974,7 +974,7 @@
         </is>
       </c>
       <c r="B27" s="7" t="n">
-        <v>0.4981115711267564</v>
+        <v>0.1341252825977921</v>
       </c>
       <c r="C27" s="13" t="n"/>
       <c r="D27" s="13" t="n"/>
@@ -988,7 +988,7 @@
         </is>
       </c>
       <c r="B28" s="7" t="n">
-        <v>0.5854224291819912</v>
+        <v>0.2984829340047255</v>
       </c>
       <c r="C28" s="13" t="n"/>
       <c r="D28" s="13" t="n"/>
@@ -1002,7 +1002,7 @@
         </is>
       </c>
       <c r="B29" s="7" t="n">
-        <v>0.2619473680652449</v>
+        <v>0.1895550313400094</v>
       </c>
       <c r="C29" s="13" t="n"/>
       <c r="D29" s="13" t="n"/>
@@ -1016,7 +1016,7 @@
         </is>
       </c>
       <c r="B30" s="5" t="n">
-        <v>0.2022155923869843</v>
+        <v>0.03166028238424276</v>
       </c>
       <c r="C30" s="13" t="n"/>
       <c r="D30" s="13" t="n"/>
@@ -1030,7 +1030,7 @@
         </is>
       </c>
       <c r="B31" s="5" t="n">
-        <v>0.4505656710021811</v>
+        <v>0.6428058659795092</v>
       </c>
       <c r="C31" s="13" t="n"/>
       <c r="D31" s="13" t="n"/>
@@ -1044,7 +1044,7 @@
         </is>
       </c>
       <c r="B32" s="5" t="n">
-        <v>0.9598798831782586</v>
+        <v>0.3149275734138967</v>
       </c>
       <c r="C32" s="13" t="n"/>
       <c r="D32" s="13" t="n"/>
@@ -1058,7 +1058,7 @@
         </is>
       </c>
       <c r="B33" s="5" t="n">
-        <v>1.496757656228394</v>
+        <v>0.4576539580808315</v>
       </c>
     </row>
     <row r="34" ht="20" customHeight="1">
@@ -1068,7 +1068,7 @@
         </is>
       </c>
       <c r="B34" s="5" t="n">
-        <v>1.216929813039218</v>
+        <v>0.2945851588226826</v>
       </c>
     </row>
     <row r="35" ht="20" customHeight="1">
@@ -1078,7 +1078,7 @@
         </is>
       </c>
       <c r="B35" s="5" t="n">
-        <v>0.03438772470608942</v>
+        <v>0.02235660884886214</v>
       </c>
     </row>
     <row r="36" ht="20" customHeight="1">
@@ -1088,7 +1088,7 @@
         </is>
       </c>
       <c r="B36" s="16" t="n">
-        <v>0.2186716802478373</v>
+        <v>0.2572121499923682</v>
       </c>
     </row>
   </sheetData>
@@ -1102,7 +1102,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K10"/>
+  <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B15" sqref="B15"/>
@@ -1154,182 +1154,162 @@
     </row>
     <row r="2" ht="20" customHeight="1">
       <c r="A2" s="9" t="n">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="B2" s="13" t="n">
-        <v>0.9607450000000001</v>
+        <v>0.09998199999999932</v>
       </c>
       <c r="C2" s="13" t="n">
-        <v>0.7873066859576169</v>
+        <v>-0.05635926912186034</v>
       </c>
       <c r="D2" s="13" t="n">
-        <v>3.630354381361787</v>
+        <v>1.225998931773132</v>
       </c>
       <c r="E2" s="13" t="n">
-        <v>6.36366649193251</v>
+        <v>-1.503337106774685</v>
       </c>
       <c r="F2" s="13" t="n">
-        <v>0.6052631578947368</v>
+        <v>0.5384615384615384</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="9" t="n">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="B3" s="13" t="n">
-        <v>1.155033418420038</v>
+        <v>-0.07357938584449486</v>
       </c>
       <c r="C3" s="13" t="n">
-        <v>0.01281881386161186</v>
+        <v>0.01523973311390135</v>
       </c>
       <c r="D3" s="13" t="n">
-        <v>2.601035228282797</v>
+        <v>-0.3361098055912288</v>
       </c>
       <c r="E3" s="13" t="n">
-        <v>3.409384022441794</v>
+        <v>-0.176924606298415</v>
       </c>
       <c r="F3" s="13" t="n">
-        <v>0.4230769230769231</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="9" t="n">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="B4" s="13" t="n">
-        <v>-0.06590247572400748</v>
+        <v>0.1797534164306612</v>
       </c>
       <c r="C4" s="13" t="n">
-        <v>0.1916881226138361</v>
+        <v>-0.03270660670678539</v>
       </c>
       <c r="D4" s="13" t="n">
-        <v>-0.2842260547499764</v>
+        <v>1.239250361754267</v>
       </c>
       <c r="E4" s="13" t="n">
-        <v>0.06902919013713096</v>
+        <v>-0.03728589294360452</v>
       </c>
       <c r="F4" s="13" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.4901960784313725</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="9" t="n">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="B5" s="13" t="n">
-        <v>0.2420323070522886</v>
+        <v>-0.06625143588169521</v>
       </c>
       <c r="C5" s="13" t="n">
-        <v>0.3674031944021091</v>
+        <v>0.2122372970476044</v>
       </c>
       <c r="D5" s="13" t="n">
-        <v>1.571323375349977</v>
+        <v>-0.3444692574214379</v>
       </c>
       <c r="E5" s="13" t="n">
-        <v>2.143342882474727</v>
+        <v>0.07521515190518252</v>
       </c>
       <c r="F5" s="13" t="n">
-        <v>0.6274509803921569</v>
+        <v>0.5294117647058824</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="9" t="n">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="B6" s="13" t="n">
-        <v>-0.06572277035451181</v>
+        <v>0.3703844913564719</v>
       </c>
       <c r="C6" s="13" t="n">
-        <v>0.2385576427429683</v>
+        <v>-0.001449765289196776</v>
       </c>
       <c r="D6" s="13" t="n">
-        <v>-0.3409846405789185</v>
+        <v>1.537145919374366</v>
       </c>
       <c r="E6" s="13" t="n">
-        <v>0.06698280287213824</v>
+        <v>0.5489650768151734</v>
       </c>
       <c r="F6" s="13" t="n">
-        <v>0.6078431372549019</v>
+        <v>0.4423076923076923</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="9" t="n">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="B7" s="13" t="n">
-        <v>0.3653090503701751</v>
+        <v>0.1603891941927709</v>
       </c>
       <c r="C7" s="13" t="n">
-        <v>-0.07450324462315608</v>
+        <v>-0.09489332831561807</v>
       </c>
       <c r="D7" s="13" t="n">
-        <v>1.515435443839098</v>
+        <v>0.7164810635466635</v>
       </c>
       <c r="E7" s="13" t="n">
-        <v>0.6061231186730995</v>
+        <v>-0.3860552389275067</v>
       </c>
       <c r="F7" s="13" t="n">
-        <v>0.3846153846153846</v>
+        <v>0.4807692307692308</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="9" t="n">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B8" s="13" t="n">
-        <v>0.1298935420477017</v>
+        <v>-0.1181170291312393</v>
       </c>
       <c r="C8" s="13" t="n">
-        <v>-0.3360276632635001</v>
+        <v>-0.07786851371908078</v>
       </c>
       <c r="D8" s="13" t="n">
-        <v>0.6026916567670054</v>
+        <v>-0.461175764218542</v>
       </c>
       <c r="E8" s="13" t="n">
-        <v>-1.839882549405027</v>
+        <v>-0.4560493251216763</v>
       </c>
       <c r="F8" s="13" t="n">
-        <v>0.3846153846153846</v>
+        <v>0.4615384615384616</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="9" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B9" s="13" t="n">
-        <v>-0.06237921989106015</v>
+        <v>0.03332456722083701</v>
       </c>
       <c r="C9" s="13" t="n">
-        <v>-0.1926155704291074</v>
+        <v>0.1215981869189186</v>
       </c>
       <c r="D9" s="13" t="n">
-        <v>-0.1520603336044758</v>
+        <v>0.5332062277813147</v>
       </c>
       <c r="E9" s="13" t="n">
-        <v>-0.6532443416967902</v>
+        <v>0.8259613099186821</v>
       </c>
       <c r="F9" s="13" t="n">
-        <v>0.4807692307692308</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="9" t="n">
-        <v>2022</v>
-      </c>
-      <c r="B10" s="13" t="n">
-        <v>0.03325859378962364</v>
-      </c>
-      <c r="C10" s="13" t="n">
-        <v>0.185133678814198</v>
-      </c>
-      <c r="D10" s="13" t="n">
-        <v>0.5322120414748669</v>
-      </c>
-      <c r="E10" s="13" t="n">
-        <v>0.9044403885402597</v>
-      </c>
-      <c r="F10" s="13" t="n">
-        <v>0.52</v>
+        <v>0.68</v>
       </c>
     </row>
   </sheetData>
@@ -1343,7 +1323,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M10"/>
+  <dimension ref="A1:M9"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A1" sqref="A1:XFD2"/>
@@ -1421,7 +1401,7 @@
     </row>
     <row r="2" ht="20" customHeight="1">
       <c r="A2" s="15" t="n">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="B2" s="15" t="n">
         <v/>
@@ -1433,358 +1413,317 @@
         <v/>
       </c>
       <c r="E2" s="15" t="n">
-        <v>-0.02398299999999987</v>
+        <v/>
       </c>
       <c r="F2" s="15" t="n">
-        <v>0.01769231478550082</v>
+        <v/>
       </c>
       <c r="G2" s="15" t="n">
-        <v>0.02472603532722251</v>
+        <v/>
       </c>
       <c r="H2" s="15" t="n">
-        <v>0.06896629644002705</v>
+        <v/>
       </c>
       <c r="I2" s="15" t="n">
-        <v>0.005183623426301187</v>
+        <v/>
       </c>
       <c r="J2" s="15" t="n">
-        <v>0.0619969972990313</v>
+        <v/>
       </c>
       <c r="K2" s="15" t="n">
-        <v>0.02686470016453035</v>
+        <v>0.06971100000000008</v>
       </c>
       <c r="L2" s="15" t="n">
-        <v>0.2289287241445803</v>
+        <v>0.05965723452409089</v>
       </c>
       <c r="M2" s="15" t="n">
-        <v>0.3377249986525506</v>
+        <v>-0.02959347240956767</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="15" t="n">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="B3" s="15" t="n">
-        <v>-0.01735054787848489</v>
+        <v>-0.08407592124234753</v>
       </c>
       <c r="C3" s="15" t="n">
-        <v>0.1182519560393929</v>
+        <v>0</v>
       </c>
       <c r="D3" s="15" t="n">
-        <v>0.1960935019799834</v>
+        <v>0.05536476426799042</v>
       </c>
       <c r="E3" s="15" t="n">
-        <v>0.1982355862882503</v>
+        <v>-0.03763731096230549</v>
       </c>
       <c r="F3" s="15" t="n">
-        <v>0.2255738076540064</v>
+        <v>0.0141264056775352</v>
       </c>
       <c r="G3" s="15" t="n">
-        <v>-0.04415771783706046</v>
+        <v>0.01522574577244629</v>
       </c>
       <c r="H3" s="15" t="n">
-        <v>0</v>
+        <v>-0.01316733680361737</v>
       </c>
       <c r="I3" s="15" t="n">
-        <v>0.01979561924339368</v>
+        <v>0.007778624221368213</v>
       </c>
       <c r="J3" s="15" t="n">
-        <v>-0.00499813769357027</v>
+        <v>-0.02927946199931108</v>
       </c>
       <c r="K3" s="15" t="n">
-        <v>0.119503799989974</v>
+        <v>-0.004713614026394031</v>
       </c>
       <c r="L3" s="15" t="n">
-        <v>0.05965717239380419</v>
+        <v>0.03239879082449204</v>
       </c>
       <c r="M3" s="15" t="n">
-        <v>-0.0295912956348422</v>
+        <v>-0.02488861840896572</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="15" t="n">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="B4" s="15" t="n">
-        <v>-0.0840791476263828</v>
+        <v>0.001221730913030683</v>
       </c>
       <c r="C4" s="15" t="n">
-        <v>0</v>
+        <v>0.01157316883124548</v>
       </c>
       <c r="D4" s="15" t="n">
-        <v>0.0603106250146952</v>
+        <v>0.01461875265841761</v>
       </c>
       <c r="E4" s="15" t="n">
-        <v>-0.03748308501951092</v>
+        <v>-0.002063623784481439</v>
       </c>
       <c r="F4" s="15" t="n">
-        <v>0.01420225606645409</v>
+        <v>-0.002509028483501763</v>
       </c>
       <c r="G4" s="15" t="n">
-        <v>0.01522707432628567</v>
+        <v>0.07388210329200517</v>
       </c>
       <c r="H4" s="15" t="n">
-        <v>-0.01324673478917071</v>
+        <v>0.02928930096773419</v>
       </c>
       <c r="I4" s="15" t="n">
-        <v>-0.001212305159012494</v>
+        <v>0.03084257502564625</v>
       </c>
       <c r="J4" s="15" t="n">
-        <v>-0.02928033399939278</v>
+        <v>0.005006133481738173</v>
       </c>
       <c r="K4" s="15" t="n">
-        <v>-0.007313936934674414</v>
+        <v>0.025511670125133</v>
       </c>
       <c r="L4" s="15" t="n">
-        <v>0.04720901920962817</v>
+        <v>-0.01531766739479601</v>
       </c>
       <c r="M4" s="15" t="n">
-        <v>-0.02414757590914085</v>
+        <v>-0.002628192843649901</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="15" t="n">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="B5" s="15" t="n">
-        <v>0.0012211800247377</v>
+        <v>0.03610395076454176</v>
       </c>
       <c r="C5" s="15" t="n">
-        <v>0.0306036051218912</v>
+        <v>-0.05937085550421151</v>
       </c>
       <c r="D5" s="15" t="n">
-        <v>0.009314072366614967</v>
+        <v>0.02535944298499437</v>
       </c>
       <c r="E5" s="15" t="n">
-        <v>0.01539568968369309</v>
+        <v>-0.02395065037327671</v>
       </c>
       <c r="F5" s="15" t="n">
-        <v>-0.005453783592314632</v>
+        <v>0.07586219835529739</v>
       </c>
       <c r="G5" s="15" t="n">
-        <v>0.07389130758940921</v>
+        <v>-0.04697400857661471</v>
       </c>
       <c r="H5" s="15" t="n">
-        <v>0.02747737865632693</v>
+        <v>-0.04150929586320995</v>
       </c>
       <c r="I5" s="15" t="n">
-        <v>0.03078430486430239</v>
+        <v>-0.03379289518761674</v>
       </c>
       <c r="J5" s="15" t="n">
-        <v>0.005006505407123552</v>
+        <v>0</v>
       </c>
       <c r="K5" s="15" t="n">
-        <v>0.0518278348484067</v>
+        <v>0</v>
       </c>
       <c r="L5" s="15" t="n">
-        <v>-0.01518766793901793</v>
+        <v>-0.02789954547046658</v>
       </c>
       <c r="M5" s="15" t="n">
-        <v>-0.002627959149751447</v>
+        <v>0.03712141789403844</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="15" t="n">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="B6" s="15" t="n">
-        <v>0.03610363616780998</v>
+        <v>-0.0298759814497751</v>
       </c>
       <c r="C6" s="15" t="n">
-        <v>-0.05909363405748258</v>
+        <v>0.2945127617452501</v>
       </c>
       <c r="D6" s="15" t="n">
-        <v>0.02535874124659609</v>
+        <v>0.04878522823919584</v>
       </c>
       <c r="E6" s="15" t="n">
-        <v>-0.02403856553451256</v>
+        <v>-0.02574960417220418</v>
       </c>
       <c r="F6" s="15" t="n">
-        <v>0.0758691464383856</v>
+        <v>-0.01811832902341226</v>
       </c>
       <c r="G6" s="15" t="n">
-        <v>-0.04660215836174708</v>
+        <v>0.009519392297380191</v>
       </c>
       <c r="H6" s="15" t="n">
-        <v>-0.04152215489324662</v>
+        <v>-0.02585233639623463</v>
       </c>
       <c r="I6" s="15" t="n">
-        <v>-0.03380628328037971</v>
+        <v>0.02143390702747139</v>
       </c>
       <c r="J6" s="15" t="n">
-        <v>0</v>
+        <v>0.02189492799527071</v>
       </c>
       <c r="K6" s="15" t="n">
-        <v>0</v>
+        <v>0.008265333743844749</v>
       </c>
       <c r="L6" s="15" t="n">
-        <v>-0.02790057480233699</v>
+        <v>-0.0280200048229079</v>
       </c>
       <c r="M6" s="15" t="n">
-        <v>0.03711537651583874</v>
+        <v>0.08119592642831441</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="15" t="n">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="B7" s="15" t="n">
-        <v>-0.02987591348768626</v>
+        <v>0.04462355316512845</v>
       </c>
       <c r="C7" s="15" t="n">
-        <v>0.2945158032046613</v>
+        <v>-0.08583607393878678</v>
       </c>
       <c r="D7" s="15" t="n">
-        <v>0.04876726627816774</v>
+        <v>-0.05616221463160953</v>
       </c>
       <c r="E7" s="15" t="n">
-        <v>-0.02329870640102349</v>
+        <v>0.006793070620817465</v>
       </c>
       <c r="F7" s="15" t="n">
-        <v>-0.01804255642711783</v>
+        <v>0.03208071181586569</v>
       </c>
       <c r="G7" s="15" t="n">
-        <v>0.009546552580017131</v>
+        <v>0.1284118206811256</v>
       </c>
       <c r="H7" s="15" t="n">
-        <v>-0.03293500726615772</v>
+        <v>0.1850367886311386</v>
       </c>
       <c r="I7" s="15" t="n">
-        <v>0.0214338194288306</v>
+        <v>-0.04833691649858163</v>
       </c>
       <c r="J7" s="15" t="n">
-        <v>0.02189557216364646</v>
+        <v>-0.07124772835859328</v>
       </c>
       <c r="K7" s="15" t="n">
-        <v>0.00931527054075576</v>
+        <v>-0.02813115697553237</v>
       </c>
       <c r="L7" s="15" t="n">
-        <v>-0.02807658362243015</v>
+        <v>0.05220485068358949</v>
       </c>
       <c r="M7" s="15" t="n">
-        <v>0.08119771466036574</v>
+        <v>0.02512780402196491</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="15" t="n">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B8" s="15" t="n">
-        <v>0.04462307462643111</v>
+        <v>0.0240127410657367</v>
       </c>
       <c r="C8" s="15" t="n">
-        <v>-0.08583736189986224</v>
+        <v>-0.06583900404768339</v>
       </c>
       <c r="D8" s="15" t="n">
-        <v>-0.07785362393372219</v>
+        <v>-0.03900309672946023</v>
       </c>
       <c r="E8" s="15" t="n">
-        <v>0.00679356585209856</v>
+        <v>0.003139537576340556</v>
       </c>
       <c r="F8" s="15" t="n">
-        <v>0.03208479081602356</v>
+        <v>0.02946983217892796</v>
       </c>
       <c r="G8" s="15" t="n">
-        <v>0.1284272275362404</v>
+        <v>-0.06608779290363276</v>
       </c>
       <c r="H8" s="15" t="n">
-        <v>0.1850555435183427</v>
+        <v>0.06069289107731013</v>
       </c>
       <c r="I8" s="15" t="n">
-        <v>-0.04827122753489688</v>
+        <v>-0.004565951642015675</v>
       </c>
       <c r="J8" s="15" t="n">
-        <v>-0.07120207449689242</v>
+        <v>-0.07575528181129942</v>
       </c>
       <c r="K8" s="15" t="n">
-        <v>-0.02811130859960032</v>
+        <v>-0.01531460893133108</v>
       </c>
       <c r="L8" s="15" t="n">
-        <v>0.05177125892535805</v>
+        <v>0.00657540011309643</v>
       </c>
       <c r="M8" s="15" t="n">
-        <v>0.02191375371817328</v>
+        <v>0.02836649638755762</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="15" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B9" s="15" t="n">
-        <v>0.02738380695223563</v>
+        <v>-0.04669860580697793</v>
       </c>
       <c r="C9" s="15" t="n">
-        <v>-0.08971557679996722</v>
+        <v>0.01331886036719521</v>
       </c>
       <c r="D9" s="15" t="n">
-        <v>-0.03384520112031886</v>
+        <v>-0.04959239621836309</v>
       </c>
       <c r="E9" s="15" t="n">
-        <v>-0.01122691929349706</v>
+        <v>0.004760945989797261</v>
       </c>
       <c r="F9" s="15" t="n">
-        <v>0.02946163816688485</v>
+        <v>0.01600556954982224</v>
       </c>
       <c r="G9" s="15" t="n">
-        <v>-0.02489927937879088</v>
+        <v>0.09479438127996964</v>
       </c>
       <c r="H9" s="15" t="n">
-        <v>0.05989144046150763</v>
+        <v>0.007068712866506122</v>
       </c>
       <c r="I9" s="15" t="n">
-        <v>0.03762229524052874</v>
+        <v/>
       </c>
       <c r="J9" s="15" t="n">
-        <v>-0.07948843416370099</v>
+        <v/>
       </c>
       <c r="K9" s="15" t="n">
-        <v>-0.003097806795813618</v>
+        <v/>
       </c>
       <c r="L9" s="15" t="n">
-        <v>0.007288988300057531</v>
+        <v/>
       </c>
       <c r="M9" s="15" t="n">
-        <v>0.02843733592978914</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="15" t="n">
-        <v>2022</v>
-      </c>
-      <c r="B10" s="15" t="n">
-        <v>-0.04669873010199244</v>
-      </c>
-      <c r="C10" s="15" t="n">
-        <v>0.01330363879491681</v>
-      </c>
-      <c r="D10" s="15" t="n">
-        <v>-0.04966502501080972</v>
-      </c>
-      <c r="E10" s="15" t="n">
-        <v>0.004785085516076926</v>
-      </c>
-      <c r="F10" s="15" t="n">
-        <v>0.0160061701544798</v>
-      </c>
-      <c r="G10" s="15" t="n">
-        <v>0.094798031413309</v>
-      </c>
-      <c r="H10" s="15" t="n">
-        <v>0.007068486862721768</v>
-      </c>
-      <c r="I10" s="15" t="n">
-        <v/>
-      </c>
-      <c r="J10" s="15" t="n">
-        <v/>
-      </c>
-      <c r="K10" s="15" t="n">
-        <v/>
-      </c>
-      <c r="L10" s="15" t="n">
-        <v/>
-      </c>
-      <c r="M10" s="15" t="n">
         <v/>
       </c>
     </row>
@@ -1799,7 +1738,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M10"/>
+  <dimension ref="A1:M9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
@@ -1877,7 +1816,7 @@
     </row>
     <row r="2" ht="20" customHeight="1">
       <c r="A2" s="15" t="n">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="B2" s="15" t="n">
         <v/>
@@ -1889,358 +1828,317 @@
         <v/>
       </c>
       <c r="E2" s="15" t="n">
-        <v>0.04033973824017645</v>
+        <v/>
       </c>
       <c r="F2" s="15" t="n">
-        <v>-0.01371780981386217</v>
+        <v/>
       </c>
       <c r="G2" s="15" t="n">
-        <v>-0.03904301397021992</v>
+        <v/>
       </c>
       <c r="H2" s="15" t="n">
-        <v>0.1149168693205596</v>
+        <v/>
       </c>
       <c r="I2" s="15" t="n">
-        <v>-0.0530523893272713</v>
+        <v/>
       </c>
       <c r="J2" s="15" t="n">
-        <v>-0.01859369373725761</v>
+        <v/>
       </c>
       <c r="K2" s="15" t="n">
-        <v>0.04532946710049068</v>
+        <v>-0.03003022948131695</v>
       </c>
       <c r="L2" s="15" t="n">
-        <v>0.1805696295476134</v>
+        <v>0.05219096764895403</v>
       </c>
       <c r="M2" s="15" t="n">
-        <v>0.4176096788118218</v>
+        <v>-0.07539995671552957</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="15" t="n">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="B3" s="15" t="n">
-        <v>-0.1466607607450653</v>
+        <v>0.1406031284849136</v>
       </c>
       <c r="C3" s="15" t="n">
-        <v>-0.02564504833864734</v>
+        <v>0.01670041772129349</v>
       </c>
       <c r="D3" s="15" t="n">
-        <v>-0.01338510293310369</v>
+        <v>-0.05681947220507355</v>
       </c>
       <c r="E3" s="15" t="n">
-        <v>-0.02179664961321903</v>
+        <v>-0.0186482350160444</v>
       </c>
       <c r="F3" s="15" t="n">
-        <v>-0.01254622424095131</v>
+        <v>0.007758744076317825</v>
       </c>
       <c r="G3" s="15" t="n">
-        <v>0.1569915808656743</v>
+        <v>0.02090730800898255</v>
       </c>
       <c r="H3" s="15" t="n">
-        <v>0.08807385286485769</v>
+        <v>-0.02808159569532731</v>
       </c>
       <c r="I3" s="15" t="n">
-        <v>0.2507648313028643</v>
+        <v>-0.03085572089432176</v>
       </c>
       <c r="J3" s="15" t="n">
-        <v>-0.07421672819893266</v>
+        <v>-0.007583637746349403</v>
       </c>
       <c r="K3" s="15" t="n">
-        <v>-0.06296648741366218</v>
+        <v>-0.02997343946457587</v>
       </c>
       <c r="L3" s="15" t="n">
-        <v>-0.01843466818523787</v>
+        <v>-0.02633041173501893</v>
       </c>
       <c r="M3" s="15" t="n">
-        <v>-0.04665221913814066</v>
+        <v>0.04128888892051696</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="15" t="n">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="B4" s="15" t="n">
-        <v>0.2059889196754614</v>
+        <v>-0.02219340788157087</v>
       </c>
       <c r="C4" s="15" t="n">
-        <v>0.04481461253681185</v>
+        <v>-0.007629372180275928</v>
       </c>
       <c r="D4" s="15" t="n">
-        <v>-0.1179038166828686</v>
+        <v>0.01363870624116004</v>
       </c>
       <c r="E4" s="15" t="n">
-        <v>0.003550479578720012</v>
+        <v>0.002499536226103327</v>
       </c>
       <c r="F4" s="15" t="n">
-        <v>-0.0039234665135639</v>
+        <v>-0.01840835881478353</v>
       </c>
       <c r="G4" s="15" t="n">
-        <v>-0.01772659366050744</v>
+        <v>0.0232236340634</v>
       </c>
       <c r="H4" s="15" t="n">
-        <v>0.03487404697383867</v>
+        <v>0.009817399054038223</v>
       </c>
       <c r="I4" s="15" t="n">
-        <v>-0.03463682880892882</v>
+        <v>0.008667473552239624</v>
       </c>
       <c r="J4" s="15" t="n">
-        <v>-0.01143877432088936</v>
+        <v>0.00138703981202748</v>
       </c>
       <c r="K4" s="15" t="n">
-        <v>-0.0131499538858475</v>
+        <v>-0.0180747046127534</v>
       </c>
       <c r="L4" s="15" t="n">
-        <v>0.03504466227082337</v>
+        <v>-0.0151053541923758</v>
       </c>
       <c r="M4" s="15" t="n">
-        <v>0.08244975018556921</v>
+        <v>-0.009848791109948296</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="15" t="n">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="B5" s="15" t="n">
-        <v>0.03813335158888775</v>
+        <v>-0.02299905733195717</v>
       </c>
       <c r="C5" s="15" t="n">
-        <v>0.008437024159370754</v>
+        <v>-0.004145828815550034</v>
       </c>
       <c r="D5" s="15" t="n">
-        <v>0.01910313056551094</v>
+        <v>0.05771749443612317</v>
       </c>
       <c r="E5" s="15" t="n">
-        <v>0.04530545497369531</v>
+        <v>0.01101896861158269</v>
       </c>
       <c r="F5" s="15" t="n">
-        <v>0.04169330667528781</v>
+        <v>0.06251312397254316</v>
       </c>
       <c r="G5" s="15" t="n">
-        <v>0.04053859369673707</v>
+        <v>0.03048205994578246</v>
       </c>
       <c r="H5" s="15" t="n">
-        <v>0.07142451557513363</v>
+        <v>-0.04658020314328493</v>
       </c>
       <c r="I5" s="15" t="n">
-        <v>-0.03251790536397992</v>
+        <v>0.01472649028587059</v>
       </c>
       <c r="J5" s="15" t="n">
-        <v>-0.00406929435604686</v>
+        <v>-0.03328095998769964</v>
       </c>
       <c r="K5" s="15" t="n">
-        <v>0.04891187615234682</v>
+        <v>0.07954397848274652</v>
       </c>
       <c r="L5" s="15" t="n">
-        <v>0.03890540837111534</v>
+        <v>-0.0342400092260523</v>
       </c>
       <c r="M5" s="15" t="n">
-        <v>0.005510471146376039</v>
+        <v>0.09131518369628999</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="15" t="n">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="B6" s="15" t="n">
-        <v>0.04345595142504943</v>
+        <v>-0.08949063608337415</v>
       </c>
       <c r="C6" s="15" t="n">
-        <v>-0.07470922931566881</v>
+        <v>0.1334094927225051</v>
       </c>
       <c r="D6" s="15" t="n">
-        <v>-0.05740014456110354</v>
+        <v>-0.005296470929742836</v>
       </c>
       <c r="E6" s="15" t="n">
-        <v>0.02351547706976209</v>
+        <v>-0.03581222911025872</v>
       </c>
       <c r="F6" s="15" t="n">
-        <v>0.111993099029839</v>
+        <v>0.0522337138099207</v>
       </c>
       <c r="G6" s="15" t="n">
-        <v>0.02914932303209783</v>
+        <v>-0.0443709167766575</v>
       </c>
       <c r="H6" s="15" t="n">
-        <v>-0.01764558191635901</v>
+        <v>-0.02878058480795376</v>
       </c>
       <c r="I6" s="15" t="n">
-        <v>0.04373007633415482</v>
+        <v>0.02887979562191489</v>
       </c>
       <c r="J6" s="15" t="n">
-        <v>0.01408128749632898</v>
+        <v>0.01842331382310114</v>
       </c>
       <c r="K6" s="15" t="n">
-        <v>0.09307593245600398</v>
+        <v>-0.01116494525840361</v>
       </c>
       <c r="L6" s="15" t="n">
-        <v>-0.07040972330069539</v>
+        <v>-0.01329453244545376</v>
       </c>
       <c r="M6" s="15" t="n">
-        <v>0.09974128881319921</v>
+        <v>0.01046224529274076</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="15" t="n">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="B7" s="15" t="n">
-        <v>-0.01425824064588366</v>
+        <v>0.06890279606574978</v>
       </c>
       <c r="C7" s="15" t="n">
-        <v>0.03746931329888836</v>
+        <v>-0.0691143213496177</v>
       </c>
       <c r="D7" s="15" t="n">
-        <v>-0.0504102351529413</v>
+        <v>0.005580198215394461</v>
       </c>
       <c r="E7" s="15" t="n">
-        <v>0.01694393853882237</v>
+        <v>-0.05286665240374877</v>
       </c>
       <c r="F7" s="15" t="n">
-        <v>0.0631471399253658</v>
+        <v>0.04443068330062028</v>
       </c>
       <c r="G7" s="15" t="n">
-        <v>-0.01282567612268815</v>
+        <v>0.0477727149791809</v>
       </c>
       <c r="H7" s="15" t="n">
-        <v>-0.07075668377741395</v>
+        <v>0.0481945204781753</v>
       </c>
       <c r="I7" s="15" t="n">
-        <v>-0.007428525446055434</v>
+        <v>-0.07294461906150262</v>
       </c>
       <c r="J7" s="15" t="n">
-        <v>0.01117367475173237</v>
+        <v>-0.02566126768807142</v>
       </c>
       <c r="K7" s="15" t="n">
-        <v>-0.01874511909810705</v>
+        <v>-0.05128598949692476</v>
       </c>
       <c r="L7" s="15" t="n">
-        <v>-0.02472189253118928</v>
+        <v>-0.003948502326225789</v>
       </c>
       <c r="M7" s="15" t="n">
-        <v>0.0004351139983516106</v>
+        <v>-0.02452528113713803</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="15" t="n">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B8" s="15" t="n">
-        <v>-0.02662353213923818</v>
+        <v>-0.002306065710333427</v>
       </c>
       <c r="C8" s="15" t="n">
-        <v>-0.1513477454242529</v>
+        <v>-0.06305055993062925</v>
       </c>
       <c r="D8" s="15" t="n">
-        <v>0.0155683361825254</v>
+        <v>0.01145156838868311</v>
       </c>
       <c r="E8" s="15" t="n">
-        <v>-0.0935486879073657</v>
+        <v>-0.01190423098549476</v>
       </c>
       <c r="F8" s="15" t="n">
-        <v>0.02253629722174688</v>
+        <v>-0.01101838400371058</v>
       </c>
       <c r="G8" s="15" t="n">
-        <v>-0.03510897209366592</v>
+        <v>-0.04706685383780496</v>
       </c>
       <c r="H8" s="15" t="n">
-        <v>0.03066973808450335</v>
+        <v>0.1497252215584559</v>
       </c>
       <c r="I8" s="15" t="n">
-        <v>-0.02757597612253337</v>
+        <v>-0.005923807075223997</v>
       </c>
       <c r="J8" s="15" t="n">
-        <v>-0.01887024261590864</v>
+        <v>-0.08742428666166957</v>
       </c>
       <c r="K8" s="15" t="n">
-        <v>-0.06130783439077325</v>
+        <v>-0.02371342532290899</v>
       </c>
       <c r="L8" s="15" t="n">
-        <v>0.05930056048225718</v>
+        <v>0.02246693919957043</v>
       </c>
       <c r="M8" s="15" t="n">
-        <v>-0.09492474566986786</v>
+        <v>0.005947579373407841</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="15" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B9" s="15" t="n">
-        <v>-0.02694120467360372</v>
+        <v>0.03012982105265793</v>
       </c>
       <c r="C9" s="15" t="n">
-        <v>-0.02267762382392668</v>
+        <v>0.008035161262919699</v>
       </c>
       <c r="D9" s="15" t="n">
-        <v>0.01041162531235962</v>
+        <v>0.02298606501111111</v>
       </c>
       <c r="E9" s="15" t="n">
-        <v>-0.1208101558402925</v>
+        <v>0.05034830414437708</v>
       </c>
       <c r="F9" s="15" t="n">
-        <v>-0.04011673162770413</v>
+        <v>-0.005072379459192367</v>
       </c>
       <c r="G9" s="15" t="n">
-        <v>-0.074510540265462</v>
+        <v>-0.0007810776948863341</v>
       </c>
       <c r="H9" s="15" t="n">
-        <v>0.06485297252899369</v>
+        <v>0.01114738754885036</v>
       </c>
       <c r="I9" s="15" t="n">
-        <v>0.1060307976716239</v>
+        <v/>
       </c>
       <c r="J9" s="15" t="n">
-        <v>-0.0912248268957655</v>
+        <v/>
       </c>
       <c r="K9" s="15" t="n">
-        <v>-0.03616615973588089</v>
+        <v/>
       </c>
       <c r="L9" s="15" t="n">
-        <v>-0.03533785208926155</v>
+        <v/>
       </c>
       <c r="M9" s="15" t="n">
-        <v>0.0810401388555162</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="15" t="n">
-        <v>2022</v>
-      </c>
-      <c r="B10" s="15" t="n">
-        <v>0.08388177818439901</v>
-      </c>
-      <c r="C10" s="15" t="n">
-        <v>0.01804589238428989</v>
-      </c>
-      <c r="D10" s="15" t="n">
-        <v>0.0177583987602139</v>
-      </c>
-      <c r="E10" s="15" t="n">
-        <v>0.1373470328942545</v>
-      </c>
-      <c r="F10" s="15" t="n">
-        <v>-0.02471623442722126</v>
-      </c>
-      <c r="G10" s="15" t="n">
-        <v>-0.06477671229251136</v>
-      </c>
-      <c r="H10" s="15" t="n">
-        <v>0.01726491779701544</v>
-      </c>
-      <c r="I10" s="15" t="n">
-        <v/>
-      </c>
-      <c r="J10" s="15" t="n">
-        <v/>
-      </c>
-      <c r="K10" s="15" t="n">
-        <v/>
-      </c>
-      <c r="L10" s="15" t="n">
-        <v/>
-      </c>
-      <c r="M10" s="15" t="n">
         <v/>
       </c>
     </row>

--- a/backtest/bt_report/rs_smae_ind/single_run/summary.xlsx
+++ b/backtest/bt_report/rs_smae_ind/single_run/summary.xlsx
@@ -617,7 +617,7 @@
       </c>
       <c r="B2" s="5" t="inlineStr">
         <is>
-          <t>2015-10-08</t>
+          <t>2014-04-16</t>
         </is>
       </c>
       <c r="C2" s="13" t="n"/>
@@ -712,7 +712,7 @@
         </is>
       </c>
       <c r="B8" s="7" t="n">
-        <v>162670462.8486049</v>
+        <v>684511532.783385</v>
       </c>
       <c r="C8" s="13" t="n"/>
       <c r="D8" s="13" t="n"/>
@@ -726,7 +726,7 @@
         </is>
       </c>
       <c r="B9" s="7" t="n">
-        <v>7118.708004817367</v>
+        <v>8015.689085066319</v>
       </c>
       <c r="C9" s="13" t="n"/>
       <c r="D9" s="13" t="n"/>
@@ -740,7 +740,7 @@
         </is>
       </c>
       <c r="B10" s="7" t="n">
-        <v>0.6267046284860487</v>
+        <v>5.845115327833851</v>
       </c>
       <c r="C10" s="13" t="n"/>
       <c r="D10" s="13" t="n"/>
@@ -754,7 +754,7 @@
         </is>
       </c>
       <c r="B11" s="7" t="n">
-        <v>0.07762928742156139</v>
+        <v>0.2742597843071377</v>
       </c>
       <c r="C11" s="13" t="n"/>
       <c r="D11" s="13" t="n"/>
@@ -768,7 +768,7 @@
         </is>
       </c>
       <c r="B12" s="7" t="n">
-        <v>1.626704628486049</v>
+        <v>6.845115327833851</v>
       </c>
       <c r="C12" s="13" t="n"/>
       <c r="D12" s="13" t="n"/>
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="B14" s="7" t="n">
-        <v>127.6674706086971</v>
+        <v>139.1059080161452</v>
       </c>
       <c r="C14" s="13" t="n"/>
       <c r="D14" s="13" t="n"/>
@@ -810,7 +810,7 @@
         </is>
       </c>
       <c r="B15" s="7" t="n">
-        <v>0.3596481246566346</v>
+        <v>0.3185571902073545</v>
       </c>
     </row>
     <row r="16" ht="20" customHeight="1">
@@ -820,7 +820,7 @@
         </is>
       </c>
       <c r="B16" s="5" t="n">
-        <v>0.2107216479076085</v>
+        <v>0.2321103761371115</v>
       </c>
       <c r="C16" s="13" t="n"/>
       <c r="D16" s="13" t="n"/>
@@ -834,7 +834,7 @@
         </is>
       </c>
       <c r="B17" s="5" t="n">
-        <v>0.3115693602516939</v>
+        <v>0.9753933091211506</v>
       </c>
       <c r="C17" s="13" t="n"/>
       <c r="D17" s="13" t="n"/>
@@ -848,7 +848,7 @@
         </is>
       </c>
       <c r="B18" s="5" t="n">
-        <v>0.1515906780094905</v>
+        <v>0.1633167432814419</v>
       </c>
       <c r="C18" s="13" t="n"/>
       <c r="D18" s="13" t="n"/>
@@ -862,7 +862,7 @@
         </is>
       </c>
       <c r="B19" s="5" t="n">
-        <v>0.4331032085340097</v>
+        <v>1.386256566919054</v>
       </c>
       <c r="C19" s="13" t="n"/>
       <c r="D19" s="13" t="n"/>
@@ -876,7 +876,7 @@
         </is>
       </c>
       <c r="B20" s="5" t="n">
-        <v>0.2727922075155697</v>
+        <v>0.2353428134725821</v>
       </c>
       <c r="C20" s="13" t="n"/>
       <c r="D20" s="13" t="n"/>
@@ -890,7 +890,7 @@
         </is>
       </c>
       <c r="B21" s="5" t="n">
-        <v>0.02182339061856991</v>
+        <v>0.02336366087116886</v>
       </c>
       <c r="C21" s="13" t="n"/>
       <c r="D21" s="13" t="n"/>
@@ -904,7 +904,7 @@
         </is>
       </c>
       <c r="B22" s="7" t="n">
-        <v>0.05007641164805395</v>
+        <v>1.831756688449687</v>
       </c>
       <c r="C22" s="13" t="n"/>
       <c r="D22" s="13" t="n"/>
@@ -918,7 +918,7 @@
         </is>
       </c>
       <c r="B23" s="7" t="n">
-        <v>0.00753646427402388</v>
+        <v>0.1401422717356604</v>
       </c>
       <c r="C23" s="13" t="n"/>
       <c r="D23" s="13" t="n"/>
@@ -932,7 +932,7 @@
         </is>
       </c>
       <c r="B24" s="7" t="n">
-        <v>0.03333969610505824</v>
+        <v>0.2037492578900926</v>
       </c>
       <c r="C24" s="13" t="n"/>
       <c r="D24" s="13" t="n"/>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="B25" s="7" t="n">
-        <v>0.6037811049427479</v>
+        <v>0.5583950516627886</v>
       </c>
       <c r="C25" s="13" t="n"/>
       <c r="D25" s="13" t="n"/>
@@ -960,7 +960,7 @@
         </is>
       </c>
       <c r="B26" s="7" t="n">
-        <v>0.2675526944172602</v>
+        <v>1.15754978836539</v>
       </c>
       <c r="C26" s="13" t="n"/>
       <c r="D26" s="13" t="n"/>
@@ -974,7 +974,7 @@
         </is>
       </c>
       <c r="B27" s="7" t="n">
-        <v>0.1341252825977921</v>
+        <v>0.7097419532350724</v>
       </c>
       <c r="C27" s="13" t="n"/>
       <c r="D27" s="13" t="n"/>
@@ -988,7 +988,7 @@
         </is>
       </c>
       <c r="B28" s="7" t="n">
-        <v>0.2984829340047255</v>
+        <v>0.3205202094913316</v>
       </c>
       <c r="C28" s="13" t="n"/>
       <c r="D28" s="13" t="n"/>
@@ -1002,7 +1002,7 @@
         </is>
       </c>
       <c r="B29" s="7" t="n">
-        <v>0.1895550313400094</v>
+        <v>0.21821409058743</v>
       </c>
       <c r="C29" s="13" t="n"/>
       <c r="D29" s="13" t="n"/>
@@ -1016,7 +1016,7 @@
         </is>
       </c>
       <c r="B30" s="5" t="n">
-        <v>0.03166028238424276</v>
+        <v>0.1912075669620008</v>
       </c>
       <c r="C30" s="13" t="n"/>
       <c r="D30" s="13" t="n"/>
@@ -1030,7 +1030,7 @@
         </is>
       </c>
       <c r="B31" s="5" t="n">
-        <v>0.6428058659795092</v>
+        <v>0.7108710999156095</v>
       </c>
       <c r="C31" s="13" t="n"/>
       <c r="D31" s="13" t="n"/>
@@ -1044,7 +1044,7 @@
         </is>
       </c>
       <c r="B32" s="5" t="n">
-        <v>0.3149275734138967</v>
+        <v>0.9598798831782586</v>
       </c>
       <c r="C32" s="13" t="n"/>
       <c r="D32" s="13" t="n"/>
@@ -1058,7 +1058,7 @@
         </is>
       </c>
       <c r="B33" s="5" t="n">
-        <v>0.4576539580808315</v>
+        <v>1.496757656228394</v>
       </c>
     </row>
     <row r="34" ht="20" customHeight="1">
@@ -1068,7 +1068,7 @@
         </is>
       </c>
       <c r="B34" s="5" t="n">
-        <v>0.2945851588226826</v>
+        <v>1.196558236534826</v>
       </c>
     </row>
     <row r="35" ht="20" customHeight="1">
@@ -1078,7 +1078,7 @@
         </is>
       </c>
       <c r="B35" s="5" t="n">
-        <v>0.02235660884886214</v>
+        <v>0.02517412629782554</v>
       </c>
     </row>
     <row r="36" ht="20" customHeight="1">
@@ -1088,7 +1088,7 @@
         </is>
       </c>
       <c r="B36" s="16" t="n">
-        <v>0.2572121499923682</v>
+        <v>0.2186716802478373</v>
       </c>
     </row>
   </sheetData>
@@ -1102,7 +1102,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K9"/>
+  <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B15" sqref="B15"/>
@@ -1154,79 +1154,79 @@
     </row>
     <row r="2" ht="20" customHeight="1">
       <c r="A2" s="9" t="n">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="B2" s="13" t="n">
-        <v>0.09998199999999932</v>
+        <v>0.9607450000000001</v>
       </c>
       <c r="C2" s="13" t="n">
-        <v>-0.05635926912186034</v>
+        <v>0.2419712004473855</v>
       </c>
       <c r="D2" s="13" t="n">
-        <v>1.225998931773132</v>
+        <v>3.630354381361787</v>
       </c>
       <c r="E2" s="13" t="n">
-        <v>-1.503337106774685</v>
+        <v>3.69384358431447</v>
       </c>
       <c r="F2" s="13" t="n">
-        <v>0.5384615384615384</v>
+        <v>0.6052631578947368</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="9" t="n">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="B3" s="13" t="n">
-        <v>-0.07357938584449486</v>
+        <v>1.155033418420038</v>
       </c>
       <c r="C3" s="13" t="n">
-        <v>0.01523973311390135</v>
+        <v>0.8614860243866556</v>
       </c>
       <c r="D3" s="13" t="n">
-        <v>-0.3361098055912288</v>
+        <v>2.601035228282797</v>
       </c>
       <c r="E3" s="13" t="n">
-        <v>-0.176924606298415</v>
+        <v>4.125353073289166</v>
       </c>
       <c r="F3" s="13" t="n">
-        <v>0.44</v>
+        <v>0.6730769230769231</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="9" t="n">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="B4" s="13" t="n">
-        <v>0.1797534164306612</v>
+        <v>-0.06590247572400748</v>
       </c>
       <c r="C4" s="13" t="n">
-        <v>-0.03270660670678539</v>
+        <v>0.02421129764230907</v>
       </c>
       <c r="D4" s="13" t="n">
-        <v>1.239250361754267</v>
+        <v>-0.2842260547499764</v>
       </c>
       <c r="E4" s="13" t="n">
-        <v>-0.03728589294360452</v>
+        <v>-0.1182834802285169</v>
       </c>
       <c r="F4" s="13" t="n">
-        <v>0.4901960784313725</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="9" t="n">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="B5" s="13" t="n">
-        <v>-0.06625143588169521</v>
+        <v>0.2420323070522886</v>
       </c>
       <c r="C5" s="13" t="n">
-        <v>0.2122372970476044</v>
+        <v>0.01868708179637339</v>
       </c>
       <c r="D5" s="13" t="n">
-        <v>-0.3444692574214379</v>
+        <v>1.571323375349977</v>
       </c>
       <c r="E5" s="13" t="n">
-        <v>0.07521515190518252</v>
+        <v>0.4475893583559189</v>
       </c>
       <c r="F5" s="13" t="n">
         <v>0.5294117647058824</v>
@@ -1234,81 +1234,101 @@
     </row>
     <row r="6">
       <c r="A6" s="9" t="n">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="B6" s="13" t="n">
-        <v>0.3703844913564719</v>
+        <v>-0.06572277035451181</v>
       </c>
       <c r="C6" s="13" t="n">
-        <v>-0.001449765289196776</v>
+        <v>0.2129209817915181</v>
       </c>
       <c r="D6" s="13" t="n">
-        <v>1.537145919374366</v>
+        <v>-0.3409846405789185</v>
       </c>
       <c r="E6" s="13" t="n">
-        <v>0.5489650768151734</v>
+        <v>0.0787410151510685</v>
       </c>
       <c r="F6" s="13" t="n">
-        <v>0.4423076923076923</v>
+        <v>0.5490196078431373</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="9" t="n">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="B7" s="13" t="n">
-        <v>0.1603891941927709</v>
+        <v>0.3653090503701751</v>
       </c>
       <c r="C7" s="13" t="n">
-        <v>-0.09489332831561807</v>
+        <v>-0.004970124344605749</v>
       </c>
       <c r="D7" s="13" t="n">
-        <v>0.7164810635466635</v>
+        <v>1.515435443839098</v>
       </c>
       <c r="E7" s="13" t="n">
-        <v>-0.3860552389275067</v>
+        <v>0.5057657260565146</v>
       </c>
       <c r="F7" s="13" t="n">
-        <v>0.4807692307692308</v>
+        <v>0.4423076923076923</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="9" t="n">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="B8" s="13" t="n">
-        <v>-0.1181170291312393</v>
+        <v>0.1298935420477017</v>
       </c>
       <c r="C8" s="13" t="n">
-        <v>-0.07786851371908078</v>
+        <v>-0.117300226923977</v>
       </c>
       <c r="D8" s="13" t="n">
-        <v>-0.461175764218542</v>
+        <v>0.6026916567670054</v>
       </c>
       <c r="E8" s="13" t="n">
-        <v>-0.4560493251216763</v>
+        <v>-0.59549191854226</v>
       </c>
       <c r="F8" s="13" t="n">
-        <v>0.4615384615384616</v>
+        <v>0.4423076923076923</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="9" t="n">
+        <v>2021</v>
+      </c>
+      <c r="B9" s="13" t="n">
+        <v>-0.06237921989106015</v>
+      </c>
+      <c r="C9" s="13" t="n">
+        <v>-0.01743349405645935</v>
+      </c>
+      <c r="D9" s="13" t="n">
+        <v>-0.1520603336044758</v>
+      </c>
+      <c r="E9" s="13" t="n">
+        <v>-0.1106619723574289</v>
+      </c>
+      <c r="F9" s="13" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="9" t="n">
         <v>2022</v>
       </c>
-      <c r="B9" s="13" t="n">
-        <v>0.03332456722083701</v>
-      </c>
-      <c r="C9" s="13" t="n">
-        <v>0.1215981869189186</v>
-      </c>
-      <c r="D9" s="13" t="n">
-        <v>0.5332062277813147</v>
-      </c>
-      <c r="E9" s="13" t="n">
-        <v>0.8259613099186821</v>
-      </c>
-      <c r="F9" s="13" t="n">
+      <c r="B10" s="13" t="n">
+        <v>0.03325859378962364</v>
+      </c>
+      <c r="C10" s="13" t="n">
+        <v>0.1215293237581444</v>
+      </c>
+      <c r="D10" s="13" t="n">
+        <v>0.5322120414748669</v>
+      </c>
+      <c r="E10" s="13" t="n">
+        <v>0.8248588374326724</v>
+      </c>
+      <c r="F10" s="13" t="n">
         <v>0.68</v>
       </c>
     </row>
@@ -1323,7 +1343,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M9"/>
+  <dimension ref="A1:M10"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A1" sqref="A1:XFD2"/>
@@ -1401,7 +1421,7 @@
     </row>
     <row r="2" ht="20" customHeight="1">
       <c r="A2" s="15" t="n">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="B2" s="15" t="n">
         <v/>
@@ -1413,317 +1433,358 @@
         <v/>
       </c>
       <c r="E2" s="15" t="n">
-        <v/>
+        <v>-0.02398299999999987</v>
       </c>
       <c r="F2" s="15" t="n">
-        <v/>
+        <v>0.01769231478550082</v>
       </c>
       <c r="G2" s="15" t="n">
-        <v/>
+        <v>0.02472603532722251</v>
       </c>
       <c r="H2" s="15" t="n">
-        <v/>
+        <v>0.06896629644002705</v>
       </c>
       <c r="I2" s="15" t="n">
-        <v/>
+        <v>0.005183623426301187</v>
       </c>
       <c r="J2" s="15" t="n">
-        <v/>
+        <v>0.0619969972990313</v>
       </c>
       <c r="K2" s="15" t="n">
-        <v>0.06971100000000008</v>
+        <v>0.02686470016453035</v>
       </c>
       <c r="L2" s="15" t="n">
-        <v>0.05965723452409089</v>
+        <v>0.2289287241445803</v>
       </c>
       <c r="M2" s="15" t="n">
-        <v>-0.02959347240956767</v>
+        <v>0.3377249986525506</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="15" t="n">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="B3" s="15" t="n">
-        <v>-0.08407592124234753</v>
+        <v>-0.01735054787848489</v>
       </c>
       <c r="C3" s="15" t="n">
+        <v>0.1182519560393929</v>
+      </c>
+      <c r="D3" s="15" t="n">
+        <v>0.1960935019799834</v>
+      </c>
+      <c r="E3" s="15" t="n">
+        <v>0.1982355862882503</v>
+      </c>
+      <c r="F3" s="15" t="n">
+        <v>0.2255738076540064</v>
+      </c>
+      <c r="G3" s="15" t="n">
+        <v>-0.04415771783706046</v>
+      </c>
+      <c r="H3" s="15" t="n">
         <v>0</v>
       </c>
-      <c r="D3" s="15" t="n">
-        <v>0.05536476426799042</v>
-      </c>
-      <c r="E3" s="15" t="n">
-        <v>-0.03763731096230549</v>
-      </c>
-      <c r="F3" s="15" t="n">
-        <v>0.0141264056775352</v>
-      </c>
-      <c r="G3" s="15" t="n">
-        <v>0.01522574577244629</v>
-      </c>
-      <c r="H3" s="15" t="n">
-        <v>-0.01316733680361737</v>
-      </c>
       <c r="I3" s="15" t="n">
-        <v>0.007778624221368213</v>
+        <v>0.01979561924339368</v>
       </c>
       <c r="J3" s="15" t="n">
-        <v>-0.02927946199931108</v>
+        <v>-0.00499813769357027</v>
       </c>
       <c r="K3" s="15" t="n">
-        <v>-0.004713614026394031</v>
+        <v>0.119503799989974</v>
       </c>
       <c r="L3" s="15" t="n">
-        <v>0.03239879082449204</v>
+        <v>0.05965717239380419</v>
       </c>
       <c r="M3" s="15" t="n">
-        <v>-0.02488861840896572</v>
+        <v>-0.0295912956348422</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="15" t="n">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="B4" s="15" t="n">
-        <v>0.001221730913030683</v>
+        <v>-0.0840791476263828</v>
       </c>
       <c r="C4" s="15" t="n">
-        <v>0.01157316883124548</v>
+        <v>0</v>
       </c>
       <c r="D4" s="15" t="n">
-        <v>0.01461875265841761</v>
+        <v>0.0603106250146952</v>
       </c>
       <c r="E4" s="15" t="n">
-        <v>-0.002063623784481439</v>
+        <v>-0.03748308501951092</v>
       </c>
       <c r="F4" s="15" t="n">
-        <v>-0.002509028483501763</v>
+        <v>0.01420225606645409</v>
       </c>
       <c r="G4" s="15" t="n">
-        <v>0.07388210329200517</v>
+        <v>0.01522707432628567</v>
       </c>
       <c r="H4" s="15" t="n">
-        <v>0.02928930096773419</v>
+        <v>-0.01324673478917071</v>
       </c>
       <c r="I4" s="15" t="n">
-        <v>0.03084257502564625</v>
+        <v>-0.001212305159012494</v>
       </c>
       <c r="J4" s="15" t="n">
-        <v>0.005006133481738173</v>
+        <v>-0.02928033399939278</v>
       </c>
       <c r="K4" s="15" t="n">
-        <v>0.025511670125133</v>
+        <v>-0.007313936934674414</v>
       </c>
       <c r="L4" s="15" t="n">
-        <v>-0.01531766739479601</v>
+        <v>0.04720901920962817</v>
       </c>
       <c r="M4" s="15" t="n">
-        <v>-0.002628192843649901</v>
+        <v>-0.02414757590914085</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="15" t="n">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="B5" s="15" t="n">
-        <v>0.03610395076454176</v>
+        <v>0.0012211800247377</v>
       </c>
       <c r="C5" s="15" t="n">
-        <v>-0.05937085550421151</v>
+        <v>0.0306036051218912</v>
       </c>
       <c r="D5" s="15" t="n">
-        <v>0.02535944298499437</v>
+        <v>0.009314072366614967</v>
       </c>
       <c r="E5" s="15" t="n">
-        <v>-0.02395065037327671</v>
+        <v>0.01539568968369309</v>
       </c>
       <c r="F5" s="15" t="n">
-        <v>0.07586219835529739</v>
+        <v>-0.005453783592314632</v>
       </c>
       <c r="G5" s="15" t="n">
-        <v>-0.04697400857661471</v>
+        <v>0.07389130758940921</v>
       </c>
       <c r="H5" s="15" t="n">
-        <v>-0.04150929586320995</v>
+        <v>0.02747737865632693</v>
       </c>
       <c r="I5" s="15" t="n">
-        <v>-0.03379289518761674</v>
+        <v>0.03078430486430239</v>
       </c>
       <c r="J5" s="15" t="n">
-        <v>0</v>
+        <v>0.005006505407123552</v>
       </c>
       <c r="K5" s="15" t="n">
-        <v>0</v>
+        <v>0.0518278348484067</v>
       </c>
       <c r="L5" s="15" t="n">
-        <v>-0.02789954547046658</v>
+        <v>-0.01518766793901793</v>
       </c>
       <c r="M5" s="15" t="n">
-        <v>0.03712141789403844</v>
+        <v>-0.002627959149751447</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="15" t="n">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="B6" s="15" t="n">
-        <v>-0.0298759814497751</v>
+        <v>0.03610363616780998</v>
       </c>
       <c r="C6" s="15" t="n">
-        <v>0.2945127617452501</v>
+        <v>-0.05909363405748258</v>
       </c>
       <c r="D6" s="15" t="n">
-        <v>0.04878522823919584</v>
+        <v>0.02535874124659609</v>
       </c>
       <c r="E6" s="15" t="n">
-        <v>-0.02574960417220418</v>
+        <v>-0.02403856553451256</v>
       </c>
       <c r="F6" s="15" t="n">
-        <v>-0.01811832902341226</v>
+        <v>0.0758691464383856</v>
       </c>
       <c r="G6" s="15" t="n">
-        <v>0.009519392297380191</v>
+        <v>-0.04660215836174708</v>
       </c>
       <c r="H6" s="15" t="n">
-        <v>-0.02585233639623463</v>
+        <v>-0.04152215489324662</v>
       </c>
       <c r="I6" s="15" t="n">
-        <v>0.02143390702747139</v>
+        <v>-0.03380628328037971</v>
       </c>
       <c r="J6" s="15" t="n">
-        <v>0.02189492799527071</v>
+        <v>0</v>
       </c>
       <c r="K6" s="15" t="n">
-        <v>0.008265333743844749</v>
+        <v>0</v>
       </c>
       <c r="L6" s="15" t="n">
-        <v>-0.0280200048229079</v>
+        <v>-0.02790057480233699</v>
       </c>
       <c r="M6" s="15" t="n">
-        <v>0.08119592642831441</v>
+        <v>0.03711537651583874</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="15" t="n">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="B7" s="15" t="n">
-        <v>0.04462355316512845</v>
+        <v>-0.02987591348768626</v>
       </c>
       <c r="C7" s="15" t="n">
-        <v>-0.08583607393878678</v>
+        <v>0.2945158032046613</v>
       </c>
       <c r="D7" s="15" t="n">
-        <v>-0.05616221463160953</v>
+        <v>0.04876726627816774</v>
       </c>
       <c r="E7" s="15" t="n">
-        <v>0.006793070620817465</v>
+        <v>-0.02329870640102349</v>
       </c>
       <c r="F7" s="15" t="n">
-        <v>0.03208071181586569</v>
+        <v>-0.01804255642711783</v>
       </c>
       <c r="G7" s="15" t="n">
-        <v>0.1284118206811256</v>
+        <v>0.009546552580017131</v>
       </c>
       <c r="H7" s="15" t="n">
-        <v>0.1850367886311386</v>
+        <v>-0.03293500726615772</v>
       </c>
       <c r="I7" s="15" t="n">
-        <v>-0.04833691649858163</v>
+        <v>0.0214338194288306</v>
       </c>
       <c r="J7" s="15" t="n">
-        <v>-0.07124772835859328</v>
+        <v>0.02189557216364646</v>
       </c>
       <c r="K7" s="15" t="n">
-        <v>-0.02813115697553237</v>
+        <v>0.00931527054075576</v>
       </c>
       <c r="L7" s="15" t="n">
-        <v>0.05220485068358949</v>
+        <v>-0.02807658362243015</v>
       </c>
       <c r="M7" s="15" t="n">
-        <v>0.02512780402196491</v>
+        <v>0.08119771466036574</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="15" t="n">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="B8" s="15" t="n">
-        <v>0.0240127410657367</v>
+        <v>0.04462307462643111</v>
       </c>
       <c r="C8" s="15" t="n">
-        <v>-0.06583900404768339</v>
+        <v>-0.08583736189986224</v>
       </c>
       <c r="D8" s="15" t="n">
-        <v>-0.03900309672946023</v>
+        <v>-0.07785362393372219</v>
       </c>
       <c r="E8" s="15" t="n">
-        <v>0.003139537576340556</v>
+        <v>0.00679356585209856</v>
       </c>
       <c r="F8" s="15" t="n">
-        <v>0.02946983217892796</v>
+        <v>0.03208479081602356</v>
       </c>
       <c r="G8" s="15" t="n">
-        <v>-0.06608779290363276</v>
+        <v>0.1284272275362404</v>
       </c>
       <c r="H8" s="15" t="n">
-        <v>0.06069289107731013</v>
+        <v>0.1850555435183427</v>
       </c>
       <c r="I8" s="15" t="n">
-        <v>-0.004565951642015675</v>
+        <v>-0.04827122753489688</v>
       </c>
       <c r="J8" s="15" t="n">
-        <v>-0.07575528181129942</v>
+        <v>-0.07120207449689242</v>
       </c>
       <c r="K8" s="15" t="n">
-        <v>-0.01531460893133108</v>
+        <v>-0.02811130859960032</v>
       </c>
       <c r="L8" s="15" t="n">
-        <v>0.00657540011309643</v>
+        <v>0.05177125892535805</v>
       </c>
       <c r="M8" s="15" t="n">
-        <v>0.02836649638755762</v>
+        <v>0.02191375371817328</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="15" t="n">
+        <v>2021</v>
+      </c>
+      <c r="B9" s="15" t="n">
+        <v>0.02738380695223563</v>
+      </c>
+      <c r="C9" s="15" t="n">
+        <v>-0.08971557679996722</v>
+      </c>
+      <c r="D9" s="15" t="n">
+        <v>-0.03384520112031886</v>
+      </c>
+      <c r="E9" s="15" t="n">
+        <v>-0.01122691929349706</v>
+      </c>
+      <c r="F9" s="15" t="n">
+        <v>0.02946163816688485</v>
+      </c>
+      <c r="G9" s="15" t="n">
+        <v>-0.02489927937879088</v>
+      </c>
+      <c r="H9" s="15" t="n">
+        <v>0.05989144046150763</v>
+      </c>
+      <c r="I9" s="15" t="n">
+        <v>0.03762229524052874</v>
+      </c>
+      <c r="J9" s="15" t="n">
+        <v>-0.07948843416370099</v>
+      </c>
+      <c r="K9" s="15" t="n">
+        <v>-0.003097806795813618</v>
+      </c>
+      <c r="L9" s="15" t="n">
+        <v>0.007288988300057531</v>
+      </c>
+      <c r="M9" s="15" t="n">
+        <v>0.02843733592978914</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="15" t="n">
         <v>2022</v>
       </c>
-      <c r="B9" s="15" t="n">
-        <v>-0.04669860580697793</v>
-      </c>
-      <c r="C9" s="15" t="n">
-        <v>0.01331886036719521</v>
-      </c>
-      <c r="D9" s="15" t="n">
-        <v>-0.04959239621836309</v>
-      </c>
-      <c r="E9" s="15" t="n">
-        <v>0.004760945989797261</v>
-      </c>
-      <c r="F9" s="15" t="n">
-        <v>0.01600556954982224</v>
-      </c>
-      <c r="G9" s="15" t="n">
-        <v>0.09479438127996964</v>
-      </c>
-      <c r="H9" s="15" t="n">
-        <v>0.007068712866506122</v>
-      </c>
-      <c r="I9" s="15" t="n">
+      <c r="B10" s="15" t="n">
+        <v>-0.04669873010199244</v>
+      </c>
+      <c r="C10" s="15" t="n">
+        <v>0.01330363879491681</v>
+      </c>
+      <c r="D10" s="15" t="n">
+        <v>-0.04966502501080972</v>
+      </c>
+      <c r="E10" s="15" t="n">
+        <v>0.004785085516076926</v>
+      </c>
+      <c r="F10" s="15" t="n">
+        <v>0.0160061701544798</v>
+      </c>
+      <c r="G10" s="15" t="n">
+        <v>0.094798031413309</v>
+      </c>
+      <c r="H10" s="15" t="n">
+        <v>0.007068486862721768</v>
+      </c>
+      <c r="I10" s="15" t="n">
         <v/>
       </c>
-      <c r="J9" s="15" t="n">
+      <c r="J10" s="15" t="n">
         <v/>
       </c>
-      <c r="K9" s="15" t="n">
+      <c r="K10" s="15" t="n">
         <v/>
       </c>
-      <c r="L9" s="15" t="n">
+      <c r="L10" s="15" t="n">
         <v/>
       </c>
-      <c r="M9" s="15" t="n">
+      <c r="M10" s="15" t="n">
         <v/>
       </c>
     </row>
@@ -1738,7 +1799,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M9"/>
+  <dimension ref="A1:M10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
@@ -1816,7 +1877,7 @@
     </row>
     <row r="2" ht="20" customHeight="1">
       <c r="A2" s="15" t="n">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="B2" s="15" t="n">
         <v/>
@@ -1828,317 +1889,358 @@
         <v/>
       </c>
       <c r="E2" s="15" t="n">
-        <v/>
+        <v>0.007894338576603932</v>
       </c>
       <c r="F2" s="15" t="n">
-        <v/>
+        <v>0.01741864048655262</v>
       </c>
       <c r="G2" s="15" t="n">
-        <v/>
+        <v>0.02123324633696511</v>
       </c>
       <c r="H2" s="15" t="n">
-        <v/>
+        <v>-0.01508500923203282</v>
       </c>
       <c r="I2" s="15" t="n">
-        <v/>
+        <v>0.01030058010373924</v>
       </c>
       <c r="J2" s="15" t="n">
-        <v/>
+        <v>0.01327171722663234</v>
       </c>
       <c r="K2" s="15" t="n">
-        <v>-0.03003022948131695</v>
+        <v>0.003899896353752208</v>
       </c>
       <c r="L2" s="15" t="n">
-        <v>0.05219096764895403</v>
+        <v>0.09808742914691448</v>
       </c>
       <c r="M2" s="15" t="n">
-        <v>-0.07539995671552957</v>
+        <v>0.06701195321638331</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="15" t="n">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="B3" s="15" t="n">
-        <v>0.1406031284849136</v>
+        <v>0.002240012102918687</v>
       </c>
       <c r="C3" s="15" t="n">
-        <v>0.01670041772129349</v>
+        <v>0.07409999033118164</v>
       </c>
       <c r="D3" s="15" t="n">
-        <v>-0.05681947220507355</v>
+        <v>0.05348143804425964</v>
       </c>
       <c r="E3" s="15" t="n">
-        <v>-0.0186482350160444</v>
+        <v>0.02172282004343828</v>
       </c>
       <c r="F3" s="15" t="n">
-        <v>0.007758744076317825</v>
+        <v>0.200443428748132</v>
       </c>
       <c r="G3" s="15" t="n">
-        <v>0.02090730800898255</v>
+        <v>0.01982555964069355</v>
       </c>
       <c r="H3" s="15" t="n">
-        <v>-0.02808159569532731</v>
+        <v>0.1336278546596594</v>
       </c>
       <c r="I3" s="15" t="n">
-        <v>-0.03085572089432176</v>
+        <v>0.129607456246208</v>
       </c>
       <c r="J3" s="15" t="n">
-        <v>-0.007583637746349403</v>
+        <v>0.03644423369976146</v>
       </c>
       <c r="K3" s="15" t="n">
-        <v>-0.02997343946457587</v>
+        <v>0.01630037454469013</v>
       </c>
       <c r="L3" s="15" t="n">
-        <v>-0.02633041173501893</v>
+        <v>0.05219139812460338</v>
       </c>
       <c r="M3" s="15" t="n">
-        <v>0.04128888892051696</v>
+        <v>-0.0753977907563721</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="15" t="n">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="B4" s="15" t="n">
-        <v>-0.02219340788157087</v>
+        <v>0.1405993952905318</v>
       </c>
       <c r="C4" s="15" t="n">
-        <v>-0.007629372180275928</v>
+        <v>0.01670041772129349</v>
       </c>
       <c r="D4" s="15" t="n">
-        <v>0.01363870624116004</v>
+        <v>-0.05227971028225209</v>
       </c>
       <c r="E4" s="15" t="n">
-        <v>0.002499536226103327</v>
+        <v>-0.01848668793376496</v>
       </c>
       <c r="F4" s="15" t="n">
-        <v>-0.01840835881478353</v>
+        <v>0.007836713929159522</v>
       </c>
       <c r="G4" s="15" t="n">
-        <v>0.0232236340634</v>
+        <v>0.02090879209640972</v>
       </c>
       <c r="H4" s="15" t="n">
-        <v>0.009817399054038223</v>
+        <v>-0.02815927949389829</v>
       </c>
       <c r="I4" s="15" t="n">
-        <v>0.008667473552239624</v>
+        <v>-0.03942606583953534</v>
       </c>
       <c r="J4" s="15" t="n">
-        <v>0.00138703981202748</v>
+        <v>-0.007584518663383277</v>
       </c>
       <c r="K4" s="15" t="n">
-        <v>-0.0180747046127534</v>
+        <v>-0.03250858031734427</v>
       </c>
       <c r="L4" s="15" t="n">
-        <v>-0.0151053541923758</v>
+        <v>-0.01236820766143576</v>
       </c>
       <c r="M4" s="15" t="n">
-        <v>-0.009848791109948296</v>
+        <v>0.04243342254369487</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="15" t="n">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="B5" s="15" t="n">
-        <v>-0.02299905733195717</v>
+        <v>-0.02219394778533401</v>
       </c>
       <c r="C5" s="15" t="n">
-        <v>-0.004145828815550034</v>
+        <v>0.01115534004919061</v>
       </c>
       <c r="D5" s="15" t="n">
-        <v>0.05771749443612317</v>
+        <v>0.008344144637343121</v>
       </c>
       <c r="E5" s="15" t="n">
-        <v>0.01101896861158269</v>
+        <v>0.02008167971399577</v>
       </c>
       <c r="F5" s="15" t="n">
-        <v>0.06251312397254316</v>
+        <v>-0.02129636797723311</v>
       </c>
       <c r="G5" s="15" t="n">
-        <v>0.03048205994578246</v>
+        <v>0.02323258653303362</v>
       </c>
       <c r="H5" s="15" t="n">
-        <v>-0.04658020314328493</v>
+        <v>0.008099064409154533</v>
       </c>
       <c r="I5" s="15" t="n">
-        <v>0.01472649028587059</v>
+        <v>0.008608880225642768</v>
       </c>
       <c r="J5" s="15" t="n">
-        <v>-0.03328095998769964</v>
+        <v>0.00138740419161465</v>
       </c>
       <c r="K5" s="15" t="n">
-        <v>0.07954397848274652</v>
+        <v>0.00722083384191019</v>
       </c>
       <c r="L5" s="15" t="n">
-        <v>-0.0342400092260523</v>
+        <v>-0.01497680481640284</v>
       </c>
       <c r="M5" s="15" t="n">
-        <v>0.09131518369628999</v>
+        <v>-0.009848555072975995</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="15" t="n">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="B6" s="15" t="n">
-        <v>-0.08949063608337415</v>
+        <v>-0.02299935622195215</v>
       </c>
       <c r="C6" s="15" t="n">
-        <v>0.1334094927225051</v>
+        <v>-0.0038521444945947</v>
       </c>
       <c r="D6" s="15" t="n">
-        <v>-0.005296470929742836</v>
+        <v>0.05771676552874805</v>
       </c>
       <c r="E6" s="15" t="n">
-        <v>-0.03581222911025872</v>
+        <v>0.01092932764059329</v>
       </c>
       <c r="F6" s="15" t="n">
-        <v>0.0522337138099207</v>
+        <v>0.06252012304264576</v>
       </c>
       <c r="G6" s="15" t="n">
-        <v>-0.0443709167766575</v>
+        <v>0.0308796475905615</v>
       </c>
       <c r="H6" s="15" t="n">
-        <v>-0.02878058480795376</v>
+        <v>-0.04659299239310621</v>
       </c>
       <c r="I6" s="15" t="n">
-        <v>0.02887979562191489</v>
+        <v>0.01471270982404982</v>
       </c>
       <c r="J6" s="15" t="n">
-        <v>0.01842331382310114</v>
+        <v>-0.03328095998769987</v>
       </c>
       <c r="K6" s="15" t="n">
-        <v>-0.01116494525840361</v>
+        <v>0.0795439784827463</v>
       </c>
       <c r="L6" s="15" t="n">
-        <v>-0.01329453244545376</v>
+        <v>-0.03424096470552973</v>
       </c>
       <c r="M6" s="15" t="n">
-        <v>0.01046224529274076</v>
+        <v>0.09130893136406915</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="15" t="n">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="B7" s="15" t="n">
-        <v>0.06890279606574978</v>
+        <v>-0.08949056098467612</v>
       </c>
       <c r="C7" s="15" t="n">
-        <v>-0.0691143213496177</v>
+        <v>0.1334122016810053</v>
       </c>
       <c r="D7" s="15" t="n">
-        <v>0.005580198215394461</v>
+        <v>-0.005313362464505977</v>
       </c>
       <c r="E7" s="15" t="n">
-        <v>-0.05286665240374877</v>
+        <v>-0.03337692421874328</v>
       </c>
       <c r="F7" s="15" t="n">
-        <v>0.04443068330062028</v>
+        <v>0.05231038610954997</v>
       </c>
       <c r="G7" s="15" t="n">
-        <v>0.0477727149791809</v>
+        <v>-0.0443442601427515</v>
       </c>
       <c r="H7" s="15" t="n">
-        <v>0.0481945204781753</v>
+        <v>-0.03567698674770003</v>
       </c>
       <c r="I7" s="15" t="n">
-        <v>-0.07294461906150262</v>
+        <v>0.02887970785491945</v>
       </c>
       <c r="J7" s="15" t="n">
-        <v>-0.02566126768807142</v>
+        <v>0.01842396572449601</v>
       </c>
       <c r="K7" s="15" t="n">
-        <v>-0.05128598949692476</v>
+        <v>-0.0101344140122519</v>
       </c>
       <c r="L7" s="15" t="n">
-        <v>-0.003948502326225789</v>
+        <v>-0.01335203362886916</v>
       </c>
       <c r="M7" s="15" t="n">
-        <v>-0.02452528113713803</v>
+        <v>0.01046393660515554</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="15" t="n">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="B8" s="15" t="n">
-        <v>-0.002306065710333427</v>
+        <v>0.06890233276323121</v>
       </c>
       <c r="C8" s="15" t="n">
-        <v>-0.06305055993062925</v>
+        <v>-0.06911555156501625</v>
       </c>
       <c r="D8" s="15" t="n">
-        <v>0.01145156838868311</v>
+        <v>-0.01655662018097603</v>
       </c>
       <c r="E8" s="15" t="n">
-        <v>-0.01190423098549476</v>
+        <v>-0.05286612402530644</v>
       </c>
       <c r="F8" s="15" t="n">
-        <v>-0.01101838400371058</v>
+        <v>0.04443500246748289</v>
       </c>
       <c r="G8" s="15" t="n">
-        <v>-0.04706685383780496</v>
+        <v>0.04778721866099178</v>
       </c>
       <c r="H8" s="15" t="n">
-        <v>0.1497252215584559</v>
+        <v>0.04821197139399813</v>
       </c>
       <c r="I8" s="15" t="n">
-        <v>-0.005923807075223997</v>
+        <v>-0.0728812763568456</v>
       </c>
       <c r="J8" s="15" t="n">
-        <v>-0.08742428666166957</v>
+        <v>-0.02561364963394641</v>
       </c>
       <c r="K8" s="15" t="n">
-        <v>-0.02371342532290899</v>
+        <v>-0.05126989222505718</v>
       </c>
       <c r="L8" s="15" t="n">
-        <v>0.02246693919957043</v>
+        <v>-0.004361676256283475</v>
       </c>
       <c r="M8" s="15" t="n">
-        <v>0.005947579373407841</v>
+        <v>-0.02701975559100744</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="15" t="n">
+        <v>2021</v>
+      </c>
+      <c r="B9" s="15" t="n">
+        <v>0.001850159995668621</v>
+      </c>
+      <c r="C9" s="15" t="n">
+        <v>-0.08608278279023618</v>
+      </c>
+      <c r="D9" s="15" t="n">
+        <v>0.01696344005811601</v>
+      </c>
+      <c r="E9" s="15" t="n">
+        <v>-0.02640355382284065</v>
+      </c>
+      <c r="F9" s="15" t="n">
+        <v>-0.0110259913420353</v>
+      </c>
+      <c r="G9" s="15" t="n">
+        <v>-0.004786096532648276</v>
+      </c>
+      <c r="H9" s="15" t="n">
+        <v>0.1491312283011053</v>
+      </c>
+      <c r="I9" s="15" t="n">
+        <v>0.03621880357426743</v>
+      </c>
+      <c r="J9" s="15" t="n">
+        <v>-0.09115117707986231</v>
+      </c>
+      <c r="K9" s="15" t="n">
+        <v>-0.01146027491428125</v>
+      </c>
+      <c r="L9" s="15" t="n">
+        <v>0.02318742425197273</v>
+      </c>
+      <c r="M9" s="15" t="n">
+        <v>0.006015395175961391</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="15" t="n">
         <v>2022</v>
       </c>
-      <c r="B9" s="15" t="n">
-        <v>0.03012982105265793</v>
-      </c>
-      <c r="C9" s="15" t="n">
-        <v>0.008035161262919699</v>
-      </c>
-      <c r="D9" s="15" t="n">
-        <v>0.02298606501111111</v>
-      </c>
-      <c r="E9" s="15" t="n">
-        <v>0.05034830414437708</v>
-      </c>
-      <c r="F9" s="15" t="n">
-        <v>-0.005072379459192367</v>
-      </c>
-      <c r="G9" s="15" t="n">
-        <v>-0.0007810776948863341</v>
-      </c>
-      <c r="H9" s="15" t="n">
-        <v>0.01114738754885036</v>
-      </c>
-      <c r="I9" s="15" t="n">
+      <c r="B10" s="15" t="n">
+        <v>0.03012970094269507</v>
+      </c>
+      <c r="C10" s="15" t="n">
+        <v>0.008019863931072457</v>
+      </c>
+      <c r="D10" s="15" t="n">
+        <v>0.02291001493907174</v>
+      </c>
+      <c r="E10" s="15" t="n">
+        <v>0.05037395029807867</v>
+      </c>
+      <c r="F10" s="15" t="n">
+        <v>-0.005071781147363175</v>
+      </c>
+      <c r="G10" s="15" t="n">
+        <v>-0.000777637847411361</v>
+      </c>
+      <c r="H10" s="15" t="n">
+        <v>0.01114716154506601</v>
+      </c>
+      <c r="I10" s="15" t="n">
         <v/>
       </c>
-      <c r="J9" s="15" t="n">
+      <c r="J10" s="15" t="n">
         <v/>
       </c>
-      <c r="K9" s="15" t="n">
+      <c r="K10" s="15" t="n">
         <v/>
       </c>
-      <c r="L9" s="15" t="n">
+      <c r="L10" s="15" t="n">
         <v/>
       </c>
-      <c r="M9" s="15" t="n">
+      <c r="M10" s="15" t="n">
         <v/>
       </c>
     </row>

--- a/backtest/bt_report/rs_smae_ind/single_run/summary.xlsx
+++ b/backtest/bt_report/rs_smae_ind/single_run/summary.xlsx
@@ -617,7 +617,7 @@
       </c>
       <c r="B2" s="5" t="inlineStr">
         <is>
-          <t>2014-04-16</t>
+          <t>2015-11-02</t>
         </is>
       </c>
       <c r="C2" s="13" t="n"/>
@@ -712,7 +712,7 @@
         </is>
       </c>
       <c r="B8" s="7" t="n">
-        <v>684511532.783385</v>
+        <v>163189266.1799771</v>
       </c>
       <c r="C8" s="13" t="n"/>
       <c r="D8" s="13" t="n"/>
@@ -726,7 +726,7 @@
         </is>
       </c>
       <c r="B9" s="7" t="n">
-        <v>8015.689085066319</v>
+        <v>3024.263377100229</v>
       </c>
       <c r="C9" s="13" t="n"/>
       <c r="D9" s="13" t="n"/>
@@ -740,7 +740,7 @@
         </is>
       </c>
       <c r="B10" s="7" t="n">
-        <v>5.845115327833851</v>
+        <v>0.6318926617997709</v>
       </c>
       <c r="C10" s="13" t="n"/>
       <c r="D10" s="13" t="n"/>
@@ -754,7 +754,7 @@
         </is>
       </c>
       <c r="B11" s="7" t="n">
-        <v>0.2742597843071377</v>
+        <v>0.0790068516362683</v>
       </c>
       <c r="C11" s="13" t="n"/>
       <c r="D11" s="13" t="n"/>
@@ -768,7 +768,7 @@
         </is>
       </c>
       <c r="B12" s="7" t="n">
-        <v>6.845115327833851</v>
+        <v>1.631892661799771</v>
       </c>
       <c r="C12" s="13" t="n"/>
       <c r="D12" s="13" t="n"/>
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="B14" s="7" t="n">
-        <v>139.1059080161452</v>
+        <v>137.7583568020307</v>
       </c>
       <c r="C14" s="13" t="n"/>
       <c r="D14" s="13" t="n"/>
@@ -810,7 +810,7 @@
         </is>
       </c>
       <c r="B15" s="7" t="n">
-        <v>0.3185571902073545</v>
+        <v>0.3635938579340618</v>
       </c>
     </row>
     <row r="16" ht="20" customHeight="1">
@@ -820,7 +820,7 @@
         </is>
       </c>
       <c r="B16" s="5" t="n">
-        <v>0.2321103761371115</v>
+        <v>0.2065372656714397</v>
       </c>
       <c r="C16" s="13" t="n"/>
       <c r="D16" s="13" t="n"/>
@@ -834,7 +834,7 @@
         </is>
       </c>
       <c r="B17" s="5" t="n">
-        <v>0.9753933091211506</v>
+        <v>0.3282693161474434</v>
       </c>
       <c r="C17" s="13" t="n"/>
       <c r="D17" s="13" t="n"/>
@@ -848,7 +848,7 @@
         </is>
       </c>
       <c r="B18" s="5" t="n">
-        <v>0.1633167432814419</v>
+        <v>0.1475822642061674</v>
       </c>
       <c r="C18" s="13" t="n"/>
       <c r="D18" s="13" t="n"/>
@@ -862,7 +862,7 @@
         </is>
       </c>
       <c r="B19" s="5" t="n">
-        <v>1.386256566919054</v>
+        <v>0.4594037591550448</v>
       </c>
       <c r="C19" s="13" t="n"/>
       <c r="D19" s="13" t="n"/>
@@ -876,7 +876,7 @@
         </is>
       </c>
       <c r="B20" s="5" t="n">
-        <v>0.2353428134725821</v>
+        <v>0.2727942237833984</v>
       </c>
       <c r="C20" s="13" t="n"/>
       <c r="D20" s="13" t="n"/>
@@ -890,7 +890,7 @@
         </is>
       </c>
       <c r="B21" s="5" t="n">
-        <v>0.02336366087116886</v>
+        <v>0.0213591156846874</v>
       </c>
       <c r="C21" s="13" t="n"/>
       <c r="D21" s="13" t="n"/>
@@ -904,7 +904,7 @@
         </is>
       </c>
       <c r="B22" s="7" t="n">
-        <v>1.831756688449687</v>
+        <v>0.1616511300109441</v>
       </c>
       <c r="C22" s="13" t="n"/>
       <c r="D22" s="13" t="n"/>
@@ -918,7 +918,7 @@
         </is>
       </c>
       <c r="B23" s="7" t="n">
-        <v>0.1401422717356604</v>
+        <v>0.02353848843602324</v>
       </c>
       <c r="C23" s="13" t="n"/>
       <c r="D23" s="13" t="n"/>
@@ -932,7 +932,7 @@
         </is>
       </c>
       <c r="B24" s="7" t="n">
-        <v>0.2037492578900926</v>
+        <v>0.04479829927110395</v>
       </c>
       <c r="C24" s="13" t="n"/>
       <c r="D24" s="13" t="n"/>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="B25" s="7" t="n">
-        <v>0.5583950516627886</v>
+        <v>0.5946941894534226</v>
       </c>
       <c r="C25" s="13" t="n"/>
       <c r="D25" s="13" t="n"/>
@@ -960,7 +960,7 @@
         </is>
       </c>
       <c r="B26" s="7" t="n">
-        <v>1.15754978836539</v>
+        <v>0.3385689712224196</v>
       </c>
       <c r="C26" s="13" t="n"/>
       <c r="D26" s="13" t="n"/>
@@ -974,7 +974,7 @@
         </is>
       </c>
       <c r="B27" s="7" t="n">
-        <v>0.7097419532350724</v>
+        <v>0.2175839231524472</v>
       </c>
       <c r="C27" s="13" t="n"/>
       <c r="D27" s="13" t="n"/>
@@ -988,7 +988,7 @@
         </is>
       </c>
       <c r="B28" s="7" t="n">
-        <v>0.3205202094913316</v>
+        <v>0.296593055986036</v>
       </c>
       <c r="C28" s="13" t="n"/>
       <c r="D28" s="13" t="n"/>
@@ -1002,7 +1002,7 @@
         </is>
       </c>
       <c r="B29" s="7" t="n">
-        <v>0.21821409058743</v>
+        <v>0.1870388727008637</v>
       </c>
       <c r="C29" s="13" t="n"/>
       <c r="D29" s="13" t="n"/>
@@ -1016,7 +1016,7 @@
         </is>
       </c>
       <c r="B30" s="5" t="n">
-        <v>0.1912075669620008</v>
+        <v>0.04325275862855046</v>
       </c>
       <c r="C30" s="13" t="n"/>
       <c r="D30" s="13" t="n"/>
@@ -1030,7 +1030,7 @@
         </is>
       </c>
       <c r="B31" s="5" t="n">
-        <v>0.7108710999156095</v>
+        <v>0.6710538248189787</v>
       </c>
       <c r="C31" s="13" t="n"/>
       <c r="D31" s="13" t="n"/>
@@ -1044,7 +1044,7 @@
         </is>
       </c>
       <c r="B32" s="5" t="n">
-        <v>0.9598798831782586</v>
+        <v>0.3246641039362504</v>
       </c>
       <c r="C32" s="13" t="n"/>
       <c r="D32" s="13" t="n"/>
@@ -1058,7 +1058,7 @@
         </is>
       </c>
       <c r="B33" s="5" t="n">
-        <v>1.496757656228394</v>
+        <v>0.490109843629131</v>
       </c>
     </row>
     <row r="34" ht="20" customHeight="1">
@@ -1068,7 +1068,7 @@
         </is>
       </c>
       <c r="B34" s="5" t="n">
-        <v>1.196558236534826</v>
+        <v>0.3475833180294918</v>
       </c>
     </row>
     <row r="35" ht="20" customHeight="1">
@@ -1078,7 +1078,7 @@
         </is>
       </c>
       <c r="B35" s="5" t="n">
-        <v>0.02517412629782554</v>
+        <v>0.02289937327204241</v>
       </c>
     </row>
     <row r="36" ht="20" customHeight="1">
@@ -1088,7 +1088,7 @@
         </is>
       </c>
       <c r="B36" s="16" t="n">
-        <v>0.2186716802478373</v>
+        <v>0.2572154718322777</v>
       </c>
     </row>
   </sheetData>
@@ -1102,7 +1102,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K10"/>
+  <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B15" sqref="B15"/>
@@ -1154,181 +1154,161 @@
     </row>
     <row r="2" ht="20" customHeight="1">
       <c r="A2" s="9" t="n">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="B2" s="13" t="n">
-        <v>0.9607450000000001</v>
+        <v>0.1005860000000002</v>
       </c>
       <c r="C2" s="13" t="n">
-        <v>0.2419712004473855</v>
+        <v>0.04115378179494765</v>
       </c>
       <c r="D2" s="13" t="n">
-        <v>3.630354381361787</v>
+        <v>1.889825315066135</v>
       </c>
       <c r="E2" s="13" t="n">
-        <v>3.69384358431447</v>
+        <v>2.23775798300154</v>
       </c>
       <c r="F2" s="13" t="n">
-        <v>0.6052631578947368</v>
+        <v>0.5555555555555556</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="9" t="n">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="B3" s="13" t="n">
-        <v>1.155033418420038</v>
+        <v>-0.07362350602315464</v>
       </c>
       <c r="C3" s="13" t="n">
-        <v>0.8614860243866556</v>
+        <v>0.01519150123252188</v>
       </c>
       <c r="D3" s="13" t="n">
-        <v>2.601035228282797</v>
+        <v>-0.3363706504067073</v>
       </c>
       <c r="E3" s="13" t="n">
-        <v>4.125353073289166</v>
+        <v>-0.1772044635449316</v>
       </c>
       <c r="F3" s="13" t="n">
-        <v>0.6730769230769231</v>
+        <v>0.46</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="9" t="n">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="B4" s="13" t="n">
-        <v>-0.06590247572400748</v>
+        <v>0.1797545404523722</v>
       </c>
       <c r="C4" s="13" t="n">
-        <v>0.02421129764230907</v>
+        <v>-0.03270551724704367</v>
       </c>
       <c r="D4" s="13" t="n">
-        <v>-0.2842260547499764</v>
+        <v>1.239235458273598</v>
       </c>
       <c r="E4" s="13" t="n">
-        <v>-0.1182834802285169</v>
+        <v>-0.03730848595435459</v>
       </c>
       <c r="F4" s="13" t="n">
-        <v>0.42</v>
+        <v>0.5098039215686274</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="9" t="n">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="B5" s="13" t="n">
-        <v>0.2420323070522886</v>
+        <v>-0.06625641093856408</v>
       </c>
       <c r="C5" s="13" t="n">
-        <v>0.01868708179637339</v>
+        <v>0.2122306936071421</v>
       </c>
       <c r="D5" s="13" t="n">
-        <v>1.571323375349977</v>
+        <v>-0.3445058979825052</v>
       </c>
       <c r="E5" s="13" t="n">
-        <v>0.4475893583559189</v>
+        <v>0.07517706473334228</v>
       </c>
       <c r="F5" s="13" t="n">
-        <v>0.5294117647058824</v>
+        <v>0.5490196078431373</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="9" t="n">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="B6" s="13" t="n">
-        <v>-0.06572277035451181</v>
+        <v>0.3740379581384911</v>
       </c>
       <c r="C6" s="13" t="n">
-        <v>0.2129209817915181</v>
+        <v>0.001216941475649939</v>
       </c>
       <c r="D6" s="13" t="n">
-        <v>-0.3409846405789185</v>
+        <v>1.548913380378067</v>
       </c>
       <c r="E6" s="13" t="n">
-        <v>0.0787410151510685</v>
+        <v>0.5713933485699962</v>
       </c>
       <c r="F6" s="13" t="n">
-        <v>0.5490196078431373</v>
+        <v>0.4423076923076923</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="9" t="n">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="B7" s="13" t="n">
-        <v>0.3653090503701751</v>
+        <v>0.1604269238594997</v>
       </c>
       <c r="C7" s="13" t="n">
-        <v>-0.004970124344605749</v>
+        <v>-0.0948635565645419</v>
       </c>
       <c r="D7" s="13" t="n">
-        <v>1.515435443839098</v>
+        <v>0.7166004059936445</v>
       </c>
       <c r="E7" s="13" t="n">
-        <v>0.5057657260565146</v>
+        <v>-0.3858417305862437</v>
       </c>
       <c r="F7" s="13" t="n">
-        <v>0.4423076923076923</v>
+        <v>0.4807692307692308</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="9" t="n">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B8" s="13" t="n">
-        <v>0.1298935420477017</v>
+        <v>-0.1181242360262263</v>
       </c>
       <c r="C8" s="13" t="n">
-        <v>-0.117300226923977</v>
+        <v>-0.0778764139643728</v>
       </c>
       <c r="D8" s="13" t="n">
-        <v>0.6026916567670054</v>
+        <v>-0.4612199433074742</v>
       </c>
       <c r="E8" s="13" t="n">
-        <v>-0.59549191854226</v>
+        <v>-0.4560968887065647</v>
       </c>
       <c r="F8" s="13" t="n">
-        <v>0.4423076923076923</v>
+        <v>0.4615384615384616</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="9" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B9" s="13" t="n">
-        <v>-0.06237921989106015</v>
+        <v>0.0333250172232128</v>
       </c>
       <c r="C9" s="13" t="n">
-        <v>-0.01743349405645935</v>
+        <v>0.1215989166897677</v>
       </c>
       <c r="D9" s="13" t="n">
-        <v>-0.1520603336044758</v>
+        <v>0.5332001728924727</v>
       </c>
       <c r="E9" s="13" t="n">
-        <v>-0.1106619723574289</v>
+        <v>0.8259547480765179</v>
       </c>
       <c r="F9" s="13" t="n">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="9" t="n">
-        <v>2022</v>
-      </c>
-      <c r="B10" s="13" t="n">
-        <v>0.03325859378962364</v>
-      </c>
-      <c r="C10" s="13" t="n">
-        <v>0.1215293237581444</v>
-      </c>
-      <c r="D10" s="13" t="n">
-        <v>0.5322120414748669</v>
-      </c>
-      <c r="E10" s="13" t="n">
-        <v>0.8248588374326724</v>
-      </c>
-      <c r="F10" s="13" t="n">
         <v>0.68</v>
       </c>
     </row>
@@ -1343,7 +1323,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M10"/>
+  <dimension ref="A1:M9"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A1" sqref="A1:XFD2"/>
@@ -1421,7 +1401,7 @@
     </row>
     <row r="2" ht="20" customHeight="1">
       <c r="A2" s="15" t="n">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="B2" s="15" t="n">
         <v/>
@@ -1433,358 +1413,317 @@
         <v/>
       </c>
       <c r="E2" s="15" t="n">
-        <v>-0.02398299999999987</v>
+        <v/>
       </c>
       <c r="F2" s="15" t="n">
-        <v>0.01769231478550082</v>
+        <v/>
       </c>
       <c r="G2" s="15" t="n">
-        <v>0.02472603532722251</v>
+        <v/>
       </c>
       <c r="H2" s="15" t="n">
-        <v>0.06896629644002705</v>
+        <v/>
       </c>
       <c r="I2" s="15" t="n">
-        <v>0.005183623426301187</v>
+        <v/>
       </c>
       <c r="J2" s="15" t="n">
-        <v>0.0619969972990313</v>
+        <v/>
       </c>
       <c r="K2" s="15" t="n">
-        <v>0.02686470016453035</v>
+        <v/>
       </c>
       <c r="L2" s="15" t="n">
-        <v>0.2289287241445803</v>
+        <v>0.113235</v>
       </c>
       <c r="M2" s="15" t="n">
-        <v>0.3377249986525506</v>
+        <v>-0.01136238080908347</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="15" t="n">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="B3" s="15" t="n">
-        <v>-0.01735054787848489</v>
+        <v>-0.08407611944909343</v>
       </c>
       <c r="C3" s="15" t="n">
-        <v>0.1182519560393929</v>
+        <v>0</v>
       </c>
       <c r="D3" s="15" t="n">
-        <v>0.1960935019799834</v>
+        <v>0.05536712851407644</v>
       </c>
       <c r="E3" s="15" t="n">
-        <v>0.1982355862882503</v>
+        <v>-0.03763725882770974</v>
       </c>
       <c r="F3" s="15" t="n">
-        <v>0.2255738076540064</v>
+        <v>0.0141244841647743</v>
       </c>
       <c r="G3" s="15" t="n">
-        <v>-0.04415771783706046</v>
+        <v>0.01522701837451357</v>
       </c>
       <c r="H3" s="15" t="n">
-        <v>0</v>
+        <v>-0.01316768112202282</v>
       </c>
       <c r="I3" s="15" t="n">
-        <v>0.01979561924339368</v>
+        <v>0.007779153560414365</v>
       </c>
       <c r="J3" s="15" t="n">
-        <v>-0.00499813769357027</v>
+        <v>-0.02927956287655931</v>
       </c>
       <c r="K3" s="15" t="n">
-        <v>0.119503799989974</v>
+        <v>-0.004763102708885691</v>
       </c>
       <c r="L3" s="15" t="n">
-        <v>0.05965717239380419</v>
+        <v>0.03239837001008139</v>
       </c>
       <c r="M3" s="15" t="n">
-        <v>-0.0295912956348422</v>
+        <v>-0.02488764598370852</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="15" t="n">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="B4" s="15" t="n">
-        <v>-0.0840791476263828</v>
+        <v>0.001221118583855541</v>
       </c>
       <c r="C4" s="15" t="n">
-        <v>0</v>
+        <v>0.01157227356529456</v>
       </c>
       <c r="D4" s="15" t="n">
-        <v>0.0603106250146952</v>
+        <v>0.01461725812621317</v>
       </c>
       <c r="E4" s="15" t="n">
-        <v>-0.03748308501951092</v>
+        <v>-0.002063550088812982</v>
       </c>
       <c r="F4" s="15" t="n">
-        <v>0.01420225606645409</v>
+        <v>-0.0025087346623347</v>
       </c>
       <c r="G4" s="15" t="n">
-        <v>0.01522707432628567</v>
+        <v>0.07388266067326099</v>
       </c>
       <c r="H4" s="15" t="n">
-        <v>-0.01324673478917071</v>
+        <v>0.02928986105084186</v>
       </c>
       <c r="I4" s="15" t="n">
-        <v>-0.001212305159012494</v>
+        <v>0.03084277859994344</v>
       </c>
       <c r="J4" s="15" t="n">
-        <v>-0.02928033399939278</v>
+        <v>0.005005314149100881</v>
       </c>
       <c r="K4" s="15" t="n">
-        <v>-0.007313936934674414</v>
+        <v>0.02551401047488588</v>
       </c>
       <c r="L4" s="15" t="n">
-        <v>0.04720901920962817</v>
+        <v>-0.01531733667767232</v>
       </c>
       <c r="M4" s="15" t="n">
-        <v>-0.02414757590914085</v>
+        <v>-0.00262770357447295</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="15" t="n">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="B5" s="15" t="n">
-        <v>0.0012211800247377</v>
+        <v>0.03610078589855381</v>
       </c>
       <c r="C5" s="15" t="n">
-        <v>0.0306036051218912</v>
+        <v>-0.05936850551654971</v>
       </c>
       <c r="D5" s="15" t="n">
-        <v>0.009314072366614967</v>
+        <v>0.02535610639942254</v>
       </c>
       <c r="E5" s="15" t="n">
-        <v>0.01539568968369309</v>
+        <v>-0.02395202606353142</v>
       </c>
       <c r="F5" s="15" t="n">
-        <v>-0.005453783592314632</v>
+        <v>0.0758645614202571</v>
       </c>
       <c r="G5" s="15" t="n">
-        <v>0.07389130758940921</v>
+        <v>-0.04697512280145755</v>
       </c>
       <c r="H5" s="15" t="n">
-        <v>0.02747737865632693</v>
+        <v>-0.04151024018461924</v>
       </c>
       <c r="I5" s="15" t="n">
-        <v>0.03078430486430239</v>
+        <v>-0.03379258006461561</v>
       </c>
       <c r="J5" s="15" t="n">
-        <v>0.005006505407123552</v>
+        <v>0</v>
       </c>
       <c r="K5" s="15" t="n">
-        <v>0.0518278348484067</v>
+        <v>0</v>
       </c>
       <c r="L5" s="15" t="n">
-        <v>-0.01518766793901793</v>
+        <v>-0.02790093113814618</v>
       </c>
       <c r="M5" s="15" t="n">
-        <v>-0.002627959149751447</v>
+        <v>0.0371224020736316</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="15" t="n">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="B6" s="15" t="n">
-        <v>0.03610363616780998</v>
+        <v>-0.02987538419348745</v>
       </c>
       <c r="C6" s="15" t="n">
-        <v>-0.05909363405748258</v>
+        <v>0.2945103517141499</v>
       </c>
       <c r="D6" s="15" t="n">
-        <v>0.02535874124659609</v>
+        <v>0.04878515672080908</v>
       </c>
       <c r="E6" s="15" t="n">
-        <v>-0.02403856553451256</v>
+        <v>-0.02321196798442471</v>
       </c>
       <c r="F6" s="15" t="n">
-        <v>0.0758691464383856</v>
+        <v>-0.01805123108662421</v>
       </c>
       <c r="G6" s="15" t="n">
-        <v>-0.04660215836174708</v>
+        <v>0.009519614338271198</v>
       </c>
       <c r="H6" s="15" t="n">
-        <v>-0.04152215489324662</v>
+        <v>-0.02585161484451937</v>
       </c>
       <c r="I6" s="15" t="n">
-        <v>-0.03380628328037971</v>
+        <v>0.02143208312251232</v>
       </c>
       <c r="J6" s="15" t="n">
-        <v>0</v>
+        <v>0.02189451202356341</v>
       </c>
       <c r="K6" s="15" t="n">
-        <v>0</v>
+        <v>0.008265313969328281</v>
       </c>
       <c r="L6" s="15" t="n">
-        <v>-0.02790057480233699</v>
+        <v>-0.02802273906594954</v>
       </c>
       <c r="M6" s="15" t="n">
-        <v>0.03711537651583874</v>
+        <v>0.0811939733839635</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="15" t="n">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="B7" s="15" t="n">
-        <v>-0.02987591348768626</v>
+        <v>0.04462016580850769</v>
       </c>
       <c r="C7" s="15" t="n">
-        <v>0.2945158032046613</v>
+        <v>-0.08583790556949555</v>
       </c>
       <c r="D7" s="15" t="n">
-        <v>0.04876726627816774</v>
+        <v>-0.05616313147728846</v>
       </c>
       <c r="E7" s="15" t="n">
-        <v>-0.02329870640102349</v>
+        <v>0.006793252615678869</v>
       </c>
       <c r="F7" s="15" t="n">
-        <v>-0.01804255642711783</v>
+        <v>0.03208396530104562</v>
       </c>
       <c r="G7" s="15" t="n">
-        <v>0.009546552580017131</v>
+        <v>0.1284257166934883</v>
       </c>
       <c r="H7" s="15" t="n">
-        <v>-0.03293500726615772</v>
+        <v>0.1850516329906673</v>
       </c>
       <c r="I7" s="15" t="n">
-        <v>0.0214338194288306</v>
+        <v>-0.04834429445021382</v>
       </c>
       <c r="J7" s="15" t="n">
-        <v>0.02189557216364646</v>
+        <v>-0.07124162183086624</v>
       </c>
       <c r="K7" s="15" t="n">
-        <v>0.00931527054075576</v>
+        <v>-0.02812964468710721</v>
       </c>
       <c r="L7" s="15" t="n">
-        <v>-0.02807658362243015</v>
+        <v>0.05221248319495775</v>
       </c>
       <c r="M7" s="15" t="n">
-        <v>0.08119771466036574</v>
+        <v>0.02513080313698568</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="15" t="n">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B8" s="15" t="n">
-        <v>0.04462307462643111</v>
+        <v>0.02401215992173311</v>
       </c>
       <c r="C8" s="15" t="n">
-        <v>-0.08583736189986224</v>
+        <v>-0.06583916911422261</v>
       </c>
       <c r="D8" s="15" t="n">
-        <v>-0.07785362393372219</v>
+        <v>-0.03900258367161558</v>
       </c>
       <c r="E8" s="15" t="n">
-        <v>0.00679356585209856</v>
+        <v>0.003138644630347409</v>
       </c>
       <c r="F8" s="15" t="n">
-        <v>0.03208479081602356</v>
+        <v>0.02946072438309111</v>
       </c>
       <c r="G8" s="15" t="n">
-        <v>0.1284272275362404</v>
+        <v>-0.06608900451804667</v>
       </c>
       <c r="H8" s="15" t="n">
-        <v>0.1850555435183427</v>
+        <v>0.060690993030865</v>
       </c>
       <c r="I8" s="15" t="n">
-        <v>-0.04827122753489688</v>
+        <v>-0.004566898742633274</v>
       </c>
       <c r="J8" s="15" t="n">
-        <v>-0.07120207449689242</v>
+        <v>-0.075750544028099</v>
       </c>
       <c r="K8" s="15" t="n">
-        <v>-0.02811130859960032</v>
+        <v>-0.01531434487094008</v>
       </c>
       <c r="L8" s="15" t="n">
-        <v>0.05177125892535805</v>
+        <v>0.00657547606984199</v>
       </c>
       <c r="M8" s="15" t="n">
-        <v>0.02191375371817328</v>
+        <v>0.02836685005740014</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="15" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B9" s="15" t="n">
-        <v>0.02738380695223563</v>
+        <v>-0.04669896863349043</v>
       </c>
       <c r="C9" s="15" t="n">
-        <v>-0.08971557679996722</v>
+        <v>0.01331837498688171</v>
       </c>
       <c r="D9" s="15" t="n">
-        <v>-0.03384520112031886</v>
+        <v>-0.04959474030932809</v>
       </c>
       <c r="E9" s="15" t="n">
-        <v>-0.01122691929349706</v>
+        <v>0.004761001582862523</v>
       </c>
       <c r="F9" s="15" t="n">
-        <v>0.02946163816688485</v>
+        <v>0.01600622731341383</v>
       </c>
       <c r="G9" s="15" t="n">
-        <v>-0.02489927937879088</v>
+        <v>0.09479733482149499</v>
       </c>
       <c r="H9" s="15" t="n">
-        <v>0.05989144046150763</v>
+        <v>0.007069076385520345</v>
       </c>
       <c r="I9" s="15" t="n">
-        <v>0.03762229524052874</v>
+        <v/>
       </c>
       <c r="J9" s="15" t="n">
-        <v>-0.07948843416370099</v>
+        <v/>
       </c>
       <c r="K9" s="15" t="n">
-        <v>-0.003097806795813618</v>
+        <v/>
       </c>
       <c r="L9" s="15" t="n">
-        <v>0.007288988300057531</v>
+        <v/>
       </c>
       <c r="M9" s="15" t="n">
-        <v>0.02843733592978914</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="15" t="n">
-        <v>2022</v>
-      </c>
-      <c r="B10" s="15" t="n">
-        <v>-0.04669873010199244</v>
-      </c>
-      <c r="C10" s="15" t="n">
-        <v>0.01330363879491681</v>
-      </c>
-      <c r="D10" s="15" t="n">
-        <v>-0.04966502501080972</v>
-      </c>
-      <c r="E10" s="15" t="n">
-        <v>0.004785085516076926</v>
-      </c>
-      <c r="F10" s="15" t="n">
-        <v>0.0160061701544798</v>
-      </c>
-      <c r="G10" s="15" t="n">
-        <v>0.094798031413309</v>
-      </c>
-      <c r="H10" s="15" t="n">
-        <v>0.007068486862721768</v>
-      </c>
-      <c r="I10" s="15" t="n">
-        <v/>
-      </c>
-      <c r="J10" s="15" t="n">
-        <v/>
-      </c>
-      <c r="K10" s="15" t="n">
-        <v/>
-      </c>
-      <c r="L10" s="15" t="n">
-        <v/>
-      </c>
-      <c r="M10" s="15" t="n">
         <v/>
       </c>
     </row>
@@ -1799,7 +1738,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M10"/>
+  <dimension ref="A1:M9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
@@ -1877,7 +1816,7 @@
     </row>
     <row r="2" ht="20" customHeight="1">
       <c r="A2" s="15" t="n">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="B2" s="15" t="n">
         <v/>
@@ -1889,358 +1828,317 @@
         <v/>
       </c>
       <c r="E2" s="15" t="n">
-        <v>0.007894338576603932</v>
+        <v/>
       </c>
       <c r="F2" s="15" t="n">
-        <v>0.01741864048655262</v>
+        <v/>
       </c>
       <c r="G2" s="15" t="n">
-        <v>0.02123324633696511</v>
+        <v/>
       </c>
       <c r="H2" s="15" t="n">
-        <v>-0.01508500923203282</v>
+        <v/>
       </c>
       <c r="I2" s="15" t="n">
-        <v>0.01030058010373924</v>
+        <v/>
       </c>
       <c r="J2" s="15" t="n">
-        <v>0.01327171722663234</v>
+        <v/>
       </c>
       <c r="K2" s="15" t="n">
-        <v>0.003899896353752208</v>
+        <v/>
       </c>
       <c r="L2" s="15" t="n">
-        <v>0.09808742914691448</v>
+        <v>0.1036194890410751</v>
       </c>
       <c r="M2" s="15" t="n">
-        <v>0.06701195321638331</v>
+        <v>-0.05660076490711785</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="15" t="n">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="B3" s="15" t="n">
-        <v>0.002240012102918687</v>
+        <v>0.1406028567668665</v>
       </c>
       <c r="C3" s="15" t="n">
-        <v>0.07409999033118164</v>
+        <v>0.01670041772129349</v>
       </c>
       <c r="D3" s="15" t="n">
-        <v>0.05348143804425964</v>
+        <v>-0.05681740118496992</v>
       </c>
       <c r="E3" s="15" t="n">
-        <v>0.02172282004343828</v>
+        <v>-0.01864818002560786</v>
       </c>
       <c r="F3" s="15" t="n">
-        <v>0.200443428748132</v>
+        <v>0.007756766070739163</v>
       </c>
       <c r="G3" s="15" t="n">
-        <v>0.01982555964069355</v>
+        <v>0.02090872119257714</v>
       </c>
       <c r="H3" s="15" t="n">
-        <v>0.1336278546596594</v>
+        <v>-0.02808183629644756</v>
       </c>
       <c r="I3" s="15" t="n">
-        <v>0.129607456246208</v>
+        <v>-0.03085519675791104</v>
       </c>
       <c r="J3" s="15" t="n">
-        <v>0.03644423369976146</v>
+        <v>-0.007583737138923352</v>
       </c>
       <c r="K3" s="15" t="n">
-        <v>0.01630037454469013</v>
+        <v>-0.0300216449500561</v>
       </c>
       <c r="L3" s="15" t="n">
-        <v>0.05219139812460338</v>
+        <v>-0.02633082830391031</v>
       </c>
       <c r="M3" s="15" t="n">
-        <v>-0.0753977907563721</v>
+        <v>0.04128991657657655</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="15" t="n">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="B4" s="15" t="n">
-        <v>0.1405993952905318</v>
+        <v>-0.02219400804359084</v>
       </c>
       <c r="C4" s="15" t="n">
-        <v>0.01670041772129349</v>
+        <v>-0.007630271096246144</v>
       </c>
       <c r="D4" s="15" t="n">
-        <v>-0.05227971028225209</v>
+        <v>0.01363722239183196</v>
       </c>
       <c r="E4" s="15" t="n">
-        <v>-0.01848668793376496</v>
+        <v>0.002499619445445855</v>
       </c>
       <c r="F4" s="15" t="n">
-        <v>0.007836713929159522</v>
+        <v>-0.0184080705863926</v>
       </c>
       <c r="G4" s="15" t="n">
-        <v>0.02090879209640972</v>
+        <v>0.02322420450686957</v>
       </c>
       <c r="H4" s="15" t="n">
-        <v>-0.02815927949389829</v>
+        <v>0.009817922477561636</v>
       </c>
       <c r="I4" s="15" t="n">
-        <v>-0.03942606583953534</v>
+        <v>0.008667661339761601</v>
       </c>
       <c r="J4" s="15" t="n">
-        <v>-0.007584518663383277</v>
+        <v>0.001386215924718437</v>
       </c>
       <c r="K4" s="15" t="n">
-        <v>-0.03250858031734427</v>
+        <v>-0.01807242218967553</v>
       </c>
       <c r="L4" s="15" t="n">
-        <v>-0.01236820766143576</v>
+        <v>-0.01510486292231239</v>
       </c>
       <c r="M4" s="15" t="n">
-        <v>0.04243342254369487</v>
+        <v>-0.009848325094605537</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="15" t="n">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="B5" s="15" t="n">
-        <v>-0.02219394778533401</v>
+        <v>-0.02300211663542762</v>
       </c>
       <c r="C5" s="15" t="n">
-        <v>0.01115534004919061</v>
+        <v>-0.004143360096383164</v>
       </c>
       <c r="D5" s="15" t="n">
-        <v>0.008344144637343121</v>
+        <v>0.05771396233356674</v>
       </c>
       <c r="E5" s="15" t="n">
-        <v>0.02008167971399577</v>
+        <v>0.01101752554074231</v>
       </c>
       <c r="F5" s="15" t="n">
-        <v>-0.02129636797723311</v>
+        <v>0.06251550481067136</v>
       </c>
       <c r="G5" s="15" t="n">
-        <v>0.02323258653303362</v>
+        <v>0.03048080932102271</v>
       </c>
       <c r="H5" s="15" t="n">
-        <v>0.008099064409154533</v>
+        <v>-0.0465811426894317</v>
       </c>
       <c r="I5" s="15" t="n">
-        <v>0.008608880225642768</v>
+        <v>0.01472681304633072</v>
       </c>
       <c r="J5" s="15" t="n">
-        <v>0.00138740419161465</v>
+        <v>-0.03328095998769987</v>
       </c>
       <c r="K5" s="15" t="n">
-        <v>0.00722083384191019</v>
+        <v>0.07954397848274652</v>
       </c>
       <c r="L5" s="15" t="n">
-        <v>-0.01497680481640284</v>
+        <v>-0.03424130576150741</v>
       </c>
       <c r="M5" s="15" t="n">
-        <v>-0.009848555072975995</v>
+        <v>0.09131622531618921</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="15" t="n">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="B6" s="15" t="n">
-        <v>-0.02299935622195215</v>
+        <v>-0.08949006490159872</v>
       </c>
       <c r="C6" s="15" t="n">
-        <v>-0.0038521444945947</v>
+        <v>0.1334072581546708</v>
       </c>
       <c r="D6" s="15" t="n">
-        <v>0.05771676552874805</v>
+        <v>-0.005296524911660438</v>
       </c>
       <c r="E6" s="15" t="n">
-        <v>0.01092932764059329</v>
+        <v>-0.0332924925393947</v>
       </c>
       <c r="F6" s="15" t="n">
-        <v>0.06252012304264576</v>
+        <v>0.05230156609784919</v>
       </c>
       <c r="G6" s="15" t="n">
-        <v>0.0308796475905615</v>
+        <v>-0.04437071347982657</v>
       </c>
       <c r="H6" s="15" t="n">
-        <v>-0.04659299239310621</v>
+        <v>-0.02877984984234017</v>
       </c>
       <c r="I6" s="15" t="n">
-        <v>0.01471270982404982</v>
+        <v>0.02887793303528929</v>
       </c>
       <c r="J6" s="15" t="n">
-        <v>-0.03328095998769987</v>
+        <v>0.01842281852991423</v>
       </c>
       <c r="K6" s="15" t="n">
-        <v>0.0795439784827463</v>
+        <v>-0.01116497100901026</v>
       </c>
       <c r="L6" s="15" t="n">
-        <v>-0.03424096470552973</v>
+        <v>-0.01329726402864284</v>
       </c>
       <c r="M6" s="15" t="n">
-        <v>0.09130893136406915</v>
+        <v>0.01046036598675926</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="15" t="n">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="B7" s="15" t="n">
-        <v>-0.08949056098467612</v>
+        <v>0.06889925530196672</v>
       </c>
       <c r="C7" s="15" t="n">
-        <v>0.1334122016810053</v>
+        <v>-0.06911654586556959</v>
       </c>
       <c r="D7" s="15" t="n">
-        <v>-0.005313362464505977</v>
+        <v>0.005579219031268901</v>
       </c>
       <c r="E7" s="15" t="n">
-        <v>-0.03337692421874328</v>
+        <v>-0.05286642969828292</v>
       </c>
       <c r="F7" s="15" t="n">
-        <v>0.05231038610954997</v>
+        <v>0.04443415371474058</v>
       </c>
       <c r="G7" s="15" t="n">
-        <v>-0.0443442601427515</v>
+        <v>0.04778575849099997</v>
       </c>
       <c r="H7" s="15" t="n">
-        <v>-0.03567698674770003</v>
+        <v>0.0482083020214128</v>
       </c>
       <c r="I7" s="15" t="n">
-        <v>0.02887970785491945</v>
+        <v>-0.07295179622242942</v>
       </c>
       <c r="J7" s="15" t="n">
-        <v>0.01842396572449601</v>
+        <v>-0.0256549960376089</v>
       </c>
       <c r="K7" s="15" t="n">
-        <v>-0.0101344140122519</v>
+        <v>-0.051284568713167</v>
       </c>
       <c r="L7" s="15" t="n">
-        <v>-0.01335203362886916</v>
+        <v>-0.00394126380280313</v>
       </c>
       <c r="M7" s="15" t="n">
-        <v>0.01046393660515554</v>
+        <v>-0.02452239918811505</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="15" t="n">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B8" s="15" t="n">
-        <v>0.06890233276323121</v>
+        <v>-0.002306526063470704</v>
       </c>
       <c r="C8" s="15" t="n">
-        <v>-0.06911555156501625</v>
+        <v>-0.06305087772337559</v>
       </c>
       <c r="D8" s="15" t="n">
-        <v>-0.01655662018097603</v>
+        <v>0.01145207838107432</v>
       </c>
       <c r="E8" s="15" t="n">
-        <v>-0.05286612402530644</v>
+        <v>-0.01190509846472376</v>
       </c>
       <c r="F8" s="15" t="n">
-        <v>0.04443500246748289</v>
+        <v>-0.0110273091491907</v>
       </c>
       <c r="G8" s="15" t="n">
-        <v>0.04778721866099178</v>
+        <v>-0.04706813536523613</v>
       </c>
       <c r="H8" s="15" t="n">
-        <v>0.04821197139399813</v>
+        <v>0.1497231338928533</v>
       </c>
       <c r="I8" s="15" t="n">
-        <v>-0.0728812763568456</v>
+        <v>-0.005924770832476112</v>
       </c>
       <c r="J8" s="15" t="n">
-        <v>-0.02561364963394641</v>
+        <v>-0.08741962047279894</v>
       </c>
       <c r="K8" s="15" t="n">
-        <v>-0.05126989222505718</v>
+        <v>-0.02371316980078353</v>
       </c>
       <c r="L8" s="15" t="n">
-        <v>-0.004361676256283475</v>
+        <v>0.02246699457240808</v>
       </c>
       <c r="M8" s="15" t="n">
-        <v>-0.02701975559100744</v>
+        <v>0.005947913914993386</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="15" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B9" s="15" t="n">
-        <v>0.001850159995668621</v>
+        <v>0.0301294379972521</v>
       </c>
       <c r="C9" s="15" t="n">
-        <v>-0.08608278279023618</v>
+        <v>0.008034679107045584</v>
       </c>
       <c r="D9" s="15" t="n">
-        <v>0.01696344005811601</v>
+        <v>0.02298358737201811</v>
       </c>
       <c r="E9" s="15" t="n">
-        <v>-0.02640355382284065</v>
+        <v>0.05034840838131793</v>
       </c>
       <c r="F9" s="15" t="n">
-        <v>-0.0110259913420353</v>
+        <v>-0.005071723836647446</v>
       </c>
       <c r="G9" s="15" t="n">
-        <v>-0.004786096532648276</v>
+        <v>-0.000778274811171209</v>
       </c>
       <c r="H9" s="15" t="n">
-        <v>0.1491312283011053</v>
+        <v>0.01114775106786459</v>
       </c>
       <c r="I9" s="15" t="n">
-        <v>0.03621880357426743</v>
+        <v/>
       </c>
       <c r="J9" s="15" t="n">
-        <v>-0.09115117707986231</v>
+        <v/>
       </c>
       <c r="K9" s="15" t="n">
-        <v>-0.01146027491428125</v>
+        <v/>
       </c>
       <c r="L9" s="15" t="n">
-        <v>0.02318742425197273</v>
+        <v/>
       </c>
       <c r="M9" s="15" t="n">
-        <v>0.006015395175961391</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="15" t="n">
-        <v>2022</v>
-      </c>
-      <c r="B10" s="15" t="n">
-        <v>0.03012970094269507</v>
-      </c>
-      <c r="C10" s="15" t="n">
-        <v>0.008019863931072457</v>
-      </c>
-      <c r="D10" s="15" t="n">
-        <v>0.02291001493907174</v>
-      </c>
-      <c r="E10" s="15" t="n">
-        <v>0.05037395029807867</v>
-      </c>
-      <c r="F10" s="15" t="n">
-        <v>-0.005071781147363175</v>
-      </c>
-      <c r="G10" s="15" t="n">
-        <v>-0.000777637847411361</v>
-      </c>
-      <c r="H10" s="15" t="n">
-        <v>0.01114716154506601</v>
-      </c>
-      <c r="I10" s="15" t="n">
-        <v/>
-      </c>
-      <c r="J10" s="15" t="n">
-        <v/>
-      </c>
-      <c r="K10" s="15" t="n">
-        <v/>
-      </c>
-      <c r="L10" s="15" t="n">
-        <v/>
-      </c>
-      <c r="M10" s="15" t="n">
         <v/>
       </c>
     </row>
